--- a/MOP_vs_RXNO.xlsx
+++ b/MOP_vs_RXNO.xlsx
@@ -22064,14 +22064,58 @@
     <t>Colins comment</t>
   </si>
   <si>
-    <t xml:space="preserve">seems to me that the RXNO version was edit second; I would suggest to use MOPs version with the parent class "univalent carboacylation" but add the "has_participant some 'formyl group'" as subclass of axiom to this; wrt the RXNO verison parent "acylation" - we would get "univalent carboacylation" to be an inferred child of "acylation" once we'd assert "acylation" to be equivalent to 'formation of covalent bond with carbon centre' and has_participant some 'acyl group'; but the latter would be part of the equivalent to issue that I'd rather want to tackle later. </t>
+    <r>
+      <t xml:space="preserve">seems to me that the RXNO version was edit second; I would suggest to use MOPs version with the parent class "univalent carboacylation" but add the "has_participant some 'formyl group'" as subclass of axiom to this; wrt the RXNO verison parent "acylation" - we would get "univalent carboacylation" to be an inferred child of "acylation" once we'd assert "acylation" to be equivalent to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'formation of covalent bond with carbon centre' and has_participant some 'acyl group'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as well as adding the SubclassOf axiom</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has_participant some 'carboacyl group' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to "univalent carboacylation" ; but the latter would be part of the equivalent to issue that I'd rather want to tackle later. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22081,6 +22125,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -22803,7 +22855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22902,7 +22954,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>

--- a/MOP_vs_RXNO.xlsx
+++ b/MOP_vs_RXNO.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11093" uniqueCount="7343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11098" uniqueCount="7345">
   <si>
     <t>ID</t>
   </si>
@@ -22110,6 +22110,35 @@
       <t xml:space="preserve">to "univalent carboacylation" ; but the latter would be part of the equivalent to issue that I'd rather want to tackle later. </t>
     </r>
   </si>
+  <si>
+    <t>the one in RXNO can savely be deleted</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add subclassOf axiom </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">has_participant some 'aryl group' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to MOP version</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -22140,7 +22169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22150,6 +22179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22476,7 +22511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -22546,6 +22581,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -22854,8 +22897,8 @@
   <dimension ref="A1:H3631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="2" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22866,7 +22909,7 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" style="35" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22954,7 +22997,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -27581,7 +27624,7 @@
       <c r="E336" s="5"/>
       <c r="F336" s="16"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>681</v>
       </c>
@@ -27595,7 +27638,7 @@
       <c r="E337" s="5"/>
       <c r="F337" s="16"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>683</v>
       </c>
@@ -27609,7 +27652,7 @@
       <c r="E338" s="5"/>
       <c r="F338" s="16"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>686</v>
       </c>
@@ -27623,7 +27666,7 @@
       <c r="E339" s="5"/>
       <c r="F339" s="16"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>688</v>
       </c>
@@ -27637,7 +27680,7 @@
       <c r="E340" s="5"/>
       <c r="F340" s="16"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>690</v>
       </c>
@@ -27651,27 +27694,30 @@
       <c r="E341" s="5"/>
       <c r="F341" s="16"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="5" t="s">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B342" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="C342" s="23" t="s">
+      <c r="C342" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="D342" s="17" t="s">
+      <c r="D342" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="E342" s="5" t="s">
+      <c r="E342" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="F342" s="16" t="s">
+      <c r="F342" s="42" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G342" s="35" t="s">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>696</v>
       </c>
@@ -27685,7 +27731,7 @@
       <c r="E343" s="5"/>
       <c r="F343" s="16"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>698</v>
       </c>
@@ -27699,7 +27745,7 @@
       <c r="E344" s="5"/>
       <c r="F344" s="16"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>700</v>
       </c>
@@ -27713,7 +27759,7 @@
       <c r="E345" s="5"/>
       <c r="F345" s="16"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>702</v>
       </c>
@@ -27727,7 +27773,7 @@
       <c r="E346" s="5"/>
       <c r="F346" s="16"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>704</v>
       </c>
@@ -27741,7 +27787,7 @@
       <c r="E347" s="5"/>
       <c r="F347" s="16"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>707</v>
       </c>
@@ -27755,7 +27801,7 @@
       <c r="E348" s="5"/>
       <c r="F348" s="16"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>710</v>
       </c>
@@ -27769,7 +27815,7 @@
       <c r="E349" s="5"/>
       <c r="F349" s="16"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>712</v>
       </c>
@@ -27783,7 +27829,7 @@
       <c r="E350" s="5"/>
       <c r="F350" s="16"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>715</v>
       </c>
@@ -27797,7 +27843,7 @@
       <c r="E351" s="5"/>
       <c r="F351" s="16"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>717</v>
       </c>
@@ -27811,7 +27857,7 @@
       <c r="E352" s="5"/>
       <c r="F352" s="16"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>720</v>
       </c>
@@ -27825,7 +27871,7 @@
       <c r="E353" s="5"/>
       <c r="F353" s="16"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>723</v>
       </c>
@@ -27839,7 +27885,7 @@
       <c r="E354" s="5"/>
       <c r="F354" s="16"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>726</v>
       </c>
@@ -27853,7 +27899,7 @@
       <c r="E355" s="5"/>
       <c r="F355" s="16"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>728</v>
       </c>
@@ -27867,7 +27913,7 @@
       <c r="E356" s="5"/>
       <c r="F356" s="16"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>730</v>
       </c>
@@ -27881,7 +27927,7 @@
       <c r="E357" s="5"/>
       <c r="F357" s="16"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>732</v>
       </c>
@@ -27895,7 +27941,7 @@
       <c r="E358" s="5"/>
       <c r="F358" s="16"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>734</v>
       </c>
@@ -27909,7 +27955,7 @@
       <c r="E359" s="5"/>
       <c r="F359" s="16"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>736</v>
       </c>
@@ -27923,7 +27969,7 @@
       <c r="E360" s="5"/>
       <c r="F360" s="16"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>738</v>
       </c>
@@ -27937,7 +27983,7 @@
       <c r="E361" s="5"/>
       <c r="F361" s="16"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>740</v>
       </c>
@@ -27951,7 +27997,7 @@
       <c r="E362" s="5"/>
       <c r="F362" s="16"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>742</v>
       </c>
@@ -27965,7 +28011,7 @@
       <c r="E363" s="5"/>
       <c r="F363" s="16"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>744</v>
       </c>
@@ -27979,7 +28025,7 @@
       <c r="E364" s="5"/>
       <c r="F364" s="16"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>746</v>
       </c>
@@ -27993,7 +28039,7 @@
       <c r="E365" s="5"/>
       <c r="F365" s="16"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>749</v>
       </c>
@@ -28007,27 +28053,30 @@
       <c r="E366" s="5"/>
       <c r="F366" s="16"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="5" t="s">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="39" t="s">
         <v>752</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="B367" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="C367" s="23" t="s">
+      <c r="C367" s="40" t="s">
         <v>751</v>
       </c>
-      <c r="D367" s="17" t="s">
+      <c r="D367" s="41" t="s">
         <v>752</v>
       </c>
-      <c r="E367" s="5" t="s">
+      <c r="E367" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="F367" s="16" t="s">
+      <c r="F367" s="42" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G367" s="35" t="s">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>754</v>
       </c>
@@ -28041,7 +28090,7 @@
       <c r="E368" s="5"/>
       <c r="F368" s="16"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>756</v>
       </c>
@@ -28055,7 +28104,7 @@
       <c r="E369" s="5"/>
       <c r="F369" s="16"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>758</v>
       </c>
@@ -28069,7 +28118,7 @@
       <c r="E370" s="5"/>
       <c r="F370" s="16"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>761</v>
       </c>
@@ -28083,27 +28132,30 @@
       <c r="E371" s="5"/>
       <c r="F371" s="16"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="5" t="s">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="39" t="s">
         <v>763</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B372" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="C372" s="23" t="s">
+      <c r="C372" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="D372" s="17" t="s">
+      <c r="D372" s="41" t="s">
         <v>763</v>
       </c>
-      <c r="E372" s="5" t="s">
+      <c r="E372" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="F372" s="16" t="s">
+      <c r="F372" s="42" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" s="35" t="s">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>765</v>
       </c>
@@ -28117,7 +28169,7 @@
       <c r="E373" s="5"/>
       <c r="F373" s="16"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>767</v>
       </c>
@@ -28131,7 +28183,7 @@
       <c r="E374" s="5"/>
       <c r="F374" s="16"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>769</v>
       </c>
@@ -28145,7 +28197,7 @@
       <c r="E375" s="5"/>
       <c r="F375" s="16"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>771</v>
       </c>
@@ -28159,7 +28211,7 @@
       <c r="E376" s="5"/>
       <c r="F376" s="16"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>773</v>
       </c>
@@ -28173,7 +28225,7 @@
       <c r="E377" s="5"/>
       <c r="F377" s="16"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>775</v>
       </c>
@@ -28187,7 +28239,7 @@
       <c r="E378" s="5"/>
       <c r="F378" s="16"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>777</v>
       </c>
@@ -28201,7 +28253,7 @@
       <c r="E379" s="5"/>
       <c r="F379" s="16"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>779</v>
       </c>
@@ -28215,7 +28267,7 @@
       <c r="E380" s="5"/>
       <c r="F380" s="16"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>781</v>
       </c>
@@ -28229,7 +28281,7 @@
       <c r="E381" s="5"/>
       <c r="F381" s="16"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>783</v>
       </c>
@@ -28243,7 +28295,7 @@
       <c r="E382" s="5"/>
       <c r="F382" s="16"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>785</v>
       </c>
@@ -28257,7 +28309,7 @@
       <c r="E383" s="5"/>
       <c r="F383" s="16"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>787</v>
       </c>
@@ -28495,7 +28547,7 @@
       <c r="E400" s="5"/>
       <c r="F400" s="16"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>821</v>
       </c>
@@ -28509,7 +28561,7 @@
       <c r="E401" s="5"/>
       <c r="F401" s="16"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>823</v>
       </c>
@@ -28523,7 +28575,7 @@
       <c r="E402" s="5"/>
       <c r="F402" s="16"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>825</v>
       </c>
@@ -28537,7 +28589,7 @@
       <c r="E403" s="5"/>
       <c r="F403" s="16"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>827</v>
       </c>
@@ -28551,7 +28603,7 @@
       <c r="E404" s="5"/>
       <c r="F404" s="16"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>829</v>
       </c>
@@ -28565,7 +28617,7 @@
       <c r="E405" s="5"/>
       <c r="F405" s="16"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>831</v>
       </c>
@@ -28579,7 +28631,7 @@
       <c r="E406" s="5"/>
       <c r="F406" s="16"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>833</v>
       </c>
@@ -28593,7 +28645,7 @@
       <c r="E407" s="5"/>
       <c r="F407" s="16"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>835</v>
       </c>
@@ -28607,7 +28659,7 @@
       <c r="E408" s="5"/>
       <c r="F408" s="16"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>837</v>
       </c>
@@ -28621,7 +28673,7 @@
       <c r="E409" s="5"/>
       <c r="F409" s="16"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>839</v>
       </c>
@@ -28635,7 +28687,7 @@
       <c r="E410" s="5"/>
       <c r="F410" s="16"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>841</v>
       </c>
@@ -28649,7 +28701,7 @@
       <c r="E411" s="5"/>
       <c r="F411" s="16"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>843</v>
       </c>
@@ -28663,47 +28715,53 @@
       <c r="E412" s="5"/>
       <c r="F412" s="16"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="5" t="s">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="39" t="s">
         <v>845</v>
       </c>
-      <c r="B413" s="5" t="s">
+      <c r="B413" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="C413" s="23" t="s">
+      <c r="C413" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D413" s="17" t="s">
+      <c r="D413" s="41" t="s">
         <v>845</v>
       </c>
-      <c r="E413" s="5" t="s">
+      <c r="E413" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="F413" s="16" t="s">
+      <c r="F413" s="42" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="5" t="s">
+      <c r="G413" s="35" t="s">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="43" t="s">
         <v>846</v>
       </c>
-      <c r="B414" s="5" t="s">
+      <c r="B414" s="43" t="s">
         <v>847</v>
       </c>
-      <c r="C414" s="23" t="s">
+      <c r="C414" s="36" t="s">
         <v>764</v>
       </c>
-      <c r="D414" s="17" t="s">
+      <c r="D414" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="E414" s="5" t="s">
+      <c r="E414" s="43" t="s">
         <v>847</v>
       </c>
-      <c r="F414" s="16" t="s">
+      <c r="F414" s="37" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G414" s="35" t="s">
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>849</v>
       </c>
@@ -28717,7 +28775,7 @@
       <c r="E415" s="5"/>
       <c r="F415" s="16"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>851</v>
       </c>

--- a/MOP_vs_RXNO.xlsx
+++ b/MOP_vs_RXNO.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11098" uniqueCount="7345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11102" uniqueCount="7348">
   <si>
     <t>ID</t>
   </si>
@@ -22138,6 +22138,15 @@
       </rPr>
       <t>to MOP version</t>
     </r>
+  </si>
+  <si>
+    <t>use parent of MOP version as it is more specific, thus the RXNO version can be discarded</t>
+  </si>
+  <si>
+    <t>delete equivalentTo axiom in MOP version and subsume under "organylation" there analog the the RXNO version before discarding in RXNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use the MOP version's parent as it's more specific but copy the rdfs:comment </t>
   </si>
 </sst>
 </file>
@@ -22511,7 +22520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -22572,8 +22581,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -22589,6 +22596,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -22897,8 +22907,8 @@
   <dimension ref="A1:H3631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C421" sqref="C421"/>
+      <pane ySplit="2" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D545" sqref="D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22909,7 +22919,7 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" style="36" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22966,7 +22976,7 @@
       <c r="D3" s="20"/>
       <c r="E3" s="6"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="34"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -23004,7 +23014,7 @@
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -23013,10 +23023,10 @@
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="36" t="s">
         <v>7342</v>
       </c>
     </row>
@@ -27695,25 +27705,25 @@
       <c r="F341" s="16"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="39" t="s">
+      <c r="A342" s="37" t="s">
         <v>692</v>
       </c>
-      <c r="B342" s="39" t="s">
+      <c r="B342" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="C342" s="40" t="s">
+      <c r="C342" s="38" t="s">
         <v>694</v>
       </c>
-      <c r="D342" s="41" t="s">
+      <c r="D342" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="E342" s="39" t="s">
+      <c r="E342" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="F342" s="42" t="s">
+      <c r="F342" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="G342" s="35" t="s">
+      <c r="G342" s="36" t="s">
         <v>7343</v>
       </c>
     </row>
@@ -28054,25 +28064,25 @@
       <c r="F366" s="16"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="39" t="s">
+      <c r="A367" s="37" t="s">
         <v>752</v>
       </c>
-      <c r="B367" s="39" t="s">
+      <c r="B367" s="37" t="s">
         <v>753</v>
       </c>
-      <c r="C367" s="40" t="s">
+      <c r="C367" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="D367" s="41" t="s">
+      <c r="D367" s="39" t="s">
         <v>752</v>
       </c>
-      <c r="E367" s="39" t="s">
+      <c r="E367" s="37" t="s">
         <v>753</v>
       </c>
-      <c r="F367" s="42" t="s">
+      <c r="F367" s="40" t="s">
         <v>751</v>
       </c>
-      <c r="G367" s="35" t="s">
+      <c r="G367" s="36" t="s">
         <v>7343</v>
       </c>
     </row>
@@ -28133,25 +28143,25 @@
       <c r="F371" s="16"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="39" t="s">
+      <c r="A372" s="37" t="s">
         <v>763</v>
       </c>
-      <c r="B372" s="39" t="s">
+      <c r="B372" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="C372" s="40" t="s">
+      <c r="C372" s="38" t="s">
         <v>764</v>
       </c>
-      <c r="D372" s="41" t="s">
+      <c r="D372" s="39" t="s">
         <v>763</v>
       </c>
-      <c r="E372" s="39" t="s">
+      <c r="E372" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="F372" s="42" t="s">
+      <c r="F372" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="G372" s="35" t="s">
+      <c r="G372" s="36" t="s">
         <v>7343</v>
       </c>
     </row>
@@ -28716,48 +28726,48 @@
       <c r="F412" s="16"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="39" t="s">
+      <c r="A413" s="37" t="s">
         <v>845</v>
       </c>
-      <c r="B413" s="39" t="s">
+      <c r="B413" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="C413" s="40" t="s">
+      <c r="C413" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D413" s="41" t="s">
+      <c r="D413" s="39" t="s">
         <v>845</v>
       </c>
-      <c r="E413" s="39" t="s">
+      <c r="E413" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="F413" s="42" t="s">
+      <c r="F413" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G413" s="35" t="s">
+      <c r="G413" s="36" t="s">
         <v>7343</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="43" t="s">
+    <row r="414" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A414" s="41" t="s">
         <v>846</v>
       </c>
-      <c r="B414" s="43" t="s">
+      <c r="B414" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="C414" s="36" t="s">
+      <c r="C414" s="34" t="s">
         <v>764</v>
       </c>
-      <c r="D414" s="44" t="s">
+      <c r="D414" s="42" t="s">
         <v>846</v>
       </c>
-      <c r="E414" s="43" t="s">
+      <c r="E414" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="F414" s="37" t="s">
+      <c r="F414" s="35" t="s">
         <v>848</v>
       </c>
-      <c r="G414" s="35" t="s">
+      <c r="G414" s="36" t="s">
         <v>7344</v>
       </c>
     </row>
@@ -28789,7 +28799,7 @@
       <c r="E416" s="5"/>
       <c r="F416" s="16"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>853</v>
       </c>
@@ -28803,7 +28813,7 @@
       <c r="E417" s="5"/>
       <c r="F417" s="16"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>855</v>
       </c>
@@ -28817,7 +28827,7 @@
       <c r="E418" s="5"/>
       <c r="F418" s="16"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>857</v>
       </c>
@@ -28831,7 +28841,7 @@
       <c r="E419" s="5"/>
       <c r="F419" s="16"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>859</v>
       </c>
@@ -28845,7 +28855,7 @@
       <c r="E420" s="5"/>
       <c r="F420" s="16"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>861</v>
       </c>
@@ -28859,7 +28869,7 @@
       <c r="E421" s="5"/>
       <c r="F421" s="16"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>863</v>
       </c>
@@ -28873,7 +28883,7 @@
       <c r="E422" s="5"/>
       <c r="F422" s="16"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>865</v>
       </c>
@@ -28887,7 +28897,7 @@
       <c r="E423" s="5"/>
       <c r="F423" s="16"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>867</v>
       </c>
@@ -28901,27 +28911,30 @@
       <c r="E424" s="5"/>
       <c r="F424" s="16"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="5" t="s">
+    <row r="425" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A425" s="41" t="s">
         <v>869</v>
       </c>
-      <c r="B425" s="5" t="s">
+      <c r="B425" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="C425" s="23" t="s">
+      <c r="C425" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="D425" s="17" t="s">
+      <c r="D425" s="42" t="s">
         <v>869</v>
       </c>
-      <c r="E425" s="5" t="s">
+      <c r="E425" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="F425" s="16" t="s">
+      <c r="F425" s="35" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G425" s="36" t="s">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>871</v>
       </c>
@@ -28935,7 +28948,7 @@
       <c r="E426" s="5"/>
       <c r="F426" s="16"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>873</v>
       </c>
@@ -28949,7 +28962,7 @@
       <c r="E427" s="5"/>
       <c r="F427" s="16"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>875</v>
       </c>
@@ -28963,7 +28976,7 @@
       <c r="E428" s="5"/>
       <c r="F428" s="16"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>877</v>
       </c>
@@ -28977,7 +28990,7 @@
       <c r="E429" s="5"/>
       <c r="F429" s="16"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>879</v>
       </c>
@@ -28987,7 +29000,7 @@
       <c r="E430" s="5"/>
       <c r="F430" s="16"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>880</v>
       </c>
@@ -29001,7 +29014,7 @@
       <c r="E431" s="5"/>
       <c r="F431" s="16"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>882</v>
       </c>
@@ -29239,7 +29252,7 @@
       <c r="E448" s="5"/>
       <c r="F448" s="16"/>
     </row>
-    <row r="449" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>916</v>
       </c>
@@ -29253,7 +29266,7 @@
       <c r="E449" s="5"/>
       <c r="F449" s="16"/>
     </row>
-    <row r="450" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>919</v>
       </c>
@@ -29267,7 +29280,7 @@
       <c r="E450" s="5"/>
       <c r="F450" s="16"/>
     </row>
-    <row r="451" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>921</v>
       </c>
@@ -29281,7 +29294,7 @@
       <c r="E451" s="5"/>
       <c r="F451" s="16"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>923</v>
       </c>
@@ -29295,7 +29308,7 @@
       <c r="E452" s="5"/>
       <c r="F452" s="16"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>925</v>
       </c>
@@ -29309,7 +29322,7 @@
       <c r="E453" s="5"/>
       <c r="F453" s="16"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>927</v>
       </c>
@@ -29323,7 +29336,7 @@
       <c r="E454" s="5"/>
       <c r="F454" s="16"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>929</v>
       </c>
@@ -29337,7 +29350,7 @@
       <c r="E455" s="5"/>
       <c r="F455" s="16"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>932</v>
       </c>
@@ -29351,7 +29364,7 @@
       <c r="E456" s="5"/>
       <c r="F456" s="16"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>934</v>
       </c>
@@ -29365,7 +29378,7 @@
       <c r="E457" s="5"/>
       <c r="F457" s="16"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>936</v>
       </c>
@@ -29379,7 +29392,7 @@
       <c r="E458" s="5"/>
       <c r="F458" s="16"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>938</v>
       </c>
@@ -29393,7 +29406,7 @@
       <c r="E459" s="5"/>
       <c r="F459" s="16"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>940</v>
       </c>
@@ -29407,27 +29420,30 @@
       <c r="E460" s="5"/>
       <c r="F460" s="16"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="5" t="s">
+    <row r="461" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A461" s="41" t="s">
         <v>942</v>
       </c>
-      <c r="B461" s="5" t="s">
+      <c r="B461" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C461" s="23" t="s">
+      <c r="C461" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D461" s="17" t="s">
+      <c r="D461" s="42" t="s">
         <v>942</v>
       </c>
-      <c r="E461" s="5" t="s">
+      <c r="E461" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F461" s="16" t="s">
+      <c r="F461" s="35" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G461" s="36" t="s">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>943</v>
       </c>
@@ -29441,7 +29457,7 @@
       <c r="E462" s="5"/>
       <c r="F462" s="16"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>946</v>
       </c>
@@ -29455,7 +29471,7 @@
       <c r="E463" s="5"/>
       <c r="F463" s="16"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>947</v>
       </c>
@@ -29693,7 +29709,7 @@
       <c r="E480" s="5"/>
       <c r="F480" s="16"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>980</v>
       </c>
@@ -29707,27 +29723,30 @@
       <c r="E481" s="5"/>
       <c r="F481" s="16"/>
     </row>
-    <row r="482" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A482" s="5" t="s">
+    <row r="482" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A482" s="41" t="s">
         <v>982</v>
       </c>
-      <c r="B482" s="5" t="s">
+      <c r="B482" s="41" t="s">
         <v>983</v>
       </c>
-      <c r="C482" s="23" t="s">
+      <c r="C482" s="34" t="s">
         <v>984</v>
       </c>
-      <c r="D482" s="17" t="s">
+      <c r="D482" s="42" t="s">
         <v>982</v>
       </c>
-      <c r="E482" s="5" t="s">
+      <c r="E482" s="41" t="s">
         <v>983</v>
       </c>
-      <c r="F482" s="16" t="s">
+      <c r="F482" s="35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G482" s="36" t="s">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>985</v>
       </c>
@@ -29741,7 +29760,7 @@
       <c r="E483" s="5"/>
       <c r="F483" s="16"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>986</v>
       </c>
@@ -29755,7 +29774,7 @@
       <c r="E484" s="5"/>
       <c r="F484" s="16"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>988</v>
       </c>
@@ -29769,7 +29788,7 @@
       <c r="E485" s="5"/>
       <c r="F485" s="16"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>990</v>
       </c>
@@ -29783,7 +29802,7 @@
       <c r="E486" s="5"/>
       <c r="F486" s="16"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>992</v>
       </c>
@@ -29797,7 +29816,7 @@
       <c r="E487" s="5"/>
       <c r="F487" s="16"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>994</v>
       </c>
@@ -29811,7 +29830,7 @@
       <c r="E488" s="5"/>
       <c r="F488" s="16"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>996</v>
       </c>
@@ -29825,7 +29844,7 @@
       <c r="E489" s="5"/>
       <c r="F489" s="16"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>998</v>
       </c>
@@ -29839,7 +29858,7 @@
       <c r="E490" s="5"/>
       <c r="F490" s="16"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>1000</v>
       </c>
@@ -29853,7 +29872,7 @@
       <c r="E491" s="5"/>
       <c r="F491" s="16"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>1002</v>
       </c>
@@ -29867,7 +29886,7 @@
       <c r="E492" s="5"/>
       <c r="F492" s="16"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>1004</v>
       </c>
@@ -29881,7 +29900,7 @@
       <c r="E493" s="5"/>
       <c r="F493" s="16"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>1006</v>
       </c>
@@ -29895,7 +29914,7 @@
       <c r="E494" s="5"/>
       <c r="F494" s="16"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>1008</v>
       </c>
@@ -29909,7 +29928,7 @@
       <c r="E495" s="5"/>
       <c r="F495" s="16"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>1010</v>
       </c>
@@ -30369,7 +30388,7 @@
       <c r="E528" s="5"/>
       <c r="F528" s="16"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>1079</v>
       </c>
@@ -30383,7 +30402,7 @@
       <c r="E529" s="5"/>
       <c r="F529" s="16"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>1081</v>
       </c>
@@ -30397,7 +30416,7 @@
       <c r="E530" s="5"/>
       <c r="F530" s="16"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>1083</v>
       </c>
@@ -30411,7 +30430,7 @@
       <c r="E531" s="5"/>
       <c r="F531" s="16"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>1085</v>
       </c>
@@ -30425,7 +30444,7 @@
       <c r="E532" s="5"/>
       <c r="F532" s="16"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>1087</v>
       </c>
@@ -30439,7 +30458,7 @@
       <c r="E533" s="5"/>
       <c r="F533" s="16"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
         <v>1089</v>
       </c>
@@ -30453,7 +30472,7 @@
       <c r="E534" s="5"/>
       <c r="F534" s="16"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>1091</v>
       </c>
@@ -30467,7 +30486,7 @@
       <c r="E535" s="5"/>
       <c r="F535" s="16"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>1093</v>
       </c>
@@ -30481,7 +30500,7 @@
       <c r="E536" s="5"/>
       <c r="F536" s="16"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>1095</v>
       </c>
@@ -30495,7 +30514,7 @@
       <c r="E537" s="5"/>
       <c r="F537" s="16"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>1097</v>
       </c>
@@ -30509,7 +30528,7 @@
       <c r="E538" s="5"/>
       <c r="F538" s="16"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>1099</v>
       </c>
@@ -30523,7 +30542,7 @@
       <c r="E539" s="5"/>
       <c r="F539" s="16"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>1101</v>
       </c>
@@ -30537,7 +30556,7 @@
       <c r="E540" s="5"/>
       <c r="F540" s="16"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>1103</v>
       </c>
@@ -30551,27 +30570,30 @@
       <c r="E541" s="5"/>
       <c r="F541" s="16"/>
     </row>
-    <row r="542" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A542" s="5" t="s">
+    <row r="542" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A542" s="41" t="s">
         <v>1105</v>
       </c>
-      <c r="B542" s="5" t="s">
+      <c r="B542" s="41" t="s">
         <v>1106</v>
       </c>
-      <c r="C542" s="23" t="s">
+      <c r="C542" s="34" t="s">
         <v>1107</v>
       </c>
-      <c r="D542" s="17" t="s">
+      <c r="D542" s="42" t="s">
         <v>1105</v>
       </c>
-      <c r="E542" s="5" t="s">
+      <c r="E542" s="41" t="s">
         <v>1106</v>
       </c>
-      <c r="F542" s="16" t="s">
+      <c r="F542" s="35" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G542" s="36" t="s">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>1108</v>
       </c>
@@ -30585,7 +30607,7 @@
       <c r="E543" s="5"/>
       <c r="F543" s="16"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>1110</v>
       </c>

--- a/MOP_vs_RXNO.xlsx
+++ b/MOP_vs_RXNO.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11127" uniqueCount="7360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11134" uniqueCount="7363">
   <si>
     <t>ID</t>
   </si>
@@ -22220,6 +22220,15 @@
   <si>
     <t>use MOP version</t>
   </si>
+  <si>
+    <t>use RXNO version, as this seems to be more precise</t>
+  </si>
+  <si>
+    <t>use RXNO version, as this seems to be more precise; leaves oxidated cleavage dangling</t>
+  </si>
+  <si>
+    <t>use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete.</t>
+  </si>
 </sst>
 </file>
 
@@ -22257,7 +22266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22273,6 +22282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22599,7 +22614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -22689,9 +22704,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -23000,8 +23023,8 @@
   <dimension ref="A1:H3631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F586" sqref="F586"/>
+      <pane ySplit="2" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D585" sqref="D585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31305,7 +31328,7 @@
       <c r="D576" s="27" t="s">
         <v>1183</v>
       </c>
-      <c r="E576" s="41" t="s">
+      <c r="E576" s="42" t="s">
         <v>1185</v>
       </c>
       <c r="F576" s="21" t="s">
@@ -31328,7 +31351,7 @@
       <c r="D577" s="27" t="s">
         <v>1187</v>
       </c>
-      <c r="E577" s="41" t="s">
+      <c r="E577" s="42" t="s">
         <v>1189</v>
       </c>
       <c r="F577" s="21" t="s">
@@ -31500,143 +31523,164 @@
       </c>
     </row>
     <row r="585" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A585" s="3" t="s">
+      <c r="A585" s="23" t="s">
         <v>1210</v>
       </c>
-      <c r="B585" s="32" t="s">
+      <c r="B585" s="33" t="s">
         <v>1211</v>
       </c>
-      <c r="C585" s="11" t="s">
+      <c r="C585" s="24" t="s">
         <v>1209</v>
       </c>
-      <c r="D585" s="6" t="s">
+      <c r="D585" s="25" t="s">
         <v>1210</v>
       </c>
-      <c r="E585" s="32" t="s">
+      <c r="E585" s="33" t="s">
         <v>1211</v>
       </c>
-      <c r="F585" s="11" t="s">
+      <c r="F585" s="24" t="s">
         <v>1209</v>
       </c>
+      <c r="G585" s="22" t="s">
+        <v>7359</v>
+      </c>
     </row>
     <row r="586" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A586" s="3" t="s">
+      <c r="A586" s="23" t="s">
         <v>1212</v>
       </c>
-      <c r="B586" s="32" t="s">
+      <c r="B586" s="33" t="s">
         <v>1213</v>
       </c>
-      <c r="C586" s="11" t="s">
+      <c r="C586" s="24" t="s">
         <v>1214</v>
       </c>
-      <c r="D586" s="6" t="s">
+      <c r="D586" s="25" t="s">
         <v>1212</v>
       </c>
-      <c r="E586" s="32" t="s">
+      <c r="E586" s="33" t="s">
         <v>1213</v>
       </c>
-      <c r="F586" s="11" t="s">
+      <c r="F586" s="24" t="s">
         <v>1214</v>
       </c>
+      <c r="G586" s="22" t="s">
+        <v>7359</v>
+      </c>
     </row>
     <row r="587" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A587" s="3" t="s">
+      <c r="A587" s="43" t="s">
         <v>1215</v>
       </c>
-      <c r="B587" s="32" t="s">
+      <c r="B587" s="41" t="s">
         <v>1216</v>
       </c>
-      <c r="C587" s="11" t="s">
+      <c r="C587" s="44" t="s">
         <v>1217</v>
       </c>
-      <c r="D587" s="6" t="s">
+      <c r="D587" s="45" t="s">
         <v>1215</v>
       </c>
-      <c r="E587" s="32" t="s">
+      <c r="E587" s="41" t="s">
         <v>1216</v>
       </c>
-      <c r="F587" s="11" t="s">
+      <c r="F587" s="44" t="s">
         <v>1218</v>
       </c>
+      <c r="G587" s="22" t="s">
+        <v>7361</v>
+      </c>
     </row>
     <row r="588" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A588" s="3" t="s">
+      <c r="A588" s="43" t="s">
         <v>1219</v>
       </c>
-      <c r="B588" s="32" t="s">
+      <c r="B588" s="41" t="s">
         <v>1220</v>
       </c>
-      <c r="C588" s="11" t="s">
+      <c r="C588" s="44" t="s">
         <v>1217</v>
       </c>
-      <c r="D588" s="6" t="s">
+      <c r="D588" s="45" t="s">
         <v>1219</v>
       </c>
-      <c r="E588" s="32" t="s">
+      <c r="E588" s="41" t="s">
         <v>1220</v>
       </c>
-      <c r="F588" s="11" t="s">
+      <c r="F588" s="44" t="s">
         <v>1221</v>
       </c>
+      <c r="G588" s="22" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="589" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A589" s="3" t="s">
+      <c r="A589" s="43" t="s">
         <v>1222</v>
       </c>
-      <c r="B589" s="32" t="s">
+      <c r="B589" s="41" t="s">
         <v>1223</v>
       </c>
-      <c r="C589" s="11" t="s">
+      <c r="C589" s="44" t="s">
         <v>1217</v>
       </c>
-      <c r="D589" s="6" t="s">
+      <c r="D589" s="45" t="s">
         <v>1222</v>
       </c>
-      <c r="E589" s="32" t="s">
+      <c r="E589" s="41" t="s">
         <v>1223</v>
       </c>
-      <c r="F589" s="11" t="s">
+      <c r="F589" s="44" t="s">
         <v>1224</v>
       </c>
+      <c r="G589" s="22" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="590" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A590" s="3" t="s">
+      <c r="A590" s="43" t="s">
         <v>1225</v>
       </c>
-      <c r="B590" s="32" t="s">
+      <c r="B590" s="41" t="s">
         <v>1226</v>
       </c>
-      <c r="C590" s="11" t="s">
+      <c r="C590" s="44" t="s">
         <v>1217</v>
       </c>
-      <c r="D590" s="6" t="s">
+      <c r="D590" s="45" t="s">
         <v>1225</v>
       </c>
-      <c r="E590" s="32" t="s">
+      <c r="E590" s="41" t="s">
         <v>1226</v>
       </c>
-      <c r="F590" s="11" t="s">
+      <c r="F590" s="44" t="s">
         <v>1227</v>
       </c>
+      <c r="G590" s="22" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="591" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A591" s="3" t="s">
+      <c r="A591" s="43" t="s">
         <v>1228</v>
       </c>
-      <c r="B591" s="32" t="s">
+      <c r="B591" s="41" t="s">
         <v>1229</v>
       </c>
-      <c r="C591" s="11" t="s">
+      <c r="C591" s="44" t="s">
         <v>1217</v>
       </c>
-      <c r="D591" s="6" t="s">
+      <c r="D591" s="45" t="s">
         <v>1228</v>
       </c>
-      <c r="E591" s="32" t="s">
+      <c r="E591" s="41" t="s">
         <v>1229</v>
       </c>
-      <c r="F591" s="11" t="s">
+      <c r="F591" s="44" t="s">
         <v>1221</v>
+      </c>
+      <c r="G591" s="22" t="s">
+        <v>7362</v>
       </c>
     </row>
     <row r="592" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/MOP_vs_RXNO.xlsx
+++ b/MOP_vs_RXNO.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11134" uniqueCount="7363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11134" uniqueCount="7362">
   <si>
     <t>ID</t>
   </si>
@@ -22221,13 +22221,10 @@
     <t>use MOP version</t>
   </si>
   <si>
-    <t>use RXNO version, as this seems to be more precise</t>
-  </si>
-  <si>
-    <t>use RXNO version, as this seems to be more precise; leaves oxidated cleavage dangling</t>
-  </si>
-  <si>
     <t>use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete.</t>
+  </si>
+  <si>
+    <t>use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete. Also for now make the parent 'alkene oxidative cleavage' also a child of 'oxidative cleavage' undtil this can be inffered instead of being asserted.</t>
   </si>
 </sst>
 </file>
@@ -23023,8 +23020,8 @@
   <dimension ref="A1:H3631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D585" sqref="D585"/>
+      <pane ySplit="2" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G590" sqref="G590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31588,7 +31585,7 @@
         <v>1218</v>
       </c>
       <c r="G587" s="22" t="s">
-        <v>7361</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="588" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -31611,7 +31608,7 @@
         <v>1221</v>
       </c>
       <c r="G588" s="22" t="s">
-        <v>7360</v>
+        <v>7361</v>
       </c>
     </row>
     <row r="589" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -31634,7 +31631,7 @@
         <v>1224</v>
       </c>
       <c r="G589" s="22" t="s">
-        <v>7360</v>
+        <v>7361</v>
       </c>
     </row>
     <row r="590" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -31657,10 +31654,10 @@
         <v>1227</v>
       </c>
       <c r="G590" s="22" t="s">
-        <v>7360</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A591" s="43" t="s">
         <v>1228</v>
       </c>
@@ -31680,7 +31677,7 @@
         <v>1221</v>
       </c>
       <c r="G591" s="22" t="s">
-        <v>7362</v>
+        <v>7361</v>
       </c>
     </row>
     <row r="592" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/MOP_vs_RXNO.xlsx
+++ b/MOP_vs_RXNO.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11134" uniqueCount="7362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11155" uniqueCount="7371">
   <si>
     <t>ID</t>
   </si>
@@ -22203,9 +22203,6 @@
     </r>
   </si>
   <si>
-    <t>use MOP version, as ist parent is more precise</t>
-  </si>
-  <si>
     <t>copy subclassOf axioms from RXNO version to MOP</t>
   </si>
   <si>
@@ -22215,23 +22212,53 @@
     <t>copy subclassOf axioms from RXNO version to MOP; which label?</t>
   </si>
   <si>
-    <t>use RXNO version as ist parent is more precise</t>
-  </si>
-  <si>
     <t>use MOP version</t>
   </si>
   <si>
-    <t>use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete.</t>
-  </si>
-  <si>
     <t>use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete. Also for now make the parent 'alkene oxidative cleavage' also a child of 'oxidative cleavage' undtil this can be inffered instead of being asserted.</t>
+  </si>
+  <si>
+    <t>use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete. Also add axioms on 'alkene oxidative cleavage and 'oxidative cleavage'</t>
+  </si>
+  <si>
+    <t>use MOP version but keep has_alternative_id annotation</t>
+  </si>
+  <si>
+    <t>use MOP version but keep RXNO label as alternative label</t>
+  </si>
+  <si>
+    <t>use MOP Version</t>
+  </si>
+  <si>
+    <t>use RXNO version as its parent is more precise</t>
+  </si>
+  <si>
+    <t>use MOP version, as its parent is more precise</t>
+  </si>
+  <si>
+    <t>mint new ID for oxidation state and make annotation to wrong id</t>
+  </si>
+  <si>
+    <t>MOP:0000591 is the correct ID for 'carboxylation' --&gt; affects subclass RXNO:0000182, but copy has participant axiom to MOP:0000591, also make comments to reflect this change; change parent (acylation) to be a subclass of  "organylation" as it is in RXNO and not just a sibling as it is in MOP right now</t>
+  </si>
+  <si>
+    <t>"carbonyl oxidation to alkyne" has wrong ID, as this was taken by MOP already, thus needs a new ID to be minted in MOP</t>
+  </si>
+  <si>
+    <t>"[3+2] cycloaddition" has wrong ID, as this was taken by MOP already, thus needs a new ID to be minted in MOP</t>
+  </si>
+  <si>
+    <t>"enolization" is MOP:0000672 --&gt; wrong ID in RXNO; sync axioms and use MOP parent 'keto-enol tautomerisation'</t>
+  </si>
+  <si>
+    <t>cut to MOP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22262,8 +22289,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22285,6 +22320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22608,10 +22649,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -22686,6 +22728,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -22701,19 +22757,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -23020,8 +23082,8 @@
   <dimension ref="A1:H3631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G590" sqref="G590"/>
+      <pane ySplit="2" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G723" sqref="G723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23029,7 +23091,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="14" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="14" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="14" customWidth="1"/>
     <col min="7" max="7" width="54.85546875" style="22" customWidth="1"/>
@@ -23037,16 +23099,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>7338</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>7339</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="19" t="s">
         <v>7340</v>
       </c>
@@ -31171,7 +31233,7 @@
         <v>1115</v>
       </c>
       <c r="G569" s="22" t="s">
-        <v>7354</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="570" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -31194,7 +31256,7 @@
         <v>1115</v>
       </c>
       <c r="G570" s="22" t="s">
-        <v>7354</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -31286,7 +31348,7 @@
         <v>1179</v>
       </c>
       <c r="G574" s="22" t="s">
-        <v>7355</v>
+        <v>7354</v>
       </c>
     </row>
     <row r="575" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -31309,7 +31371,7 @@
         <v>1182</v>
       </c>
       <c r="G575" s="22" t="s">
-        <v>7356</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="576" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -31325,14 +31387,14 @@
       <c r="D576" s="27" t="s">
         <v>1183</v>
       </c>
-      <c r="E576" s="42" t="s">
+      <c r="E576" s="37" t="s">
         <v>1185</v>
       </c>
       <c r="F576" s="21" t="s">
         <v>1186</v>
       </c>
       <c r="G576" s="22" t="s">
-        <v>7357</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="577" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -31348,14 +31410,14 @@
       <c r="D577" s="27" t="s">
         <v>1187</v>
       </c>
-      <c r="E577" s="42" t="s">
+      <c r="E577" s="37" t="s">
         <v>1189</v>
       </c>
       <c r="F577" s="21" t="s">
         <v>1190</v>
       </c>
       <c r="G577" s="22" t="s">
-        <v>7357</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="578" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -31378,7 +31440,7 @@
         <v>1193</v>
       </c>
       <c r="G578" s="22" t="s">
-        <v>7358</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="579" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -31401,7 +31463,7 @@
         <v>1174</v>
       </c>
       <c r="G579" s="22" t="s">
-        <v>7359</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="580" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -31424,7 +31486,7 @@
         <v>1198</v>
       </c>
       <c r="G580" s="22" t="s">
-        <v>7356</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="581" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -31447,7 +31509,7 @@
         <v>1201</v>
       </c>
       <c r="G581" s="22" t="s">
-        <v>7356</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="582" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -31470,7 +31532,7 @@
         <v>1204</v>
       </c>
       <c r="G582" s="22" t="s">
-        <v>7356</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="583" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -31493,7 +31555,7 @@
         <v>1207</v>
       </c>
       <c r="G583" s="22" t="s">
-        <v>7355</v>
+        <v>7354</v>
       </c>
     </row>
     <row r="584" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -31516,7 +31578,7 @@
         <v>1172</v>
       </c>
       <c r="G584" s="22" t="s">
-        <v>7359</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="585" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -31539,7 +31601,7 @@
         <v>1209</v>
       </c>
       <c r="G585" s="22" t="s">
-        <v>7359</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="586" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -31562,145 +31624,148 @@
         <v>1214</v>
       </c>
       <c r="G586" s="22" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A587" s="38" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B587" s="36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C587" s="39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D587" s="40" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E587" s="36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F587" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G587" s="41" t="s">
         <v>7359</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A587" s="43" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B587" s="41" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C587" s="44" t="s">
+    <row r="588" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A588" s="38" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B588" s="36" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C588" s="39" t="s">
         <v>1217</v>
       </c>
-      <c r="D587" s="45" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E587" s="41" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F587" s="44" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G587" s="22" t="s">
-        <v>7360</v>
-      </c>
-    </row>
-    <row r="588" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A588" s="43" t="s">
+      <c r="D588" s="40" t="s">
         <v>1219</v>
       </c>
-      <c r="B588" s="41" t="s">
+      <c r="E588" s="36" t="s">
         <v>1220</v>
       </c>
-      <c r="C588" s="44" t="s">
+      <c r="F588" s="39" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G588" s="41" t="s">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A589" s="38" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B589" s="36" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C589" s="39" t="s">
         <v>1217</v>
       </c>
-      <c r="D588" s="45" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E588" s="41" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F588" s="44" t="s">
+      <c r="D589" s="40" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E589" s="36" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F589" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G589" s="41" t="s">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A590" s="38" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B590" s="36" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C590" s="39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D590" s="40" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E590" s="36" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F590" s="39" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G590" s="22" t="s">
+        <v>7358</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A591" s="38" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B591" s="36" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C591" s="39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D591" s="40" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E591" s="36" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F591" s="39" t="s">
         <v>1221</v>
       </c>
-      <c r="G588" s="22" t="s">
-        <v>7361</v>
-      </c>
-    </row>
-    <row r="589" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A589" s="43" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B589" s="41" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C589" s="44" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D589" s="45" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E589" s="41" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F589" s="44" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G589" s="22" t="s">
-        <v>7361</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A590" s="43" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B590" s="41" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C590" s="44" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D590" s="45" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E590" s="41" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F590" s="44" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G590" s="22" t="s">
-        <v>7361</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A591" s="43" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B591" s="41" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C591" s="44" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D591" s="45" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E591" s="41" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F591" s="44" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G591" s="22" t="s">
-        <v>7361</v>
+      <c r="G591" s="41" t="s">
+        <v>7359</v>
       </c>
     </row>
     <row r="592" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A592" s="3" t="s">
+      <c r="A592" s="23" t="s">
         <v>1230</v>
       </c>
-      <c r="B592" s="32" t="s">
+      <c r="B592" s="33" t="s">
         <v>1231</v>
       </c>
-      <c r="C592" s="11" t="s">
+      <c r="C592" s="24" t="s">
         <v>1174</v>
       </c>
-      <c r="D592" s="6" t="s">
+      <c r="D592" s="25" t="s">
         <v>1230</v>
       </c>
-      <c r="E592" s="32" t="s">
+      <c r="E592" s="33" t="s">
         <v>1231</v>
       </c>
-      <c r="F592" s="11" t="s">
+      <c r="F592" s="24" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G592" s="22" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>1232</v>
       </c>
@@ -31714,7 +31779,7 @@
       <c r="E593" s="32"/>
       <c r="F593" s="11"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>1234</v>
       </c>
@@ -31728,7 +31793,7 @@
       <c r="E594" s="32"/>
       <c r="F594" s="11"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>1236</v>
       </c>
@@ -31742,7 +31807,7 @@
       <c r="E595" s="32"/>
       <c r="F595" s="11"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>1238</v>
       </c>
@@ -31756,7 +31821,7 @@
       <c r="E596" s="32"/>
       <c r="F596" s="11"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>1240</v>
       </c>
@@ -31770,7 +31835,7 @@
       <c r="E597" s="32"/>
       <c r="F597" s="11"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>1242</v>
       </c>
@@ -31784,27 +31849,30 @@
       <c r="E598" s="32"/>
       <c r="F598" s="11"/>
     </row>
-    <row r="599" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A599" s="3" t="s">
+    <row r="599" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A599" s="23" t="s">
         <v>1244</v>
       </c>
-      <c r="B599" s="32" t="s">
+      <c r="B599" s="33" t="s">
         <v>1245</v>
       </c>
-      <c r="C599" s="11" t="s">
+      <c r="C599" s="24" t="s">
         <v>1246</v>
       </c>
-      <c r="D599" s="6" t="s">
+      <c r="D599" s="25" t="s">
         <v>1244</v>
       </c>
-      <c r="E599" s="32" t="s">
+      <c r="E599" s="33" t="s">
         <v>1245</v>
       </c>
-      <c r="F599" s="11" t="s">
+      <c r="F599" s="24" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="600" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G599" s="22" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>1248</v>
       </c>
@@ -31818,7 +31886,7 @@
       <c r="E600" s="32"/>
       <c r="F600" s="11"/>
     </row>
-    <row r="601" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>1251</v>
       </c>
@@ -31832,7 +31900,7 @@
       <c r="E601" s="32"/>
       <c r="F601" s="11"/>
     </row>
-    <row r="602" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>1254</v>
       </c>
@@ -31846,7 +31914,7 @@
       <c r="E602" s="32"/>
       <c r="F602" s="11"/>
     </row>
-    <row r="603" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>1257</v>
       </c>
@@ -31860,7 +31928,7 @@
       <c r="E603" s="32"/>
       <c r="F603" s="11"/>
     </row>
-    <row r="604" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>1260</v>
       </c>
@@ -31874,7 +31942,7 @@
       <c r="E604" s="32"/>
       <c r="F604" s="11"/>
     </row>
-    <row r="605" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>1263</v>
       </c>
@@ -31888,7 +31956,7 @@
       <c r="E605" s="32"/>
       <c r="F605" s="11"/>
     </row>
-    <row r="606" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>1266</v>
       </c>
@@ -31902,7 +31970,7 @@
       <c r="E606" s="32"/>
       <c r="F606" s="11"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>1269</v>
       </c>
@@ -31916,7 +31984,7 @@
       <c r="E607" s="32"/>
       <c r="F607" s="11"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>1272</v>
       </c>
@@ -31930,7 +31998,7 @@
       <c r="E608" s="32"/>
       <c r="F608" s="11"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>1274</v>
       </c>
@@ -31944,7 +32012,7 @@
       <c r="E609" s="32"/>
       <c r="F609" s="11"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>1276</v>
       </c>
@@ -31958,7 +32026,7 @@
       <c r="E610" s="32"/>
       <c r="F610" s="11"/>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>1278</v>
       </c>
@@ -31972,7 +32040,7 @@
       <c r="E611" s="32"/>
       <c r="F611" s="11"/>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>1280</v>
       </c>
@@ -31986,7 +32054,7 @@
       <c r="E612" s="32"/>
       <c r="F612" s="11"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>1282</v>
       </c>
@@ -32000,7 +32068,7 @@
       <c r="E613" s="32"/>
       <c r="F613" s="11"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>1284</v>
       </c>
@@ -32014,7 +32082,7 @@
       <c r="E614" s="32"/>
       <c r="F614" s="11"/>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>1286</v>
       </c>
@@ -32028,7 +32096,7 @@
       <c r="E615" s="32"/>
       <c r="F615" s="11"/>
     </row>
-    <row r="616" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>1288</v>
       </c>
@@ -32042,7 +32110,7 @@
       <c r="E616" s="32"/>
       <c r="F616" s="11"/>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>1290</v>
       </c>
@@ -32056,7 +32124,7 @@
       <c r="E617" s="32"/>
       <c r="F617" s="11"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>1292</v>
       </c>
@@ -32070,7 +32138,7 @@
       <c r="E618" s="32"/>
       <c r="F618" s="11"/>
     </row>
-    <row r="619" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>1294</v>
       </c>
@@ -32084,7 +32152,7 @@
       <c r="E619" s="32"/>
       <c r="F619" s="11"/>
     </row>
-    <row r="620" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>1296</v>
       </c>
@@ -32098,47 +32166,53 @@
       <c r="E620" s="32"/>
       <c r="F620" s="11"/>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A621" s="3" t="s">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" s="47" t="s">
         <v>1298</v>
       </c>
-      <c r="B621" s="32" t="s">
+      <c r="B621" s="48" t="s">
         <v>1299</v>
       </c>
-      <c r="C621" s="11" t="s">
+      <c r="C621" s="49" t="s">
         <v>1115</v>
       </c>
-      <c r="D621" s="6" t="s">
+      <c r="D621" s="50" t="s">
         <v>1298</v>
       </c>
-      <c r="E621" s="32" t="s">
+      <c r="E621" s="48" t="s">
         <v>1299</v>
       </c>
-      <c r="F621" s="11" t="s">
+      <c r="F621" s="49" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A622" s="3" t="s">
+      <c r="G621" s="22" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" s="23" t="s">
         <v>1300</v>
       </c>
-      <c r="B622" s="32" t="s">
+      <c r="B622" s="33" t="s">
         <v>1301</v>
       </c>
-      <c r="C622" s="11" t="s">
+      <c r="C622" s="24" t="s">
         <v>1299</v>
       </c>
-      <c r="D622" s="6" t="s">
+      <c r="D622" s="25" t="s">
         <v>1300</v>
       </c>
-      <c r="E622" s="32" t="s">
+      <c r="E622" s="33" t="s">
         <v>1301</v>
       </c>
-      <c r="F622" s="11" t="s">
+      <c r="F622" s="24" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G622" s="22" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>1302</v>
       </c>
@@ -32152,7 +32226,7 @@
       <c r="E623" s="32"/>
       <c r="F623" s="11"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>1304</v>
       </c>
@@ -32166,7 +32240,7 @@
       <c r="E624" s="32"/>
       <c r="F624" s="11"/>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>1306</v>
       </c>
@@ -32180,7 +32254,7 @@
       <c r="E625" s="32"/>
       <c r="F625" s="11"/>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>1308</v>
       </c>
@@ -32194,7 +32268,7 @@
       <c r="E626" s="32"/>
       <c r="F626" s="11"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>1310</v>
       </c>
@@ -32208,7 +32282,7 @@
       <c r="E627" s="32"/>
       <c r="F627" s="11"/>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>1312</v>
       </c>
@@ -32222,7 +32296,7 @@
       <c r="E628" s="32"/>
       <c r="F628" s="11"/>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>1314</v>
       </c>
@@ -32236,47 +32310,53 @@
       <c r="E629" s="32"/>
       <c r="F629" s="11"/>
     </row>
-    <row r="630" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A630" s="3" t="s">
+    <row r="630" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A630" s="26" t="s">
         <v>1316</v>
       </c>
-      <c r="B630" s="32" t="s">
+      <c r="B630" s="34" t="s">
         <v>1317</v>
       </c>
-      <c r="C630" s="11" t="s">
+      <c r="C630" s="21" t="s">
         <v>1115</v>
       </c>
-      <c r="D630" s="6" t="s">
+      <c r="D630" s="27" t="s">
         <v>1316</v>
       </c>
-      <c r="E630" s="32" t="s">
+      <c r="E630" s="34" t="s">
         <v>1317</v>
       </c>
-      <c r="F630" s="11" t="s">
+      <c r="F630" s="21" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="631" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A631" s="3" t="s">
+      <c r="G630" s="22" t="s">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A631" s="26" t="s">
         <v>1318</v>
       </c>
-      <c r="B631" s="32" t="s">
+      <c r="B631" s="34" t="s">
         <v>1319</v>
       </c>
-      <c r="C631" s="11" t="s">
+      <c r="C631" s="21" t="s">
         <v>1317</v>
       </c>
-      <c r="D631" s="6" t="s">
+      <c r="D631" s="27" t="s">
         <v>1318</v>
       </c>
-      <c r="E631" s="32" t="s">
+      <c r="E631" s="34" t="s">
         <v>1320</v>
       </c>
-      <c r="F631" s="11" t="s">
+      <c r="F631" s="21" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="632" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G631" s="22" t="s">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>1321</v>
       </c>
@@ -32290,7 +32370,7 @@
       <c r="E632" s="32"/>
       <c r="F632" s="11"/>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>1324</v>
       </c>
@@ -32304,7 +32384,7 @@
       <c r="E633" s="32"/>
       <c r="F633" s="11"/>
     </row>
-    <row r="634" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>1326</v>
       </c>
@@ -32318,7 +32398,7 @@
       <c r="E634" s="32"/>
       <c r="F634" s="11"/>
     </row>
-    <row r="635" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>1329</v>
       </c>
@@ -32332,7 +32412,7 @@
       <c r="E635" s="32"/>
       <c r="F635" s="11"/>
     </row>
-    <row r="636" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>1332</v>
       </c>
@@ -32346,7 +32426,7 @@
       <c r="E636" s="32"/>
       <c r="F636" s="11"/>
     </row>
-    <row r="637" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>1335</v>
       </c>
@@ -32360,7 +32440,7 @@
       <c r="E637" s="32"/>
       <c r="F637" s="11"/>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>1338</v>
       </c>
@@ -32374,7 +32454,7 @@
       <c r="E638" s="32"/>
       <c r="F638" s="11"/>
     </row>
-    <row r="639" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>1340</v>
       </c>
@@ -32388,7 +32468,7 @@
       <c r="E639" s="32"/>
       <c r="F639" s="11"/>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>1343</v>
       </c>
@@ -32402,7 +32482,7 @@
       <c r="E640" s="32"/>
       <c r="F640" s="11"/>
     </row>
-    <row r="641" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>1344</v>
       </c>
@@ -32416,7 +32496,7 @@
       <c r="E641" s="32"/>
       <c r="F641" s="11"/>
     </row>
-    <row r="642" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>1346</v>
       </c>
@@ -32430,7 +32510,7 @@
       <c r="E642" s="32"/>
       <c r="F642" s="11"/>
     </row>
-    <row r="643" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>1348</v>
       </c>
@@ -32444,7 +32524,7 @@
       <c r="E643" s="32"/>
       <c r="F643" s="11"/>
     </row>
-    <row r="644" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
         <v>1351</v>
       </c>
@@ -32458,27 +32538,30 @@
       <c r="E644" s="32"/>
       <c r="F644" s="11"/>
     </row>
-    <row r="645" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A645" s="3" t="s">
+    <row r="645" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A645" s="23" t="s">
         <v>1353</v>
       </c>
-      <c r="B645" s="32" t="s">
+      <c r="B645" s="33" t="s">
         <v>1354</v>
       </c>
-      <c r="C645" s="11" t="s">
+      <c r="C645" s="24" t="s">
         <v>1115</v>
       </c>
-      <c r="D645" s="6" t="s">
+      <c r="D645" s="25" t="s">
         <v>1353</v>
       </c>
-      <c r="E645" s="32" t="s">
+      <c r="E645" s="33" t="s">
         <v>1354</v>
       </c>
-      <c r="F645" s="11" t="s">
+      <c r="F645" s="24" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="646" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G645" s="22" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>1355</v>
       </c>
@@ -32492,7 +32575,7 @@
       <c r="E646" s="32"/>
       <c r="F646" s="11"/>
     </row>
-    <row r="647" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>1358</v>
       </c>
@@ -32506,7 +32589,7 @@
       <c r="E647" s="32"/>
       <c r="F647" s="11"/>
     </row>
-    <row r="648" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
         <v>1361</v>
       </c>
@@ -32520,7 +32603,7 @@
       <c r="E648" s="32"/>
       <c r="F648" s="11"/>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
         <v>1364</v>
       </c>
@@ -32534,7 +32617,7 @@
       <c r="E649" s="32"/>
       <c r="F649" s="11"/>
     </row>
-    <row r="650" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
         <v>1366</v>
       </c>
@@ -32548,7 +32631,7 @@
       <c r="E650" s="32"/>
       <c r="F650" s="11"/>
     </row>
-    <row r="651" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
         <v>1369</v>
       </c>
@@ -32562,7 +32645,7 @@
       <c r="E651" s="32"/>
       <c r="F651" s="11"/>
     </row>
-    <row r="652" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
         <v>1372</v>
       </c>
@@ -32576,27 +32659,30 @@
       <c r="E652" s="32"/>
       <c r="F652" s="11"/>
     </row>
-    <row r="653" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A653" s="3" t="s">
+    <row r="653" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A653" s="23" t="s">
         <v>1375</v>
       </c>
-      <c r="B653" s="32" t="s">
+      <c r="B653" s="33" t="s">
         <v>1376</v>
       </c>
-      <c r="C653" s="11" t="s">
+      <c r="C653" s="24" t="s">
         <v>1377</v>
       </c>
-      <c r="D653" s="6" t="s">
+      <c r="D653" s="25" t="s">
         <v>1375</v>
       </c>
-      <c r="E653" s="32" t="s">
+      <c r="E653" s="33" t="s">
         <v>1376</v>
       </c>
-      <c r="F653" s="11" t="s">
+      <c r="F653" s="24" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="654" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G653" s="22" t="s">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
         <v>1378</v>
       </c>
@@ -32610,7 +32696,7 @@
       <c r="E654" s="32"/>
       <c r="F654" s="11"/>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
         <v>1381</v>
       </c>
@@ -32624,7 +32710,7 @@
       <c r="E655" s="32"/>
       <c r="F655" s="11"/>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
         <v>1383</v>
       </c>
@@ -32638,7 +32724,7 @@
       <c r="E656" s="32"/>
       <c r="F656" s="11"/>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
         <v>1385</v>
       </c>
@@ -32652,7 +32738,7 @@
       <c r="E657" s="32"/>
       <c r="F657" s="11"/>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
         <v>1387</v>
       </c>
@@ -32666,27 +32752,30 @@
       <c r="E658" s="32"/>
       <c r="F658" s="11"/>
     </row>
-    <row r="659" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A659" s="3" t="s">
+    <row r="659" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A659" s="23" t="s">
         <v>1389</v>
       </c>
-      <c r="B659" s="32" t="s">
+      <c r="B659" s="33" t="s">
         <v>1390</v>
       </c>
-      <c r="C659" s="11" t="s">
+      <c r="C659" s="24" t="s">
         <v>1115</v>
       </c>
-      <c r="D659" s="6" t="s">
+      <c r="D659" s="25" t="s">
         <v>1389</v>
       </c>
-      <c r="E659" s="32" t="s">
+      <c r="E659" s="33" t="s">
         <v>1390</v>
       </c>
-      <c r="F659" s="11" t="s">
+      <c r="F659" s="24" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="660" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G659" s="22" t="s">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
         <v>1391</v>
       </c>
@@ -32700,7 +32789,7 @@
       <c r="E660" s="32"/>
       <c r="F660" s="11"/>
     </row>
-    <row r="661" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
         <v>1393</v>
       </c>
@@ -32714,7 +32803,7 @@
       <c r="E661" s="32"/>
       <c r="F661" s="11"/>
     </row>
-    <row r="662" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
         <v>1395</v>
       </c>
@@ -32728,7 +32817,7 @@
       <c r="E662" s="32"/>
       <c r="F662" s="11"/>
     </row>
-    <row r="663" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
         <v>1397</v>
       </c>
@@ -32742,7 +32831,7 @@
       <c r="E663" s="32"/>
       <c r="F663" s="11"/>
     </row>
-    <row r="664" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>1399</v>
       </c>
@@ -32756,7 +32845,7 @@
       <c r="E664" s="32"/>
       <c r="F664" s="11"/>
     </row>
-    <row r="665" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
         <v>1401</v>
       </c>
@@ -32770,7 +32859,7 @@
       <c r="E665" s="32"/>
       <c r="F665" s="11"/>
     </row>
-    <row r="666" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
         <v>1403</v>
       </c>
@@ -32784,7 +32873,7 @@
       <c r="E666" s="32"/>
       <c r="F666" s="11"/>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
         <v>1405</v>
       </c>
@@ -32798,7 +32887,7 @@
       <c r="E667" s="32"/>
       <c r="F667" s="11"/>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
         <v>1407</v>
       </c>
@@ -32812,7 +32901,7 @@
       <c r="E668" s="32"/>
       <c r="F668" s="11"/>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
         <v>1409</v>
       </c>
@@ -32826,7 +32915,7 @@
       <c r="E669" s="32"/>
       <c r="F669" s="11"/>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
         <v>1411</v>
       </c>
@@ -32840,7 +32929,7 @@
       <c r="E670" s="32"/>
       <c r="F670" s="11"/>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
         <v>1413</v>
       </c>
@@ -32854,7 +32943,7 @@
       <c r="E671" s="32"/>
       <c r="F671" s="11"/>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
         <v>1415</v>
       </c>
@@ -32868,7 +32957,7 @@
       <c r="E672" s="32"/>
       <c r="F672" s="11"/>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
         <v>1417</v>
       </c>
@@ -32882,27 +32971,30 @@
       <c r="E673" s="32"/>
       <c r="F673" s="11"/>
     </row>
-    <row r="674" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A674" s="3" t="s">
+    <row r="674" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A674" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="B674" s="32" t="s">
+      <c r="B674" s="34" t="s">
         <v>1420</v>
       </c>
-      <c r="C674" s="11" t="s">
+      <c r="C674" s="21" t="s">
         <v>1421</v>
       </c>
-      <c r="D674" s="6" t="s">
+      <c r="D674" s="27" t="s">
         <v>1419</v>
       </c>
-      <c r="E674" s="32" t="s">
+      <c r="E674" s="34" t="s">
         <v>1420</v>
       </c>
-      <c r="F674" s="11" t="s">
+      <c r="F674" s="21" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="675" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G674" s="22" t="s">
+        <v>7363</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
         <v>1423</v>
       </c>
@@ -32916,7 +33008,7 @@
       <c r="E675" s="32"/>
       <c r="F675" s="11"/>
     </row>
-    <row r="676" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
         <v>1426</v>
       </c>
@@ -32930,7 +33022,7 @@
       <c r="E676" s="32"/>
       <c r="F676" s="11"/>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
         <v>1429</v>
       </c>
@@ -32944,7 +33036,7 @@
       <c r="E677" s="32"/>
       <c r="F677" s="11"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
         <v>1431</v>
       </c>
@@ -32958,7 +33050,7 @@
       <c r="E678" s="32"/>
       <c r="F678" s="11"/>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
         <v>1434</v>
       </c>
@@ -32972,7 +33064,7 @@
       <c r="E679" s="32"/>
       <c r="F679" s="11"/>
     </row>
-    <row r="680" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
         <v>1436</v>
       </c>
@@ -32986,7 +33078,7 @@
       <c r="E680" s="32"/>
       <c r="F680" s="11"/>
     </row>
-    <row r="681" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
         <v>1439</v>
       </c>
@@ -33000,7 +33092,7 @@
       <c r="E681" s="32"/>
       <c r="F681" s="11"/>
     </row>
-    <row r="682" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
         <v>1442</v>
       </c>
@@ -33014,7 +33106,7 @@
       <c r="E682" s="32"/>
       <c r="F682" s="11"/>
     </row>
-    <row r="683" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
         <v>1445</v>
       </c>
@@ -33028,7 +33120,7 @@
       <c r="E683" s="32"/>
       <c r="F683" s="11"/>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
         <v>1448</v>
       </c>
@@ -33042,7 +33134,7 @@
       <c r="E684" s="32"/>
       <c r="F684" s="11"/>
     </row>
-    <row r="685" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
         <v>1450</v>
       </c>
@@ -33056,7 +33148,7 @@
       <c r="E685" s="32"/>
       <c r="F685" s="11"/>
     </row>
-    <row r="686" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
         <v>1453</v>
       </c>
@@ -33070,7 +33162,7 @@
       <c r="E686" s="32"/>
       <c r="F686" s="11"/>
     </row>
-    <row r="687" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
         <v>1456</v>
       </c>
@@ -33084,7 +33176,7 @@
       <c r="E687" s="32"/>
       <c r="F687" s="11"/>
     </row>
-    <row r="688" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
         <v>1458</v>
       </c>
@@ -33322,7 +33414,7 @@
       <c r="E704" s="32"/>
       <c r="F704" s="11"/>
     </row>
-    <row r="705" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
         <v>1503</v>
       </c>
@@ -33336,7 +33428,7 @@
       <c r="E705" s="32"/>
       <c r="F705" s="11"/>
     </row>
-    <row r="706" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
         <v>1506</v>
       </c>
@@ -33350,7 +33442,7 @@
       <c r="E706" s="32"/>
       <c r="F706" s="11"/>
     </row>
-    <row r="707" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
         <v>1509</v>
       </c>
@@ -33364,47 +33456,53 @@
       <c r="E707" s="32"/>
       <c r="F707" s="11"/>
     </row>
-    <row r="708" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A708" s="3" t="s">
+    <row r="708" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A708" s="23" t="s">
         <v>1511</v>
       </c>
-      <c r="B708" s="32" t="s">
+      <c r="B708" s="33" t="s">
         <v>1512</v>
       </c>
-      <c r="C708" s="11" t="s">
+      <c r="C708" s="24" t="s">
         <v>1172</v>
       </c>
-      <c r="D708" s="6" t="s">
+      <c r="D708" s="25" t="s">
         <v>1511</v>
       </c>
-      <c r="E708" s="32" t="s">
+      <c r="E708" s="33" t="s">
         <v>1512</v>
       </c>
-      <c r="F708" s="11" t="s">
+      <c r="F708" s="24" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="709" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A709" s="3" t="s">
+      <c r="G708" s="22" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A709" s="23" t="s">
         <v>1513</v>
       </c>
-      <c r="B709" s="32" t="s">
+      <c r="B709" s="33" t="s">
         <v>1193</v>
       </c>
-      <c r="C709" s="11" t="s">
+      <c r="C709" s="24" t="s">
         <v>1172</v>
       </c>
-      <c r="D709" s="6" t="s">
+      <c r="D709" s="25" t="s">
         <v>1513</v>
       </c>
-      <c r="E709" s="32" t="s">
+      <c r="E709" s="33" t="s">
         <v>1193</v>
       </c>
-      <c r="F709" s="11" t="s">
+      <c r="F709" s="24" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G709" s="22" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
         <v>1514</v>
       </c>
@@ -33418,7 +33516,7 @@
       <c r="E710" s="32"/>
       <c r="F710" s="11"/>
     </row>
-    <row r="711" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
         <v>1516</v>
       </c>
@@ -33432,7 +33530,7 @@
       <c r="E711" s="32"/>
       <c r="F711" s="11"/>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
         <v>1517</v>
       </c>
@@ -33446,7 +33544,7 @@
       <c r="E712" s="32"/>
       <c r="F712" s="11"/>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
         <v>1519</v>
       </c>
@@ -33460,7 +33558,7 @@
       <c r="E713" s="32"/>
       <c r="F713" s="11"/>
     </row>
-    <row r="714" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
         <v>1521</v>
       </c>
@@ -33474,163 +33572,190 @@
       <c r="E714" s="32"/>
       <c r="F714" s="11"/>
     </row>
-    <row r="715" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A715" s="3" t="s">
+    <row r="715" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A715" s="51" t="s">
         <v>1524</v>
       </c>
-      <c r="B715" s="32" t="s">
+      <c r="B715" s="52" t="s">
         <v>1525</v>
       </c>
-      <c r="C715" s="11" t="s">
+      <c r="C715" s="53" t="s">
         <v>1526</v>
       </c>
-      <c r="D715" s="6" t="s">
+      <c r="D715" s="54" t="s">
         <v>1524</v>
       </c>
-      <c r="E715" s="32" t="s">
+      <c r="E715" s="52" t="s">
         <v>1527</v>
       </c>
-      <c r="F715" s="11" t="s">
+      <c r="F715" s="53" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="716" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A716" s="3" t="s">
+      <c r="G715" s="22" t="s">
+        <v>7365</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A716" s="51" t="s">
         <v>1529</v>
       </c>
-      <c r="B716" s="32" t="s">
+      <c r="B716" s="52" t="s">
         <v>1530</v>
       </c>
-      <c r="C716" s="11" t="s">
+      <c r="C716" s="53" t="s">
         <v>1231</v>
       </c>
-      <c r="D716" s="6" t="s">
+      <c r="D716" s="54" t="s">
         <v>1529</v>
       </c>
-      <c r="E716" s="32" t="s">
+      <c r="E716" s="52" t="s">
         <v>1235</v>
       </c>
-      <c r="F716" s="11" t="s">
+      <c r="F716" s="53" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="717" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A717" s="3" t="s">
+      <c r="G716" s="22" t="s">
+        <v>7366</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A717" s="51" t="s">
         <v>1532</v>
       </c>
-      <c r="B717" s="32" t="s">
+      <c r="B717" s="52" t="s">
         <v>1533</v>
       </c>
-      <c r="C717" s="11" t="s">
+      <c r="C717" s="53" t="s">
         <v>1534</v>
       </c>
-      <c r="D717" s="6" t="s">
+      <c r="D717" s="54" t="s">
         <v>1532</v>
       </c>
-      <c r="E717" s="32" t="s">
+      <c r="E717" s="52" t="s">
         <v>1535</v>
       </c>
-      <c r="F717" s="11" t="s">
+      <c r="F717" s="53" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="718" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A718" s="3" t="s">
+      <c r="G717" s="22" t="s">
+        <v>7367</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A718" s="51" t="s">
         <v>1536</v>
       </c>
-      <c r="B718" s="32" t="s">
+      <c r="B718" s="52" t="s">
         <v>1537</v>
       </c>
-      <c r="C718" s="11" t="s">
+      <c r="C718" s="53" t="s">
         <v>1115</v>
       </c>
-      <c r="D718" s="6" t="s">
+      <c r="D718" s="54" t="s">
         <v>1536</v>
       </c>
-      <c r="E718" s="32" t="s">
+      <c r="E718" s="52" t="s">
         <v>1538</v>
       </c>
-      <c r="F718" s="11" t="s">
+      <c r="F718" s="53" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="719" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A719" s="3" t="s">
+      <c r="G718" s="22" t="s">
+        <v>7368</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A719" s="51" t="s">
         <v>1539</v>
       </c>
-      <c r="B719" s="32" t="s">
+      <c r="B719" s="52" t="s">
         <v>1540</v>
       </c>
-      <c r="C719" s="11" t="s">
+      <c r="C719" s="53" t="s">
         <v>1541</v>
       </c>
-      <c r="D719" s="6" t="s">
+      <c r="D719" s="54" t="s">
         <v>1539</v>
       </c>
-      <c r="E719" s="32" t="s">
+      <c r="E719" s="52" t="s">
         <v>1542</v>
       </c>
-      <c r="F719" s="11" t="s">
+      <c r="F719" s="53" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G719" s="22" t="s">
+        <v>7369</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
-      <c r="D720" s="6" t="s">
+      <c r="D720" s="25" t="s">
         <v>1544</v>
       </c>
-      <c r="E720" s="32" t="s">
+      <c r="E720" s="33" t="s">
         <v>1545</v>
       </c>
-      <c r="F720" s="11" t="s">
+      <c r="F720" s="24" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="721" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G720" s="22" t="s">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
-      <c r="D721" s="6" t="s">
+      <c r="D721" s="25" t="s">
         <v>1547</v>
       </c>
-      <c r="E721" s="32" t="s">
+      <c r="E721" s="33" t="s">
         <v>1548</v>
       </c>
-      <c r="F721" s="11" t="s">
+      <c r="F721" s="24" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="722" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G721" s="22" t="s">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
-      <c r="D722" s="6" t="s">
+      <c r="D722" s="25" t="s">
         <v>1550</v>
       </c>
-      <c r="E722" s="32" t="s">
+      <c r="E722" s="33" t="s">
         <v>1551</v>
       </c>
-      <c r="F722" s="11" t="s">
+      <c r="F722" s="24" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="723" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G722" s="22" t="s">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
-      <c r="D723" s="6" t="s">
+      <c r="D723" s="25" t="s">
         <v>1553</v>
       </c>
-      <c r="E723" s="32" t="s">
+      <c r="E723" s="33" t="s">
         <v>1554</v>
       </c>
-      <c r="F723" s="11" t="s">
+      <c r="F723" s="24" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="724" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G723" s="22" t="s">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>1555</v>
       </c>
@@ -33650,7 +33775,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -33664,7 +33789,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -33678,7 +33803,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>1564</v>
       </c>
@@ -33692,7 +33817,7 @@
       <c r="E727" s="32"/>
       <c r="F727" s="11"/>
     </row>
-    <row r="728" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>1567</v>
       </c>
@@ -33706,7 +33831,7 @@
       <c r="E728" s="32"/>
       <c r="F728" s="11"/>
     </row>
-    <row r="729" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>1570</v>
       </c>
@@ -33720,7 +33845,7 @@
       <c r="E729" s="32"/>
       <c r="F729" s="11"/>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>1572</v>
       </c>
@@ -33734,7 +33859,7 @@
       <c r="E730" s="32"/>
       <c r="F730" s="11"/>
     </row>
-    <row r="731" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>1573</v>
       </c>
@@ -33748,7 +33873,7 @@
       <c r="E731" s="32"/>
       <c r="F731" s="11"/>
     </row>
-    <row r="732" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>1574</v>
       </c>
@@ -33762,7 +33887,7 @@
       <c r="E732" s="32"/>
       <c r="F732" s="11"/>
     </row>
-    <row r="733" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>1576</v>
       </c>
@@ -33782,7 +33907,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>1579</v>
       </c>
@@ -33802,7 +33927,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>1582</v>
       </c>
@@ -33822,7 +33947,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>1585</v>
       </c>
@@ -74405,8 +74530,14 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G588" r:id="rId1" location="issuecomment-1103016991" display="use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete. Also for now make the parent 'alkene oxidative cleavage' also a child of 'oxidative cleavage' undtil this can be inffered instead"/>
+    <hyperlink ref="G587" r:id="rId2" location="issuecomment-1103016991" display="use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete. Also for now make the parent 'alkene oxidative cleavage' also a child of 'oxidative cleavage' undtil this can be inffered instead"/>
+    <hyperlink ref="G589" r:id="rId3" location="issuecomment-1103016991" display="use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete. Also for now make the parent 'alkene oxidative cleavage' also a child of 'oxidative cleavage' undtil this can be inffered instead"/>
+    <hyperlink ref="G591" r:id="rId4" location="issuecomment-1103016991" display="use RXNO version, as this seems to be more precise, but use MOP:0000708 instead of RXNO:0000344 and make the latter obsolete. Also for now make the parent 'alkene oxidative cleavage' also a child of 'oxidative cleavage' undtil this can be inffered instead"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/MOP_vs_RXNO.xlsx
+++ b/MOP_vs_RXNO.xlsx
@@ -15,6 +15,7 @@
     <definedName name="mop_vs_rxno" localSheetId="0">Tabelle1!$A$2:$F$3621</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -22162,7 +22163,7 @@
     <t>subsume under "organylation"  in MOP analog the the RXNO version before discarding in RXNO</t>
   </si>
   <si>
-    <t>Shouldn't 'univalent carboacylation' be a subclass of acylation? And in MOP acylation is not sublcass of but sibling of organylation unlike in RXNO --&gt; should be changed in MOP.</t>
+    <t>Shouldn't 'univalent carboacylation' be a subclass of acylation or better carboacylation, which is a subclass of acylation already? And in MOP acylation is not sublcass of but sibling of organylation unlike in RXNO --&gt; should be changed in MOP.</t>
   </si>
 </sst>
 </file>
@@ -22718,6 +22719,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -22733,18 +22746,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23060,29 +23061,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="59" customWidth="1"/>
+    <col min="1" max="1" width="24" style="54" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="54" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="10" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="10" customWidth="1"/>
     <col min="7" max="7" width="54.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" style="59" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="59"/>
+    <col min="8" max="8" width="15.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>7318</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57" t="s">
         <v>7319</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="15" t="s">
         <v>7320</v>
       </c>
@@ -23115,7 +23116,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -23131,7 +23132,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:9" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -23147,7 +23148,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:9" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -23163,7 +23164,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
@@ -23187,7 +23188,7 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -23203,7 +23204,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -23219,7 +23220,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -23235,7 +23236,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -23251,7 +23252,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:9" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -23267,7 +23268,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -23283,7 +23284,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:9" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -23299,7 +23300,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -23315,7 +23316,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:9" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -23331,7 +23332,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -23347,7 +23348,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -23363,7 +23364,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -23379,7 +23380,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -23395,7 +23396,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -23411,7 +23412,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -23427,7 +23428,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -23443,7 +23444,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -23459,7 +23460,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -23475,7 +23476,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -23491,7 +23492,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -23507,7 +23508,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -23523,7 +23524,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -23539,7 +23540,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -23555,7 +23556,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -23571,7 +23572,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -23587,7 +23588,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
@@ -23603,7 +23604,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -23619,7 +23620,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
@@ -23635,7 +23636,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
@@ -23651,7 +23652,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
@@ -23667,7 +23668,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -23683,7 +23684,7 @@
       <c r="G37" s="18"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -23699,7 +23700,7 @@
       <c r="G38" s="18"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -23715,7 +23716,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -23731,7 +23732,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>88</v>
       </c>
@@ -23747,7 +23748,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
@@ -23763,7 +23764,7 @@
       <c r="G42" s="18"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -23779,7 +23780,7 @@
       <c r="G43" s="18"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
@@ -23795,7 +23796,7 @@
       <c r="G44" s="18"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
@@ -23811,7 +23812,7 @@
       <c r="G45" s="18"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
@@ -23827,7 +23828,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
@@ -23843,7 +23844,7 @@
       <c r="G47" s="18"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
@@ -23859,7 +23860,7 @@
       <c r="G48" s="18"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -23875,7 +23876,7 @@
       <c r="G49" s="18"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
@@ -23891,7 +23892,7 @@
       <c r="G50" s="18"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
@@ -23907,7 +23908,7 @@
       <c r="G51" s="18"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
@@ -23923,7 +23924,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>112</v>
       </c>
@@ -23939,7 +23940,7 @@
       <c r="G53" s="18"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
@@ -23955,7 +23956,7 @@
       <c r="G54" s="18"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>116</v>
       </c>
@@ -23971,7 +23972,7 @@
       <c r="G55" s="18"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
@@ -23987,7 +23988,7 @@
       <c r="G56" s="18"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>120</v>
       </c>
@@ -24003,7 +24004,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>122</v>
       </c>
@@ -24019,7 +24020,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -24035,7 +24036,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>126</v>
       </c>
@@ -24051,7 +24052,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>128</v>
       </c>
@@ -24067,7 +24068,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
@@ -24083,7 +24084,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
@@ -24099,7 +24100,7 @@
       <c r="G63" s="18"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>134</v>
       </c>
@@ -24115,7 +24116,7 @@
       <c r="G64" s="18"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
@@ -24131,7 +24132,7 @@
       <c r="G65" s="18"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>138</v>
       </c>
@@ -24147,7 +24148,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>140</v>
       </c>
@@ -24163,7 +24164,7 @@
       <c r="G67" s="18"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -24179,7 +24180,7 @@
       <c r="G68" s="18"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
@@ -24195,7 +24196,7 @@
       <c r="G69" s="18"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>146</v>
       </c>
@@ -24211,7 +24212,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
@@ -24227,7 +24228,7 @@
       <c r="G71" s="18"/>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>150</v>
       </c>
@@ -24243,7 +24244,7 @@
       <c r="G72" s="18"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>152</v>
       </c>
@@ -24259,7 +24260,7 @@
       <c r="G73" s="18"/>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -24275,7 +24276,7 @@
       <c r="G74" s="18"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
@@ -24291,7 +24292,7 @@
       <c r="G75" s="18"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
@@ -24307,7 +24308,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>160</v>
       </c>
@@ -24323,7 +24324,7 @@
       <c r="G77" s="18"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
@@ -24339,7 +24340,7 @@
       <c r="G78" s="18"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -24355,7 +24356,7 @@
       <c r="G79" s="18"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
@@ -24371,7 +24372,7 @@
       <c r="G80" s="18"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
@@ -24387,7 +24388,7 @@
       <c r="G81" s="18"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
@@ -24403,7 +24404,7 @@
       <c r="G82" s="18"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>172</v>
       </c>
@@ -24419,7 +24420,7 @@
       <c r="G83" s="18"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
@@ -24435,7 +24436,7 @@
       <c r="G84" s="18"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>176</v>
       </c>
@@ -24451,7 +24452,7 @@
       <c r="G85" s="18"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>178</v>
       </c>
@@ -24467,7 +24468,7 @@
       <c r="G86" s="18"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>180</v>
       </c>
@@ -24483,7 +24484,7 @@
       <c r="G87" s="18"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>182</v>
       </c>
@@ -24499,7 +24500,7 @@
       <c r="G88" s="18"/>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>184</v>
       </c>
@@ -24515,7 +24516,7 @@
       <c r="G89" s="18"/>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>186</v>
       </c>
@@ -24531,7 +24532,7 @@
       <c r="G90" s="18"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>188</v>
       </c>
@@ -24547,7 +24548,7 @@
       <c r="G91" s="18"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>190</v>
       </c>
@@ -24563,7 +24564,7 @@
       <c r="G92" s="18"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>192</v>
       </c>
@@ -24579,7 +24580,7 @@
       <c r="G93" s="18"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>194</v>
       </c>
@@ -24595,7 +24596,7 @@
       <c r="G94" s="18"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>196</v>
       </c>
@@ -24611,7 +24612,7 @@
       <c r="G95" s="18"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>198</v>
       </c>
@@ -24627,7 +24628,7 @@
       <c r="G96" s="18"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>200</v>
       </c>
@@ -24643,7 +24644,7 @@
       <c r="G97" s="18"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
@@ -24659,7 +24660,7 @@
       <c r="G98" s="18"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>204</v>
       </c>
@@ -24675,7 +24676,7 @@
       <c r="G99" s="18"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>207</v>
       </c>
@@ -24691,7 +24692,7 @@
       <c r="G100" s="18"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>209</v>
       </c>
@@ -24707,7 +24708,7 @@
       <c r="G101" s="18"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>211</v>
       </c>
@@ -24723,7 +24724,7 @@
       <c r="G102" s="18"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>213</v>
       </c>
@@ -24739,7 +24740,7 @@
       <c r="G103" s="18"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>215</v>
       </c>
@@ -24755,7 +24756,7 @@
       <c r="G104" s="18"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>217</v>
       </c>
@@ -24771,7 +24772,7 @@
       <c r="G105" s="18"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>219</v>
       </c>
@@ -24787,7 +24788,7 @@
       <c r="G106" s="18"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>221</v>
       </c>
@@ -24803,7 +24804,7 @@
       <c r="G107" s="18"/>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>223</v>
       </c>
@@ -24819,7 +24820,7 @@
       <c r="G108" s="18"/>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>225</v>
       </c>
@@ -24835,7 +24836,7 @@
       <c r="G109" s="18"/>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>227</v>
       </c>
@@ -24851,7 +24852,7 @@
       <c r="G110" s="18"/>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>229</v>
       </c>
@@ -24867,7 +24868,7 @@
       <c r="G111" s="18"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>231</v>
       </c>
@@ -24883,7 +24884,7 @@
       <c r="G112" s="18"/>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>233</v>
       </c>
@@ -24899,7 +24900,7 @@
       <c r="G113" s="18"/>
       <c r="H113" s="11"/>
     </row>
-    <row r="114" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>235</v>
       </c>
@@ -24915,7 +24916,7 @@
       <c r="G114" s="18"/>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>237</v>
       </c>
@@ -24931,7 +24932,7 @@
       <c r="G115" s="18"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>239</v>
       </c>
@@ -24947,7 +24948,7 @@
       <c r="G116" s="18"/>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>241</v>
       </c>
@@ -24963,7 +24964,7 @@
       <c r="G117" s="18"/>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>243</v>
       </c>
@@ -24979,7 +24980,7 @@
       <c r="G118" s="18"/>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>245</v>
       </c>
@@ -24995,7 +24996,7 @@
       <c r="G119" s="18"/>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>247</v>
       </c>
@@ -25011,7 +25012,7 @@
       <c r="G120" s="18"/>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>249</v>
       </c>
@@ -25027,7 +25028,7 @@
       <c r="G121" s="18"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>251</v>
       </c>
@@ -25043,7 +25044,7 @@
       <c r="G122" s="18"/>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>253</v>
       </c>
@@ -25059,7 +25060,7 @@
       <c r="G123" s="18"/>
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>255</v>
       </c>
@@ -25075,7 +25076,7 @@
       <c r="G124" s="18"/>
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>257</v>
       </c>
@@ -25091,7 +25092,7 @@
       <c r="G125" s="18"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>259</v>
       </c>
@@ -25107,7 +25108,7 @@
       <c r="G126" s="18"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>261</v>
       </c>
@@ -25123,7 +25124,7 @@
       <c r="G127" s="18"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>263</v>
       </c>
@@ -25139,7 +25140,7 @@
       <c r="G128" s="18"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>265</v>
       </c>
@@ -25155,7 +25156,7 @@
       <c r="G129" s="18"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>267</v>
       </c>
@@ -25171,7 +25172,7 @@
       <c r="G130" s="18"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>269</v>
       </c>
@@ -25187,7 +25188,7 @@
       <c r="G131" s="18"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>271</v>
       </c>
@@ -25203,7 +25204,7 @@
       <c r="G132" s="18"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>273</v>
       </c>
@@ -25219,7 +25220,7 @@
       <c r="G133" s="18"/>
       <c r="H133" s="11"/>
     </row>
-    <row r="134" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>275</v>
       </c>
@@ -25235,7 +25236,7 @@
       <c r="G134" s="18"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>277</v>
       </c>
@@ -25251,7 +25252,7 @@
       <c r="G135" s="18"/>
       <c r="H135" s="11"/>
     </row>
-    <row r="136" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>279</v>
       </c>
@@ -25267,7 +25268,7 @@
       <c r="G136" s="18"/>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>281</v>
       </c>
@@ -25283,7 +25284,7 @@
       <c r="G137" s="18"/>
       <c r="H137" s="11"/>
     </row>
-    <row r="138" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>283</v>
       </c>
@@ -25299,7 +25300,7 @@
       <c r="G138" s="18"/>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>285</v>
       </c>
@@ -25315,7 +25316,7 @@
       <c r="G139" s="18"/>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>287</v>
       </c>
@@ -25331,7 +25332,7 @@
       <c r="G140" s="18"/>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>289</v>
       </c>
@@ -25347,7 +25348,7 @@
       <c r="G141" s="18"/>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>291</v>
       </c>
@@ -25363,7 +25364,7 @@
       <c r="G142" s="18"/>
       <c r="H142" s="11"/>
     </row>
-    <row r="143" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>293</v>
       </c>
@@ -25379,7 +25380,7 @@
       <c r="G143" s="18"/>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>295</v>
       </c>
@@ -25395,7 +25396,7 @@
       <c r="G144" s="18"/>
       <c r="H144" s="11"/>
     </row>
-    <row r="145" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>297</v>
       </c>
@@ -25411,7 +25412,7 @@
       <c r="G145" s="18"/>
       <c r="H145" s="11"/>
     </row>
-    <row r="146" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>299</v>
       </c>
@@ -25427,7 +25428,7 @@
       <c r="G146" s="18"/>
       <c r="H146" s="11"/>
     </row>
-    <row r="147" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>301</v>
       </c>
@@ -25443,7 +25444,7 @@
       <c r="G147" s="18"/>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>303</v>
       </c>
@@ -25459,7 +25460,7 @@
       <c r="G148" s="18"/>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>305</v>
       </c>
@@ -25475,7 +25476,7 @@
       <c r="G149" s="18"/>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>307</v>
       </c>
@@ -25491,7 +25492,7 @@
       <c r="G150" s="18"/>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>309</v>
       </c>
@@ -25507,7 +25508,7 @@
       <c r="G151" s="18"/>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>311</v>
       </c>
@@ -25523,7 +25524,7 @@
       <c r="G152" s="18"/>
       <c r="H152" s="11"/>
     </row>
-    <row r="153" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>313</v>
       </c>
@@ -25539,7 +25540,7 @@
       <c r="G153" s="18"/>
       <c r="H153" s="11"/>
     </row>
-    <row r="154" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>315</v>
       </c>
@@ -25555,7 +25556,7 @@
       <c r="G154" s="18"/>
       <c r="H154" s="11"/>
     </row>
-    <row r="155" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>317</v>
       </c>
@@ -25571,7 +25572,7 @@
       <c r="G155" s="18"/>
       <c r="H155" s="11"/>
     </row>
-    <row r="156" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>319</v>
       </c>
@@ -25587,7 +25588,7 @@
       <c r="G156" s="18"/>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>321</v>
       </c>
@@ -25603,7 +25604,7 @@
       <c r="G157" s="18"/>
       <c r="H157" s="11"/>
     </row>
-    <row r="158" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>323</v>
       </c>
@@ -25619,7 +25620,7 @@
       <c r="G158" s="18"/>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>325</v>
       </c>
@@ -25635,7 +25636,7 @@
       <c r="G159" s="18"/>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>327</v>
       </c>
@@ -25651,7 +25652,7 @@
       <c r="G160" s="18"/>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>329</v>
       </c>
@@ -25667,7 +25668,7 @@
       <c r="G161" s="18"/>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>331</v>
       </c>
@@ -25683,7 +25684,7 @@
       <c r="G162" s="18"/>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>333</v>
       </c>
@@ -25699,7 +25700,7 @@
       <c r="G163" s="18"/>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>335</v>
       </c>
@@ -25715,7 +25716,7 @@
       <c r="G164" s="18"/>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>337</v>
       </c>
@@ -25731,7 +25732,7 @@
       <c r="G165" s="18"/>
       <c r="H165" s="11"/>
     </row>
-    <row r="166" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>339</v>
       </c>
@@ -25747,7 +25748,7 @@
       <c r="G166" s="18"/>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>341</v>
       </c>
@@ -25763,7 +25764,7 @@
       <c r="G167" s="18"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>343</v>
       </c>
@@ -25779,7 +25780,7 @@
       <c r="G168" s="18"/>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>345</v>
       </c>
@@ -25795,7 +25796,7 @@
       <c r="G169" s="18"/>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" spans="1:8" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>347</v>
       </c>
@@ -25811,7 +25812,7 @@
       <c r="G170" s="18"/>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>349</v>
       </c>
@@ -25823,7 +25824,7 @@
       <c r="G171" s="18"/>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>350</v>
       </c>
@@ -25839,7 +25840,7 @@
       <c r="G172" s="18"/>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>352</v>
       </c>
@@ -25855,7 +25856,7 @@
       <c r="G173" s="18"/>
       <c r="H173" s="11"/>
     </row>
-    <row r="174" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>354</v>
       </c>
@@ -25871,7 +25872,7 @@
       <c r="G174" s="18"/>
       <c r="H174" s="11"/>
     </row>
-    <row r="175" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>356</v>
       </c>
@@ -25883,7 +25884,7 @@
       <c r="G175" s="18"/>
       <c r="H175" s="11"/>
     </row>
-    <row r="176" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>357</v>
       </c>
@@ -25899,7 +25900,7 @@
       <c r="G176" s="18"/>
       <c r="H176" s="11"/>
     </row>
-    <row r="177" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>359</v>
       </c>
@@ -25915,7 +25916,7 @@
       <c r="G177" s="18"/>
       <c r="H177" s="11"/>
     </row>
-    <row r="178" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>361</v>
       </c>
@@ -25931,7 +25932,7 @@
       <c r="G178" s="18"/>
       <c r="H178" s="11"/>
     </row>
-    <row r="179" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>363</v>
       </c>
@@ -25947,7 +25948,7 @@
       <c r="G179" s="18"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>365</v>
       </c>
@@ -25963,7 +25964,7 @@
       <c r="G180" s="18"/>
       <c r="H180" s="11"/>
     </row>
-    <row r="181" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>367</v>
       </c>
@@ -25979,7 +25980,7 @@
       <c r="G181" s="18"/>
       <c r="H181" s="11"/>
     </row>
-    <row r="182" spans="1:8" customFormat="1" ht="100.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>369</v>
       </c>
@@ -25995,7 +25996,7 @@
       <c r="G182" s="18"/>
       <c r="H182" s="11"/>
     </row>
-    <row r="183" spans="1:8" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>371</v>
       </c>
@@ -26011,7 +26012,7 @@
       <c r="G183" s="18"/>
       <c r="H183" s="11"/>
     </row>
-    <row r="184" spans="1:8" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>373</v>
       </c>
@@ -26027,7 +26028,7 @@
       <c r="G184" s="18"/>
       <c r="H184" s="11"/>
     </row>
-    <row r="185" spans="1:8" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>375</v>
       </c>
@@ -26043,7 +26044,7 @@
       <c r="G185" s="18"/>
       <c r="H185" s="11"/>
     </row>
-    <row r="186" spans="1:8" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>377</v>
       </c>
@@ -26059,7 +26060,7 @@
       <c r="G186" s="18"/>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>379</v>
       </c>
@@ -26075,7 +26076,7 @@
       <c r="G187" s="18"/>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>381</v>
       </c>
@@ -26091,7 +26092,7 @@
       <c r="G188" s="18"/>
       <c r="H188" s="11"/>
     </row>
-    <row r="189" spans="1:8" customFormat="1" ht="100.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>383</v>
       </c>
@@ -26107,7 +26108,7 @@
       <c r="G189" s="18"/>
       <c r="H189" s="11"/>
     </row>
-    <row r="190" spans="1:8" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>385</v>
       </c>
@@ -26123,7 +26124,7 @@
       <c r="G190" s="18"/>
       <c r="H190" s="11"/>
     </row>
-    <row r="191" spans="1:8" customFormat="1" ht="86.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>387</v>
       </c>
@@ -26139,7 +26140,7 @@
       <c r="G191" s="18"/>
       <c r="H191" s="11"/>
     </row>
-    <row r="192" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>389</v>
       </c>
@@ -26155,7 +26156,7 @@
       <c r="G192" s="18"/>
       <c r="H192" s="11"/>
     </row>
-    <row r="193" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>391</v>
       </c>
@@ -26171,7 +26172,7 @@
       <c r="G193" s="18"/>
       <c r="H193" s="11"/>
     </row>
-    <row r="194" spans="1:8" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>393</v>
       </c>
@@ -26187,7 +26188,7 @@
       <c r="G194" s="18"/>
       <c r="H194" s="11"/>
     </row>
-    <row r="195" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>395</v>
       </c>
@@ -26203,7 +26204,7 @@
       <c r="G195" s="18"/>
       <c r="H195" s="11"/>
     </row>
-    <row r="196" spans="1:8" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>397</v>
       </c>
@@ -26219,7 +26220,7 @@
       <c r="G196" s="18"/>
       <c r="H196" s="11"/>
     </row>
-    <row r="197" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>399</v>
       </c>
@@ -26235,7 +26236,7 @@
       <c r="G197" s="18"/>
       <c r="H197" s="11"/>
     </row>
-    <row r="198" spans="1:8" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>401</v>
       </c>
@@ -26251,7 +26252,7 @@
       <c r="G198" s="18"/>
       <c r="H198" s="11"/>
     </row>
-    <row r="199" spans="1:8" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>403</v>
       </c>
@@ -26267,7 +26268,7 @@
       <c r="G199" s="18"/>
       <c r="H199" s="11"/>
     </row>
-    <row r="200" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>405</v>
       </c>
@@ -26283,7 +26284,7 @@
       <c r="G200" s="18"/>
       <c r="H200" s="11"/>
     </row>
-    <row r="201" spans="1:8" customFormat="1" ht="158.44999999999999" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>407</v>
       </c>
@@ -26299,7 +26300,7 @@
       <c r="G201" s="18"/>
       <c r="H201" s="11"/>
     </row>
-    <row r="202" spans="1:8" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>409</v>
       </c>
@@ -26315,7 +26316,7 @@
       <c r="G202" s="18"/>
       <c r="H202" s="11"/>
     </row>
-    <row r="203" spans="1:8" customFormat="1" ht="158.44999999999999" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>411</v>
       </c>
@@ -26331,7 +26332,7 @@
       <c r="G203" s="18"/>
       <c r="H203" s="11"/>
     </row>
-    <row r="204" spans="1:8" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>413</v>
       </c>
@@ -26347,7 +26348,7 @@
       <c r="G204" s="18"/>
       <c r="H204" s="11"/>
     </row>
-    <row r="205" spans="1:8" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>415</v>
       </c>
@@ -26363,7 +26364,7 @@
       <c r="G205" s="18"/>
       <c r="H205" s="11"/>
     </row>
-    <row r="206" spans="1:8" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>417</v>
       </c>
@@ -26379,7 +26380,7 @@
       <c r="G206" s="18"/>
       <c r="H206" s="11"/>
     </row>
-    <row r="207" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>419</v>
       </c>
@@ -26395,7 +26396,7 @@
       <c r="G207" s="18"/>
       <c r="H207" s="11"/>
     </row>
-    <row r="208" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>421</v>
       </c>
@@ -26411,7 +26412,7 @@
       <c r="G208" s="18"/>
       <c r="H208" s="11"/>
     </row>
-    <row r="209" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>423</v>
       </c>
@@ -26427,7 +26428,7 @@
       <c r="G209" s="18"/>
       <c r="H209" s="11"/>
     </row>
-    <row r="210" spans="1:8" customFormat="1" ht="100.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>425</v>
       </c>
@@ -26443,7 +26444,7 @@
       <c r="G210" s="18"/>
       <c r="H210" s="11"/>
     </row>
-    <row r="211" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>427</v>
       </c>
@@ -26459,7 +26460,7 @@
       <c r="G211" s="18"/>
       <c r="H211" s="11"/>
     </row>
-    <row r="212" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>429</v>
       </c>
@@ -26471,7 +26472,7 @@
       <c r="G212" s="18"/>
       <c r="H212" s="11"/>
     </row>
-    <row r="213" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>430</v>
       </c>
@@ -26487,7 +26488,7 @@
       <c r="G213" s="18"/>
       <c r="H213" s="11"/>
     </row>
-    <row r="214" spans="1:8" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>432</v>
       </c>
@@ -26503,7 +26504,7 @@
       <c r="G214" s="18"/>
       <c r="H214" s="11"/>
     </row>
-    <row r="215" spans="1:8" customFormat="1" ht="100.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" customFormat="1" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>434</v>
       </c>
@@ -26519,7 +26520,7 @@
       <c r="G215" s="18"/>
       <c r="H215" s="11"/>
     </row>
-    <row r="216" spans="1:8" customFormat="1" ht="115.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>436</v>
       </c>
@@ -26535,7 +26536,7 @@
       <c r="G216" s="18"/>
       <c r="H216" s="11"/>
     </row>
-    <row r="217" spans="1:8" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>438</v>
       </c>
@@ -26551,7 +26552,7 @@
       <c r="G217" s="18"/>
       <c r="H217" s="11"/>
     </row>
-    <row r="218" spans="1:8" customFormat="1" ht="100.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>440</v>
       </c>
@@ -26567,7 +26568,7 @@
       <c r="G218" s="18"/>
       <c r="H218" s="11"/>
     </row>
-    <row r="219" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>442</v>
       </c>
@@ -26583,7 +26584,7 @@
       <c r="G219" s="18"/>
       <c r="H219" s="11"/>
     </row>
-    <row r="220" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>444</v>
       </c>
@@ -26599,7 +26600,7 @@
       <c r="G220" s="18"/>
       <c r="H220" s="11"/>
     </row>
-    <row r="221" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>446</v>
       </c>
@@ -26615,7 +26616,7 @@
       <c r="G221" s="18"/>
       <c r="H221" s="11"/>
     </row>
-    <row r="222" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>448</v>
       </c>
@@ -26631,7 +26632,7 @@
       <c r="G222" s="18"/>
       <c r="H222" s="11"/>
     </row>
-    <row r="223" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>450</v>
       </c>
@@ -26647,7 +26648,7 @@
       <c r="G223" s="18"/>
       <c r="H223" s="11"/>
     </row>
-    <row r="224" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>452</v>
       </c>
@@ -26659,7 +26660,7 @@
       <c r="G224" s="18"/>
       <c r="H224" s="11"/>
     </row>
-    <row r="225" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>453</v>
       </c>
@@ -26675,7 +26676,7 @@
       <c r="G225" s="18"/>
       <c r="H225" s="11"/>
     </row>
-    <row r="226" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>455</v>
       </c>
@@ -26691,7 +26692,7 @@
       <c r="G226" s="18"/>
       <c r="H226" s="11"/>
     </row>
-    <row r="227" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>457</v>
       </c>
@@ -26707,7 +26708,7 @@
       <c r="G227" s="18"/>
       <c r="H227" s="11"/>
     </row>
-    <row r="228" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>459</v>
       </c>
@@ -26723,7 +26724,7 @@
       <c r="G228" s="18"/>
       <c r="H228" s="11"/>
     </row>
-    <row r="229" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>461</v>
       </c>
@@ -26739,7 +26740,7 @@
       <c r="G229" s="18"/>
       <c r="H229" s="11"/>
     </row>
-    <row r="230" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>463</v>
       </c>
@@ -26755,7 +26756,7 @@
       <c r="G230" s="18"/>
       <c r="H230" s="11"/>
     </row>
-    <row r="231" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>465</v>
       </c>
@@ -26771,7 +26772,7 @@
       <c r="G231" s="18"/>
       <c r="H231" s="11"/>
     </row>
-    <row r="232" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>467</v>
       </c>
@@ -26787,7 +26788,7 @@
       <c r="G232" s="18"/>
       <c r="H232" s="11"/>
     </row>
-    <row r="233" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>469</v>
       </c>
@@ -26803,7 +26804,7 @@
       <c r="G233" s="18"/>
       <c r="H233" s="11"/>
     </row>
-    <row r="234" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>471</v>
       </c>
@@ -26819,7 +26820,7 @@
       <c r="G234" s="18"/>
       <c r="H234" s="11"/>
     </row>
-    <row r="235" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>473</v>
       </c>
@@ -26835,7 +26836,7 @@
       <c r="G235" s="18"/>
       <c r="H235" s="11"/>
     </row>
-    <row r="236" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>475</v>
       </c>
@@ -26851,7 +26852,7 @@
       <c r="G236" s="18"/>
       <c r="H236" s="11"/>
     </row>
-    <row r="237" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>477</v>
       </c>
@@ -26867,7 +26868,7 @@
       <c r="G237" s="18"/>
       <c r="H237" s="11"/>
     </row>
-    <row r="238" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>479</v>
       </c>
@@ -26883,7 +26884,7 @@
       <c r="G238" s="18"/>
       <c r="H238" s="11"/>
     </row>
-    <row r="239" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>481</v>
       </c>
@@ -26899,7 +26900,7 @@
       <c r="G239" s="18"/>
       <c r="H239" s="11"/>
     </row>
-    <row r="240" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>483</v>
       </c>
@@ -26915,7 +26916,7 @@
       <c r="G240" s="18"/>
       <c r="H240" s="11"/>
     </row>
-    <row r="241" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>485</v>
       </c>
@@ -26931,7 +26932,7 @@
       <c r="G241" s="18"/>
       <c r="H241" s="11"/>
     </row>
-    <row r="242" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>487</v>
       </c>
@@ -26947,7 +26948,7 @@
       <c r="G242" s="18"/>
       <c r="H242" s="11"/>
     </row>
-    <row r="243" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>489</v>
       </c>
@@ -26963,7 +26964,7 @@
       <c r="G243" s="18"/>
       <c r="H243" s="11"/>
     </row>
-    <row r="244" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>491</v>
       </c>
@@ -26979,7 +26980,7 @@
       <c r="G244" s="18"/>
       <c r="H244" s="11"/>
     </row>
-    <row r="245" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>493</v>
       </c>
@@ -26995,7 +26996,7 @@
       <c r="G245" s="18"/>
       <c r="H245" s="11"/>
     </row>
-    <row r="246" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>495</v>
       </c>
@@ -27011,7 +27012,7 @@
       <c r="G246" s="18"/>
       <c r="H246" s="11"/>
     </row>
-    <row r="247" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>497</v>
       </c>
@@ -27027,7 +27028,7 @@
       <c r="G247" s="18"/>
       <c r="H247" s="11"/>
     </row>
-    <row r="248" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>499</v>
       </c>
@@ -27043,7 +27044,7 @@
       <c r="G248" s="18"/>
       <c r="H248" s="11"/>
     </row>
-    <row r="249" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>501</v>
       </c>
@@ -27059,7 +27060,7 @@
       <c r="G249" s="18"/>
       <c r="H249" s="11"/>
     </row>
-    <row r="250" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>503</v>
       </c>
@@ -27075,7 +27076,7 @@
       <c r="G250" s="18"/>
       <c r="H250" s="11"/>
     </row>
-    <row r="251" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>505</v>
       </c>
@@ -27091,7 +27092,7 @@
       <c r="G251" s="18"/>
       <c r="H251" s="11"/>
     </row>
-    <row r="252" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>507</v>
       </c>
@@ -27107,7 +27108,7 @@
       <c r="G252" s="18"/>
       <c r="H252" s="11"/>
     </row>
-    <row r="253" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>509</v>
       </c>
@@ -27139,7 +27140,7 @@
       <c r="G254" s="18"/>
       <c r="H254" s="11"/>
     </row>
-    <row r="255" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>513</v>
       </c>
@@ -27155,7 +27156,7 @@
       <c r="G255" s="18"/>
       <c r="H255" s="11"/>
     </row>
-    <row r="256" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>515</v>
       </c>
@@ -27171,7 +27172,7 @@
       <c r="G256" s="18"/>
       <c r="H256" s="11"/>
     </row>
-    <row r="257" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>517</v>
       </c>
@@ -27187,7 +27188,7 @@
       <c r="G257" s="18"/>
       <c r="H257" s="11"/>
     </row>
-    <row r="258" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>518</v>
       </c>
@@ -27203,7 +27204,7 @@
       <c r="G258" s="18"/>
       <c r="H258" s="11"/>
     </row>
-    <row r="259" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>520</v>
       </c>
@@ -27219,7 +27220,7 @@
       <c r="G259" s="18"/>
       <c r="H259" s="11"/>
     </row>
-    <row r="260" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>522</v>
       </c>
@@ -27235,7 +27236,7 @@
       <c r="G260" s="18"/>
       <c r="H260" s="11"/>
     </row>
-    <row r="261" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>523</v>
       </c>
@@ -27251,7 +27252,7 @@
       <c r="G261" s="18"/>
       <c r="H261" s="11"/>
     </row>
-    <row r="262" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>525</v>
       </c>
@@ -27267,7 +27268,7 @@
       <c r="G262" s="18"/>
       <c r="H262" s="11"/>
     </row>
-    <row r="263" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>527</v>
       </c>
@@ -27283,7 +27284,7 @@
       <c r="G263" s="18"/>
       <c r="H263" s="11"/>
     </row>
-    <row r="264" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>529</v>
       </c>
@@ -27299,7 +27300,7 @@
       <c r="G264" s="18"/>
       <c r="H264" s="11"/>
     </row>
-    <row r="265" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>531</v>
       </c>
@@ -27315,7 +27316,7 @@
       <c r="G265" s="18"/>
       <c r="H265" s="11"/>
     </row>
-    <row r="266" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>533</v>
       </c>
@@ -27331,7 +27332,7 @@
       <c r="G266" s="18"/>
       <c r="H266" s="11"/>
     </row>
-    <row r="267" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>535</v>
       </c>
@@ -27347,7 +27348,7 @@
       <c r="G267" s="18"/>
       <c r="H267" s="11"/>
     </row>
-    <row r="268" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>537</v>
       </c>
@@ -27363,7 +27364,7 @@
       <c r="G268" s="18"/>
       <c r="H268" s="11"/>
     </row>
-    <row r="269" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>539</v>
       </c>
@@ -27379,7 +27380,7 @@
       <c r="G269" s="18"/>
       <c r="H269" s="11"/>
     </row>
-    <row r="270" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>541</v>
       </c>
@@ -27395,7 +27396,7 @@
       <c r="G270" s="18"/>
       <c r="H270" s="11"/>
     </row>
-    <row r="271" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>543</v>
       </c>
@@ -27411,7 +27412,7 @@
       <c r="G271" s="18"/>
       <c r="H271" s="11"/>
     </row>
-    <row r="272" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>545</v>
       </c>
@@ -27427,7 +27428,7 @@
       <c r="G272" s="18"/>
       <c r="H272" s="11"/>
     </row>
-    <row r="273" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>547</v>
       </c>
@@ -27443,7 +27444,7 @@
       <c r="G273" s="18"/>
       <c r="H273" s="11"/>
     </row>
-    <row r="274" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>549</v>
       </c>
@@ -27459,7 +27460,7 @@
       <c r="G274" s="18"/>
       <c r="H274" s="11"/>
     </row>
-    <row r="275" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>551</v>
       </c>
@@ -27475,7 +27476,7 @@
       <c r="G275" s="18"/>
       <c r="H275" s="11"/>
     </row>
-    <row r="276" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>553</v>
       </c>
@@ -27491,7 +27492,7 @@
       <c r="G276" s="18"/>
       <c r="H276" s="11"/>
     </row>
-    <row r="277" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>555</v>
       </c>
@@ -27507,7 +27508,7 @@
       <c r="G277" s="18"/>
       <c r="H277" s="11"/>
     </row>
-    <row r="278" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>557</v>
       </c>
@@ -27523,7 +27524,7 @@
       <c r="G278" s="18"/>
       <c r="H278" s="11"/>
     </row>
-    <row r="279" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>559</v>
       </c>
@@ -27539,7 +27540,7 @@
       <c r="G279" s="18"/>
       <c r="H279" s="11"/>
     </row>
-    <row r="280" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>562</v>
       </c>
@@ -27555,7 +27556,7 @@
       <c r="G280" s="18"/>
       <c r="H280" s="11"/>
     </row>
-    <row r="281" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>565</v>
       </c>
@@ -27571,7 +27572,7 @@
       <c r="G281" s="18"/>
       <c r="H281" s="11"/>
     </row>
-    <row r="282" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>567</v>
       </c>
@@ -27587,7 +27588,7 @@
       <c r="G282" s="18"/>
       <c r="H282" s="11"/>
     </row>
-    <row r="283" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>569</v>
       </c>
@@ -27603,7 +27604,7 @@
       <c r="G283" s="18"/>
       <c r="H283" s="11"/>
     </row>
-    <row r="284" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>571</v>
       </c>
@@ -27619,7 +27620,7 @@
       <c r="G284" s="18"/>
       <c r="H284" s="11"/>
     </row>
-    <row r="285" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>572</v>
       </c>
@@ -27635,7 +27636,7 @@
       <c r="G285" s="18"/>
       <c r="H285" s="11"/>
     </row>
-    <row r="286" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>574</v>
       </c>
@@ -27651,7 +27652,7 @@
       <c r="G286" s="18"/>
       <c r="H286" s="11"/>
     </row>
-    <row r="287" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>576</v>
       </c>
@@ -27667,7 +27668,7 @@
       <c r="G287" s="18"/>
       <c r="H287" s="11"/>
     </row>
-    <row r="288" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>578</v>
       </c>
@@ -27683,7 +27684,7 @@
       <c r="G288" s="18"/>
       <c r="H288" s="11"/>
     </row>
-    <row r="289" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>580</v>
       </c>
@@ -27699,7 +27700,7 @@
       <c r="G289" s="18"/>
       <c r="H289" s="11"/>
     </row>
-    <row r="290" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>582</v>
       </c>
@@ -27715,7 +27716,7 @@
       <c r="G290" s="18"/>
       <c r="H290" s="11"/>
     </row>
-    <row r="291" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>584</v>
       </c>
@@ -27731,7 +27732,7 @@
       <c r="G291" s="18"/>
       <c r="H291" s="11"/>
     </row>
-    <row r="292" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>586</v>
       </c>
@@ -27747,7 +27748,7 @@
       <c r="G292" s="18"/>
       <c r="H292" s="11"/>
     </row>
-    <row r="293" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>588</v>
       </c>
@@ -27763,7 +27764,7 @@
       <c r="G293" s="18"/>
       <c r="H293" s="11"/>
     </row>
-    <row r="294" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>590</v>
       </c>
@@ -27779,7 +27780,7 @@
       <c r="G294" s="18"/>
       <c r="H294" s="11"/>
     </row>
-    <row r="295" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>592</v>
       </c>
@@ -27795,7 +27796,7 @@
       <c r="G295" s="18"/>
       <c r="H295" s="11"/>
     </row>
-    <row r="296" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>594</v>
       </c>
@@ -27811,7 +27812,7 @@
       <c r="G296" s="18"/>
       <c r="H296" s="11"/>
     </row>
-    <row r="297" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>596</v>
       </c>
@@ -27827,7 +27828,7 @@
       <c r="G297" s="18"/>
       <c r="H297" s="11"/>
     </row>
-    <row r="298" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>598</v>
       </c>
@@ -27843,7 +27844,7 @@
       <c r="G298" s="18"/>
       <c r="H298" s="11"/>
     </row>
-    <row r="299" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>600</v>
       </c>
@@ -27859,7 +27860,7 @@
       <c r="G299" s="18"/>
       <c r="H299" s="11"/>
     </row>
-    <row r="300" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>602</v>
       </c>
@@ -27875,7 +27876,7 @@
       <c r="G300" s="18"/>
       <c r="H300" s="11"/>
     </row>
-    <row r="301" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>604</v>
       </c>
@@ -27891,7 +27892,7 @@
       <c r="G301" s="18"/>
       <c r="H301" s="11"/>
     </row>
-    <row r="302" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>606</v>
       </c>
@@ -27907,7 +27908,7 @@
       <c r="G302" s="18"/>
       <c r="H302" s="11"/>
     </row>
-    <row r="303" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>608</v>
       </c>
@@ -27923,7 +27924,7 @@
       <c r="G303" s="18"/>
       <c r="H303" s="11"/>
     </row>
-    <row r="304" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>610</v>
       </c>
@@ -27939,7 +27940,7 @@
       <c r="G304" s="18"/>
       <c r="H304" s="11"/>
     </row>
-    <row r="305" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>612</v>
       </c>
@@ -27955,7 +27956,7 @@
       <c r="G305" s="18"/>
       <c r="H305" s="11"/>
     </row>
-    <row r="306" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>614</v>
       </c>
@@ -27971,7 +27972,7 @@
       <c r="G306" s="18"/>
       <c r="H306" s="11"/>
     </row>
-    <row r="307" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>616</v>
       </c>
@@ -27987,7 +27988,7 @@
       <c r="G307" s="18"/>
       <c r="H307" s="11"/>
     </row>
-    <row r="308" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>618</v>
       </c>
@@ -28003,7 +28004,7 @@
       <c r="G308" s="18"/>
       <c r="H308" s="11"/>
     </row>
-    <row r="309" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>620</v>
       </c>
@@ -28019,7 +28020,7 @@
       <c r="G309" s="18"/>
       <c r="H309" s="11"/>
     </row>
-    <row r="310" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>622</v>
       </c>
@@ -28035,7 +28036,7 @@
       <c r="G310" s="18"/>
       <c r="H310" s="11"/>
     </row>
-    <row r="311" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>625</v>
       </c>
@@ -28051,7 +28052,7 @@
       <c r="G311" s="18"/>
       <c r="H311" s="11"/>
     </row>
-    <row r="312" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>628</v>
       </c>
@@ -28067,7 +28068,7 @@
       <c r="G312" s="18"/>
       <c r="H312" s="11"/>
     </row>
-    <row r="313" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>630</v>
       </c>
@@ -28083,7 +28084,7 @@
       <c r="G313" s="18"/>
       <c r="H313" s="11"/>
     </row>
-    <row r="314" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>632</v>
       </c>
@@ -28099,7 +28100,7 @@
       <c r="G314" s="18"/>
       <c r="H314" s="11"/>
     </row>
-    <row r="315" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>634</v>
       </c>
@@ -28115,7 +28116,7 @@
       <c r="G315" s="18"/>
       <c r="H315" s="11"/>
     </row>
-    <row r="316" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>636</v>
       </c>
@@ -28131,7 +28132,7 @@
       <c r="G316" s="18"/>
       <c r="H316" s="11"/>
     </row>
-    <row r="317" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>638</v>
       </c>
@@ -28147,7 +28148,7 @@
       <c r="G317" s="18"/>
       <c r="H317" s="11"/>
     </row>
-    <row r="318" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>640</v>
       </c>
@@ -28163,7 +28164,7 @@
       <c r="G318" s="18"/>
       <c r="H318" s="11"/>
     </row>
-    <row r="319" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>642</v>
       </c>
@@ -28179,7 +28180,7 @@
       <c r="G319" s="18"/>
       <c r="H319" s="11"/>
     </row>
-    <row r="320" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>644</v>
       </c>
@@ -28195,7 +28196,7 @@
       <c r="G320" s="18"/>
       <c r="H320" s="11"/>
     </row>
-    <row r="321" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>646</v>
       </c>
@@ -28211,7 +28212,7 @@
       <c r="G321" s="18"/>
       <c r="H321" s="11"/>
     </row>
-    <row r="322" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>648</v>
       </c>
@@ -28227,7 +28228,7 @@
       <c r="G322" s="18"/>
       <c r="H322" s="11"/>
     </row>
-    <row r="323" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>651</v>
       </c>
@@ -28243,7 +28244,7 @@
       <c r="G323" s="18"/>
       <c r="H323" s="11"/>
     </row>
-    <row r="324" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>653</v>
       </c>
@@ -28259,7 +28260,7 @@
       <c r="G324" s="18"/>
       <c r="H324" s="11"/>
     </row>
-    <row r="325" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>655</v>
       </c>
@@ -28275,7 +28276,7 @@
       <c r="G325" s="18"/>
       <c r="H325" s="11"/>
     </row>
-    <row r="326" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>657</v>
       </c>
@@ -28291,7 +28292,7 @@
       <c r="G326" s="18"/>
       <c r="H326" s="11"/>
     </row>
-    <row r="327" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>659</v>
       </c>
@@ -28307,7 +28308,7 @@
       <c r="G327" s="18"/>
       <c r="H327" s="11"/>
     </row>
-    <row r="328" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>662</v>
       </c>
@@ -28323,7 +28324,7 @@
       <c r="G328" s="18"/>
       <c r="H328" s="11"/>
     </row>
-    <row r="329" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>664</v>
       </c>
@@ -28339,7 +28340,7 @@
       <c r="G329" s="18"/>
       <c r="H329" s="11"/>
     </row>
-    <row r="330" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>666</v>
       </c>
@@ -28355,7 +28356,7 @@
       <c r="G330" s="18"/>
       <c r="H330" s="11"/>
     </row>
-    <row r="331" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>668</v>
       </c>
@@ -28371,7 +28372,7 @@
       <c r="G331" s="18"/>
       <c r="H331" s="11"/>
     </row>
-    <row r="332" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>670</v>
       </c>
@@ -28387,7 +28388,7 @@
       <c r="G332" s="18"/>
       <c r="H332" s="11"/>
     </row>
-    <row r="333" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>673</v>
       </c>
@@ -28403,7 +28404,7 @@
       <c r="G333" s="18"/>
       <c r="H333" s="11"/>
     </row>
-    <row r="334" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>675</v>
       </c>
@@ -28419,7 +28420,7 @@
       <c r="G334" s="18"/>
       <c r="H334" s="11"/>
     </row>
-    <row r="335" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>677</v>
       </c>
@@ -28435,7 +28436,7 @@
       <c r="G335" s="18"/>
       <c r="H335" s="11"/>
     </row>
-    <row r="336" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>679</v>
       </c>
@@ -28451,7 +28452,7 @@
       <c r="G336" s="18"/>
       <c r="H336" s="11"/>
     </row>
-    <row r="337" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>681</v>
       </c>
@@ -28467,7 +28468,7 @@
       <c r="G337" s="18"/>
       <c r="H337" s="11"/>
     </row>
-    <row r="338" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>683</v>
       </c>
@@ -28483,7 +28484,7 @@
       <c r="G338" s="18"/>
       <c r="H338" s="11"/>
     </row>
-    <row r="339" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>686</v>
       </c>
@@ -28499,7 +28500,7 @@
       <c r="G339" s="18"/>
       <c r="H339" s="11"/>
     </row>
-    <row r="340" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>688</v>
       </c>
@@ -28515,7 +28516,7 @@
       <c r="G340" s="18"/>
       <c r="H340" s="11"/>
     </row>
-    <row r="341" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>690</v>
       </c>
@@ -28555,7 +28556,7 @@
       </c>
       <c r="H342" s="11"/>
     </row>
-    <row r="343" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>696</v>
       </c>
@@ -28571,7 +28572,7 @@
       <c r="G343" s="18"/>
       <c r="H343" s="11"/>
     </row>
-    <row r="344" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>698</v>
       </c>
@@ -28587,7 +28588,7 @@
       <c r="G344" s="18"/>
       <c r="H344" s="11"/>
     </row>
-    <row r="345" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>700</v>
       </c>
@@ -28603,7 +28604,7 @@
       <c r="G345" s="18"/>
       <c r="H345" s="11"/>
     </row>
-    <row r="346" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>702</v>
       </c>
@@ -28619,7 +28620,7 @@
       <c r="G346" s="18"/>
       <c r="H346" s="11"/>
     </row>
-    <row r="347" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>704</v>
       </c>
@@ -28635,7 +28636,7 @@
       <c r="G347" s="18"/>
       <c r="H347" s="11"/>
     </row>
-    <row r="348" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>707</v>
       </c>
@@ -28651,7 +28652,7 @@
       <c r="G348" s="18"/>
       <c r="H348" s="11"/>
     </row>
-    <row r="349" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>710</v>
       </c>
@@ -28667,7 +28668,7 @@
       <c r="G349" s="18"/>
       <c r="H349" s="11"/>
     </row>
-    <row r="350" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>712</v>
       </c>
@@ -28683,7 +28684,7 @@
       <c r="G350" s="18"/>
       <c r="H350" s="11"/>
     </row>
-    <row r="351" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>715</v>
       </c>
@@ -28699,7 +28700,7 @@
       <c r="G351" s="18"/>
       <c r="H351" s="11"/>
     </row>
-    <row r="352" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>717</v>
       </c>
@@ -28715,7 +28716,7 @@
       <c r="G352" s="18"/>
       <c r="H352" s="11"/>
     </row>
-    <row r="353" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>720</v>
       </c>
@@ -28731,7 +28732,7 @@
       <c r="G353" s="18"/>
       <c r="H353" s="11"/>
     </row>
-    <row r="354" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>723</v>
       </c>
@@ -28747,7 +28748,7 @@
       <c r="G354" s="18"/>
       <c r="H354" s="11"/>
     </row>
-    <row r="355" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>726</v>
       </c>
@@ -28763,7 +28764,7 @@
       <c r="G355" s="18"/>
       <c r="H355" s="11"/>
     </row>
-    <row r="356" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>728</v>
       </c>
@@ -28779,7 +28780,7 @@
       <c r="G356" s="18"/>
       <c r="H356" s="11"/>
     </row>
-    <row r="357" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>730</v>
       </c>
@@ -28795,7 +28796,7 @@
       <c r="G357" s="18"/>
       <c r="H357" s="11"/>
     </row>
-    <row r="358" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>732</v>
       </c>
@@ -28811,7 +28812,7 @@
       <c r="G358" s="18"/>
       <c r="H358" s="11"/>
     </row>
-    <row r="359" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>734</v>
       </c>
@@ -28827,7 +28828,7 @@
       <c r="G359" s="18"/>
       <c r="H359" s="11"/>
     </row>
-    <row r="360" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>736</v>
       </c>
@@ -28843,7 +28844,7 @@
       <c r="G360" s="18"/>
       <c r="H360" s="11"/>
     </row>
-    <row r="361" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>738</v>
       </c>
@@ -28859,7 +28860,7 @@
       <c r="G361" s="18"/>
       <c r="H361" s="11"/>
     </row>
-    <row r="362" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>740</v>
       </c>
@@ -28875,7 +28876,7 @@
       <c r="G362" s="18"/>
       <c r="H362" s="11"/>
     </row>
-    <row r="363" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>742</v>
       </c>
@@ -28891,7 +28892,7 @@
       <c r="G363" s="18"/>
       <c r="H363" s="11"/>
     </row>
-    <row r="364" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>744</v>
       </c>
@@ -28907,7 +28908,7 @@
       <c r="G364" s="18"/>
       <c r="H364" s="11"/>
     </row>
-    <row r="365" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>746</v>
       </c>
@@ -28923,7 +28924,7 @@
       <c r="G365" s="18"/>
       <c r="H365" s="11"/>
     </row>
-    <row r="366" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>749</v>
       </c>
@@ -28963,7 +28964,7 @@
       </c>
       <c r="H367" s="11"/>
     </row>
-    <row r="368" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>754</v>
       </c>
@@ -28979,7 +28980,7 @@
       <c r="G368" s="18"/>
       <c r="H368" s="11"/>
     </row>
-    <row r="369" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>756</v>
       </c>
@@ -28995,7 +28996,7 @@
       <c r="G369" s="18"/>
       <c r="H369" s="11"/>
     </row>
-    <row r="370" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>758</v>
       </c>
@@ -29011,7 +29012,7 @@
       <c r="G370" s="18"/>
       <c r="H370" s="11"/>
     </row>
-    <row r="371" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>761</v>
       </c>
@@ -29051,7 +29052,7 @@
       </c>
       <c r="H372" s="11"/>
     </row>
-    <row r="373" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>765</v>
       </c>
@@ -29067,7 +29068,7 @@
       <c r="G373" s="18"/>
       <c r="H373" s="11"/>
     </row>
-    <row r="374" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>767</v>
       </c>
@@ -29083,7 +29084,7 @@
       <c r="G374" s="18"/>
       <c r="H374" s="11"/>
     </row>
-    <row r="375" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>769</v>
       </c>
@@ -29099,7 +29100,7 @@
       <c r="G375" s="18"/>
       <c r="H375" s="11"/>
     </row>
-    <row r="376" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>771</v>
       </c>
@@ -29115,7 +29116,7 @@
       <c r="G376" s="18"/>
       <c r="H376" s="11"/>
     </row>
-    <row r="377" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>773</v>
       </c>
@@ -29131,7 +29132,7 @@
       <c r="G377" s="18"/>
       <c r="H377" s="11"/>
     </row>
-    <row r="378" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>775</v>
       </c>
@@ -29147,7 +29148,7 @@
       <c r="G378" s="18"/>
       <c r="H378" s="11"/>
     </row>
-    <row r="379" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>777</v>
       </c>
@@ -29163,7 +29164,7 @@
       <c r="G379" s="18"/>
       <c r="H379" s="11"/>
     </row>
-    <row r="380" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>779</v>
       </c>
@@ -29179,7 +29180,7 @@
       <c r="G380" s="18"/>
       <c r="H380" s="11"/>
     </row>
-    <row r="381" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>781</v>
       </c>
@@ -29195,7 +29196,7 @@
       <c r="G381" s="18"/>
       <c r="H381" s="11"/>
     </row>
-    <row r="382" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>783</v>
       </c>
@@ -29211,7 +29212,7 @@
       <c r="G382" s="18"/>
       <c r="H382" s="11"/>
     </row>
-    <row r="383" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>785</v>
       </c>
@@ -29227,7 +29228,7 @@
       <c r="G383" s="18"/>
       <c r="H383" s="11"/>
     </row>
-    <row r="384" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>787</v>
       </c>
@@ -29243,7 +29244,7 @@
       <c r="G384" s="18"/>
       <c r="H384" s="11"/>
     </row>
-    <row r="385" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>789</v>
       </c>
@@ -29259,7 +29260,7 @@
       <c r="G385" s="18"/>
       <c r="H385" s="11"/>
     </row>
-    <row r="386" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>791</v>
       </c>
@@ -29275,7 +29276,7 @@
       <c r="G386" s="18"/>
       <c r="H386" s="11"/>
     </row>
-    <row r="387" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>793</v>
       </c>
@@ -29291,7 +29292,7 @@
       <c r="G387" s="18"/>
       <c r="H387" s="11"/>
     </row>
-    <row r="388" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>795</v>
       </c>
@@ -29307,7 +29308,7 @@
       <c r="G388" s="18"/>
       <c r="H388" s="11"/>
     </row>
-    <row r="389" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>797</v>
       </c>
@@ -29323,7 +29324,7 @@
       <c r="G389" s="18"/>
       <c r="H389" s="11"/>
     </row>
-    <row r="390" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>799</v>
       </c>
@@ -29339,7 +29340,7 @@
       <c r="G390" s="18"/>
       <c r="H390" s="11"/>
     </row>
-    <row r="391" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>801</v>
       </c>
@@ -29355,7 +29356,7 @@
       <c r="G391" s="18"/>
       <c r="H391" s="11"/>
     </row>
-    <row r="392" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>803</v>
       </c>
@@ -29371,7 +29372,7 @@
       <c r="G392" s="18"/>
       <c r="H392" s="11"/>
     </row>
-    <row r="393" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>805</v>
       </c>
@@ -29387,7 +29388,7 @@
       <c r="G393" s="18"/>
       <c r="H393" s="11"/>
     </row>
-    <row r="394" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>807</v>
       </c>
@@ -29403,7 +29404,7 @@
       <c r="G394" s="18"/>
       <c r="H394" s="11"/>
     </row>
-    <row r="395" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>809</v>
       </c>
@@ -29419,7 +29420,7 @@
       <c r="G395" s="18"/>
       <c r="H395" s="11"/>
     </row>
-    <row r="396" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>811</v>
       </c>
@@ -29435,7 +29436,7 @@
       <c r="G396" s="18"/>
       <c r="H396" s="11"/>
     </row>
-    <row r="397" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>813</v>
       </c>
@@ -29451,7 +29452,7 @@
       <c r="G397" s="18"/>
       <c r="H397" s="11"/>
     </row>
-    <row r="398" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>815</v>
       </c>
@@ -29467,7 +29468,7 @@
       <c r="G398" s="18"/>
       <c r="H398" s="11"/>
     </row>
-    <row r="399" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>817</v>
       </c>
@@ -29483,7 +29484,7 @@
       <c r="G399" s="18"/>
       <c r="H399" s="11"/>
     </row>
-    <row r="400" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>819</v>
       </c>
@@ -29499,7 +29500,7 @@
       <c r="G400" s="18"/>
       <c r="H400" s="11"/>
     </row>
-    <row r="401" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>821</v>
       </c>
@@ -29515,7 +29516,7 @@
       <c r="G401" s="18"/>
       <c r="H401" s="11"/>
     </row>
-    <row r="402" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>823</v>
       </c>
@@ -29531,7 +29532,7 @@
       <c r="G402" s="18"/>
       <c r="H402" s="11"/>
     </row>
-    <row r="403" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>825</v>
       </c>
@@ -29547,7 +29548,7 @@
       <c r="G403" s="18"/>
       <c r="H403" s="11"/>
     </row>
-    <row r="404" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>827</v>
       </c>
@@ -29563,7 +29564,7 @@
       <c r="G404" s="18"/>
       <c r="H404" s="11"/>
     </row>
-    <row r="405" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>829</v>
       </c>
@@ -29579,7 +29580,7 @@
       <c r="G405" s="18"/>
       <c r="H405" s="11"/>
     </row>
-    <row r="406" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>831</v>
       </c>
@@ -29595,7 +29596,7 @@
       <c r="G406" s="18"/>
       <c r="H406" s="11"/>
     </row>
-    <row r="407" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>833</v>
       </c>
@@ -29611,7 +29612,7 @@
       <c r="G407" s="18"/>
       <c r="H407" s="11"/>
     </row>
-    <row r="408" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>835</v>
       </c>
@@ -29627,7 +29628,7 @@
       <c r="G408" s="18"/>
       <c r="H408" s="11"/>
     </row>
-    <row r="409" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>837</v>
       </c>
@@ -29643,7 +29644,7 @@
       <c r="G409" s="18"/>
       <c r="H409" s="11"/>
     </row>
-    <row r="410" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>839</v>
       </c>
@@ -29659,7 +29660,7 @@
       <c r="G410" s="18"/>
       <c r="H410" s="11"/>
     </row>
-    <row r="411" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>841</v>
       </c>
@@ -29739,7 +29740,7 @@
       </c>
       <c r="H414" s="11"/>
     </row>
-    <row r="415" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>849</v>
       </c>
@@ -29755,7 +29756,7 @@
       <c r="G415" s="18"/>
       <c r="H415" s="11"/>
     </row>
-    <row r="416" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>851</v>
       </c>
@@ -29771,7 +29772,7 @@
       <c r="G416" s="18"/>
       <c r="H416" s="11"/>
     </row>
-    <row r="417" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>853</v>
       </c>
@@ -29787,7 +29788,7 @@
       <c r="G417" s="18"/>
       <c r="H417" s="11"/>
     </row>
-    <row r="418" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>855</v>
       </c>
@@ -29803,7 +29804,7 @@
       <c r="G418" s="18"/>
       <c r="H418" s="11"/>
     </row>
-    <row r="419" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>857</v>
       </c>
@@ -29819,7 +29820,7 @@
       <c r="G419" s="18"/>
       <c r="H419" s="11"/>
     </row>
-    <row r="420" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>859</v>
       </c>
@@ -29835,7 +29836,7 @@
       <c r="G420" s="18"/>
       <c r="H420" s="11"/>
     </row>
-    <row r="421" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>861</v>
       </c>
@@ -29851,7 +29852,7 @@
       <c r="G421" s="18"/>
       <c r="H421" s="11"/>
     </row>
-    <row r="422" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>863</v>
       </c>
@@ -29867,7 +29868,7 @@
       <c r="G422" s="18"/>
       <c r="H422" s="11"/>
     </row>
-    <row r="423" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>865</v>
       </c>
@@ -29883,7 +29884,7 @@
       <c r="G423" s="18"/>
       <c r="H423" s="11"/>
     </row>
-    <row r="424" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>867</v>
       </c>
@@ -29923,7 +29924,7 @@
       </c>
       <c r="H425" s="11"/>
     </row>
-    <row r="426" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>871</v>
       </c>
@@ -29939,7 +29940,7 @@
       <c r="G426" s="18"/>
       <c r="H426" s="11"/>
     </row>
-    <row r="427" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>873</v>
       </c>
@@ -29955,7 +29956,7 @@
       <c r="G427" s="18"/>
       <c r="H427" s="11"/>
     </row>
-    <row r="428" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>875</v>
       </c>
@@ -29971,7 +29972,7 @@
       <c r="G428" s="18"/>
       <c r="H428" s="11"/>
     </row>
-    <row r="429" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>877</v>
       </c>
@@ -29987,7 +29988,7 @@
       <c r="G429" s="18"/>
       <c r="H429" s="11"/>
     </row>
-    <row r="430" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>879</v>
       </c>
@@ -29999,7 +30000,7 @@
       <c r="G430" s="18"/>
       <c r="H430" s="11"/>
     </row>
-    <row r="431" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>880</v>
       </c>
@@ -30015,7 +30016,7 @@
       <c r="G431" s="18"/>
       <c r="H431" s="11"/>
     </row>
-    <row r="432" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>882</v>
       </c>
@@ -30031,7 +30032,7 @@
       <c r="G432" s="18"/>
       <c r="H432" s="11"/>
     </row>
-    <row r="433" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>883</v>
       </c>
@@ -30047,7 +30048,7 @@
       <c r="G433" s="18"/>
       <c r="H433" s="11"/>
     </row>
-    <row r="434" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>885</v>
       </c>
@@ -30063,7 +30064,7 @@
       <c r="G434" s="18"/>
       <c r="H434" s="11"/>
     </row>
-    <row r="435" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>887</v>
       </c>
@@ -30079,7 +30080,7 @@
       <c r="G435" s="18"/>
       <c r="H435" s="11"/>
     </row>
-    <row r="436" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>889</v>
       </c>
@@ -30095,7 +30096,7 @@
       <c r="G436" s="18"/>
       <c r="H436" s="11"/>
     </row>
-    <row r="437" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>891</v>
       </c>
@@ -30111,7 +30112,7 @@
       <c r="G437" s="18"/>
       <c r="H437" s="11"/>
     </row>
-    <row r="438" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>893</v>
       </c>
@@ -30127,7 +30128,7 @@
       <c r="G438" s="18"/>
       <c r="H438" s="11"/>
     </row>
-    <row r="439" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>895</v>
       </c>
@@ -30143,7 +30144,7 @@
       <c r="G439" s="18"/>
       <c r="H439" s="11"/>
     </row>
-    <row r="440" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>897</v>
       </c>
@@ -30159,7 +30160,7 @@
       <c r="G440" s="18"/>
       <c r="H440" s="11"/>
     </row>
-    <row r="441" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>899</v>
       </c>
@@ -30175,7 +30176,7 @@
       <c r="G441" s="18"/>
       <c r="H441" s="11"/>
     </row>
-    <row r="442" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>901</v>
       </c>
@@ -30191,7 +30192,7 @@
       <c r="G442" s="18"/>
       <c r="H442" s="11"/>
     </row>
-    <row r="443" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>903</v>
       </c>
@@ -30207,7 +30208,7 @@
       <c r="G443" s="18"/>
       <c r="H443" s="11"/>
     </row>
-    <row r="444" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>905</v>
       </c>
@@ -30223,7 +30224,7 @@
       <c r="G444" s="18"/>
       <c r="H444" s="11"/>
     </row>
-    <row r="445" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>907</v>
       </c>
@@ -30239,7 +30240,7 @@
       <c r="G445" s="18"/>
       <c r="H445" s="11"/>
     </row>
-    <row r="446" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>909</v>
       </c>
@@ -30255,7 +30256,7 @@
       <c r="G446" s="18"/>
       <c r="H446" s="11"/>
     </row>
-    <row r="447" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>911</v>
       </c>
@@ -30271,7 +30272,7 @@
       <c r="G447" s="18"/>
       <c r="H447" s="11"/>
     </row>
-    <row r="448" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>913</v>
       </c>
@@ -30287,7 +30288,7 @@
       <c r="G448" s="18"/>
       <c r="H448" s="11"/>
     </row>
-    <row r="449" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>916</v>
       </c>
@@ -30303,7 +30304,7 @@
       <c r="G449" s="18"/>
       <c r="H449" s="11"/>
     </row>
-    <row r="450" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>919</v>
       </c>
@@ -30319,7 +30320,7 @@
       <c r="G450" s="18"/>
       <c r="H450" s="11"/>
     </row>
-    <row r="451" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>921</v>
       </c>
@@ -30335,7 +30336,7 @@
       <c r="G451" s="18"/>
       <c r="H451" s="11"/>
     </row>
-    <row r="452" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>923</v>
       </c>
@@ -30351,7 +30352,7 @@
       <c r="G452" s="18"/>
       <c r="H452" s="11"/>
     </row>
-    <row r="453" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>925</v>
       </c>
@@ -30367,7 +30368,7 @@
       <c r="G453" s="18"/>
       <c r="H453" s="11"/>
     </row>
-    <row r="454" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>927</v>
       </c>
@@ -30383,7 +30384,7 @@
       <c r="G454" s="18"/>
       <c r="H454" s="11"/>
     </row>
-    <row r="455" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>929</v>
       </c>
@@ -30399,7 +30400,7 @@
       <c r="G455" s="18"/>
       <c r="H455" s="11"/>
     </row>
-    <row r="456" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>932</v>
       </c>
@@ -30415,7 +30416,7 @@
       <c r="G456" s="18"/>
       <c r="H456" s="11"/>
     </row>
-    <row r="457" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>934</v>
       </c>
@@ -30431,7 +30432,7 @@
       <c r="G457" s="18"/>
       <c r="H457" s="11"/>
     </row>
-    <row r="458" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>936</v>
       </c>
@@ -30447,7 +30448,7 @@
       <c r="G458" s="18"/>
       <c r="H458" s="11"/>
     </row>
-    <row r="459" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>938</v>
       </c>
@@ -30503,7 +30504,7 @@
       </c>
       <c r="H461" s="11"/>
     </row>
-    <row r="462" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>943</v>
       </c>
@@ -30519,7 +30520,7 @@
       <c r="G462" s="18"/>
       <c r="H462" s="11"/>
     </row>
-    <row r="463" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>946</v>
       </c>
@@ -30535,7 +30536,7 @@
       <c r="G463" s="18"/>
       <c r="H463" s="11"/>
     </row>
-    <row r="464" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>947</v>
       </c>
@@ -30551,7 +30552,7 @@
       <c r="G464" s="18"/>
       <c r="H464" s="11"/>
     </row>
-    <row r="465" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>949</v>
       </c>
@@ -30567,7 +30568,7 @@
       <c r="G465" s="18"/>
       <c r="H465" s="11"/>
     </row>
-    <row r="466" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>951</v>
       </c>
@@ -30583,7 +30584,7 @@
       <c r="G466" s="18"/>
       <c r="H466" s="11"/>
     </row>
-    <row r="467" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>953</v>
       </c>
@@ -30599,7 +30600,7 @@
       <c r="G467" s="18"/>
       <c r="H467" s="11"/>
     </row>
-    <row r="468" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>955</v>
       </c>
@@ -30615,7 +30616,7 @@
       <c r="G468" s="18"/>
       <c r="H468" s="11"/>
     </row>
-    <row r="469" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>957</v>
       </c>
@@ -30631,7 +30632,7 @@
       <c r="G469" s="18"/>
       <c r="H469" s="11"/>
     </row>
-    <row r="470" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>959</v>
       </c>
@@ -30647,7 +30648,7 @@
       <c r="G470" s="18"/>
       <c r="H470" s="11"/>
     </row>
-    <row r="471" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>961</v>
       </c>
@@ -30663,7 +30664,7 @@
       <c r="G471" s="18"/>
       <c r="H471" s="11"/>
     </row>
-    <row r="472" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>963</v>
       </c>
@@ -30679,7 +30680,7 @@
       <c r="G472" s="18"/>
       <c r="H472" s="11"/>
     </row>
-    <row r="473" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>965</v>
       </c>
@@ -30695,7 +30696,7 @@
       <c r="G473" s="18"/>
       <c r="H473" s="11"/>
     </row>
-    <row r="474" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>967</v>
       </c>
@@ -30711,7 +30712,7 @@
       <c r="G474" s="18"/>
       <c r="H474" s="11"/>
     </row>
-    <row r="475" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>969</v>
       </c>
@@ -30727,7 +30728,7 @@
       <c r="G475" s="18"/>
       <c r="H475" s="11"/>
     </row>
-    <row r="476" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>971</v>
       </c>
@@ -30743,7 +30744,7 @@
       <c r="G476" s="18"/>
       <c r="H476" s="11"/>
     </row>
-    <row r="477" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>973</v>
       </c>
@@ -30759,7 +30760,7 @@
       <c r="G477" s="18"/>
       <c r="H477" s="11"/>
     </row>
-    <row r="478" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>975</v>
       </c>
@@ -30775,7 +30776,7 @@
       <c r="G478" s="18"/>
       <c r="H478" s="11"/>
     </row>
-    <row r="479" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>977</v>
       </c>
@@ -30791,7 +30792,7 @@
       <c r="G479" s="18"/>
       <c r="H479" s="11"/>
     </row>
-    <row r="480" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>979</v>
       </c>
@@ -30807,7 +30808,7 @@
       <c r="G480" s="18"/>
       <c r="H480" s="11"/>
     </row>
-    <row r="481" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>980</v>
       </c>
@@ -30847,7 +30848,7 @@
       </c>
       <c r="H482" s="11"/>
     </row>
-    <row r="483" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>985</v>
       </c>
@@ -30863,7 +30864,7 @@
       <c r="G483" s="18"/>
       <c r="H483" s="11"/>
     </row>
-    <row r="484" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>986</v>
       </c>
@@ -30879,7 +30880,7 @@
       <c r="G484" s="18"/>
       <c r="H484" s="11"/>
     </row>
-    <row r="485" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>988</v>
       </c>
@@ -30895,7 +30896,7 @@
       <c r="G485" s="18"/>
       <c r="H485" s="11"/>
     </row>
-    <row r="486" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>990</v>
       </c>
@@ -30911,7 +30912,7 @@
       <c r="G486" s="18"/>
       <c r="H486" s="11"/>
     </row>
-    <row r="487" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>992</v>
       </c>
@@ -30927,7 +30928,7 @@
       <c r="G487" s="18"/>
       <c r="H487" s="11"/>
     </row>
-    <row r="488" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>994</v>
       </c>
@@ -30943,7 +30944,7 @@
       <c r="G488" s="18"/>
       <c r="H488" s="11"/>
     </row>
-    <row r="489" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>996</v>
       </c>
@@ -30959,7 +30960,7 @@
       <c r="G489" s="18"/>
       <c r="H489" s="11"/>
     </row>
-    <row r="490" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>998</v>
       </c>
@@ -30975,7 +30976,7 @@
       <c r="G490" s="18"/>
       <c r="H490" s="11"/>
     </row>
-    <row r="491" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>1000</v>
       </c>
@@ -30991,7 +30992,7 @@
       <c r="G491" s="18"/>
       <c r="H491" s="11"/>
     </row>
-    <row r="492" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>1002</v>
       </c>
@@ -31007,7 +31008,7 @@
       <c r="G492" s="18"/>
       <c r="H492" s="11"/>
     </row>
-    <row r="493" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>1004</v>
       </c>
@@ -31023,7 +31024,7 @@
       <c r="G493" s="18"/>
       <c r="H493" s="11"/>
     </row>
-    <row r="494" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>1006</v>
       </c>
@@ -31039,7 +31040,7 @@
       <c r="G494" s="18"/>
       <c r="H494" s="11"/>
     </row>
-    <row r="495" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>1008</v>
       </c>
@@ -31055,7 +31056,7 @@
       <c r="G495" s="18"/>
       <c r="H495" s="11"/>
     </row>
-    <row r="496" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>1010</v>
       </c>
@@ -31071,7 +31072,7 @@
       <c r="G496" s="18"/>
       <c r="H496" s="11"/>
     </row>
-    <row r="497" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>1012</v>
       </c>
@@ -31087,7 +31088,7 @@
       <c r="G497" s="18"/>
       <c r="H497" s="11"/>
     </row>
-    <row r="498" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>1014</v>
       </c>
@@ -31103,7 +31104,7 @@
       <c r="G498" s="18"/>
       <c r="H498" s="11"/>
     </row>
-    <row r="499" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>1016</v>
       </c>
@@ -31119,7 +31120,7 @@
       <c r="G499" s="18"/>
       <c r="H499" s="11"/>
     </row>
-    <row r="500" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>1018</v>
       </c>
@@ -31135,7 +31136,7 @@
       <c r="G500" s="18"/>
       <c r="H500" s="11"/>
     </row>
-    <row r="501" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>1020</v>
       </c>
@@ -31151,7 +31152,7 @@
       <c r="G501" s="18"/>
       <c r="H501" s="11"/>
     </row>
-    <row r="502" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>1022</v>
       </c>
@@ -31167,7 +31168,7 @@
       <c r="G502" s="18"/>
       <c r="H502" s="11"/>
     </row>
-    <row r="503" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>1024</v>
       </c>
@@ -31183,7 +31184,7 @@
       <c r="G503" s="18"/>
       <c r="H503" s="11"/>
     </row>
-    <row r="504" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>1026</v>
       </c>
@@ -31199,7 +31200,7 @@
       <c r="G504" s="18"/>
       <c r="H504" s="11"/>
     </row>
-    <row r="505" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>1028</v>
       </c>
@@ -31215,7 +31216,7 @@
       <c r="G505" s="18"/>
       <c r="H505" s="11"/>
     </row>
-    <row r="506" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>1030</v>
       </c>
@@ -31231,7 +31232,7 @@
       <c r="G506" s="18"/>
       <c r="H506" s="11"/>
     </row>
-    <row r="507" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>1032</v>
       </c>
@@ -31247,7 +31248,7 @@
       <c r="G507" s="18"/>
       <c r="H507" s="11"/>
     </row>
-    <row r="508" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>1034</v>
       </c>
@@ -31263,7 +31264,7 @@
       <c r="G508" s="18"/>
       <c r="H508" s="11"/>
     </row>
-    <row r="509" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>1036</v>
       </c>
@@ -31279,7 +31280,7 @@
       <c r="G509" s="18"/>
       <c r="H509" s="11"/>
     </row>
-    <row r="510" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>1038</v>
       </c>
@@ -31295,7 +31296,7 @@
       <c r="G510" s="18"/>
       <c r="H510" s="11"/>
     </row>
-    <row r="511" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>1040</v>
       </c>
@@ -31311,7 +31312,7 @@
       <c r="G511" s="18"/>
       <c r="H511" s="11"/>
     </row>
-    <row r="512" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>1042</v>
       </c>
@@ -31327,7 +31328,7 @@
       <c r="G512" s="18"/>
       <c r="H512" s="11"/>
     </row>
-    <row r="513" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>1044</v>
       </c>
@@ -31343,7 +31344,7 @@
       <c r="G513" s="18"/>
       <c r="H513" s="11"/>
     </row>
-    <row r="514" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>1046</v>
       </c>
@@ -31359,7 +31360,7 @@
       <c r="G514" s="18"/>
       <c r="H514" s="11"/>
     </row>
-    <row r="515" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>1048</v>
       </c>
@@ -31375,7 +31376,7 @@
       <c r="G515" s="18"/>
       <c r="H515" s="11"/>
     </row>
-    <row r="516" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>1050</v>
       </c>
@@ -31391,7 +31392,7 @@
       <c r="G516" s="18"/>
       <c r="H516" s="11"/>
     </row>
-    <row r="517" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>1052</v>
       </c>
@@ -31407,7 +31408,7 @@
       <c r="G517" s="18"/>
       <c r="H517" s="11"/>
     </row>
-    <row r="518" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>1055</v>
       </c>
@@ -31423,7 +31424,7 @@
       <c r="G518" s="18"/>
       <c r="H518" s="11"/>
     </row>
-    <row r="519" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>1057</v>
       </c>
@@ -31439,7 +31440,7 @@
       <c r="G519" s="18"/>
       <c r="H519" s="11"/>
     </row>
-    <row r="520" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>1059</v>
       </c>
@@ -31455,7 +31456,7 @@
       <c r="G520" s="18"/>
       <c r="H520" s="11"/>
     </row>
-    <row r="521" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>1062</v>
       </c>
@@ -31471,7 +31472,7 @@
       <c r="G521" s="18"/>
       <c r="H521" s="11"/>
     </row>
-    <row r="522" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>1064</v>
       </c>
@@ -31487,7 +31488,7 @@
       <c r="G522" s="18"/>
       <c r="H522" s="11"/>
     </row>
-    <row r="523" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>1066</v>
       </c>
@@ -31503,7 +31504,7 @@
       <c r="G523" s="18"/>
       <c r="H523" s="11"/>
     </row>
-    <row r="524" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>1069</v>
       </c>
@@ -31519,7 +31520,7 @@
       <c r="G524" s="18"/>
       <c r="H524" s="11"/>
     </row>
-    <row r="525" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>1071</v>
       </c>
@@ -31535,7 +31536,7 @@
       <c r="G525" s="18"/>
       <c r="H525" s="11"/>
     </row>
-    <row r="526" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>1073</v>
       </c>
@@ -31565,7 +31566,7 @@
       <c r="G527" s="18"/>
       <c r="H527" s="11"/>
     </row>
-    <row r="528" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>1077</v>
       </c>
@@ -31581,7 +31582,7 @@
       <c r="G528" s="18"/>
       <c r="H528" s="11"/>
     </row>
-    <row r="529" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>1079</v>
       </c>
@@ -31597,7 +31598,7 @@
       <c r="G529" s="18"/>
       <c r="H529" s="11"/>
     </row>
-    <row r="530" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>1081</v>
       </c>
@@ -31613,7 +31614,7 @@
       <c r="G530" s="18"/>
       <c r="H530" s="11"/>
     </row>
-    <row r="531" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>1083</v>
       </c>
@@ -31629,7 +31630,7 @@
       <c r="G531" s="18"/>
       <c r="H531" s="11"/>
     </row>
-    <row r="532" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>1085</v>
       </c>
@@ -31645,7 +31646,7 @@
       <c r="G532" s="18"/>
       <c r="H532" s="11"/>
     </row>
-    <row r="533" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>1087</v>
       </c>
@@ -31661,7 +31662,7 @@
       <c r="G533" s="18"/>
       <c r="H533" s="11"/>
     </row>
-    <row r="534" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>1089</v>
       </c>
@@ -31677,7 +31678,7 @@
       <c r="G534" s="18"/>
       <c r="H534" s="11"/>
     </row>
-    <row r="535" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>1091</v>
       </c>
@@ -31693,7 +31694,7 @@
       <c r="G535" s="18"/>
       <c r="H535" s="11"/>
     </row>
-    <row r="536" spans="1:8" customFormat="1" ht="43.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>1093</v>
       </c>
@@ -31709,7 +31710,7 @@
       <c r="G536" s="18"/>
       <c r="H536" s="11"/>
     </row>
-    <row r="537" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>1095</v>
       </c>
@@ -31725,7 +31726,7 @@
       <c r="G537" s="18"/>
       <c r="H537" s="11"/>
     </row>
-    <row r="538" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>1097</v>
       </c>
@@ -31741,7 +31742,7 @@
       <c r="G538" s="18"/>
       <c r="H538" s="11"/>
     </row>
-    <row r="539" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>1099</v>
       </c>
@@ -31757,7 +31758,7 @@
       <c r="G539" s="18"/>
       <c r="H539" s="11"/>
     </row>
-    <row r="540" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>1101</v>
       </c>
@@ -31773,7 +31774,7 @@
       <c r="G540" s="18"/>
       <c r="H540" s="11"/>
     </row>
-    <row r="541" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>1103</v>
       </c>
@@ -31813,7 +31814,7 @@
       </c>
       <c r="H542" s="11"/>
     </row>
-    <row r="543" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>1108</v>
       </c>
@@ -31829,7 +31830,7 @@
       <c r="G543" s="18"/>
       <c r="H543" s="11"/>
     </row>
-    <row r="544" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>1110</v>
       </c>
@@ -31845,7 +31846,7 @@
       <c r="G544" s="18"/>
       <c r="H544" s="11"/>
     </row>
-    <row r="545" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>1112</v>
       </c>
@@ -31885,7 +31886,7 @@
       </c>
       <c r="H546" s="11"/>
     </row>
-    <row r="547" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>1117</v>
       </c>
@@ -31901,7 +31902,7 @@
       <c r="G547" s="18"/>
       <c r="H547" s="11"/>
     </row>
-    <row r="548" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>1119</v>
       </c>
@@ -31917,7 +31918,7 @@
       <c r="G548" s="18"/>
       <c r="H548" s="11"/>
     </row>
-    <row r="549" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>1121</v>
       </c>
@@ -31933,7 +31934,7 @@
       <c r="G549" s="18"/>
       <c r="H549" s="11"/>
     </row>
-    <row r="550" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>1123</v>
       </c>
@@ -31949,7 +31950,7 @@
       <c r="G550" s="18"/>
       <c r="H550" s="11"/>
     </row>
-    <row r="551" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>1125</v>
       </c>
@@ -31965,7 +31966,7 @@
       <c r="G551" s="18"/>
       <c r="H551" s="11"/>
     </row>
-    <row r="552" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>1127</v>
       </c>
@@ -32005,7 +32006,7 @@
       </c>
       <c r="H553" s="11"/>
     </row>
-    <row r="554" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>1132</v>
       </c>
@@ -32021,7 +32022,7 @@
       <c r="G554" s="18"/>
       <c r="H554" s="11"/>
     </row>
-    <row r="555" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>1134</v>
       </c>
@@ -32037,7 +32038,7 @@
       <c r="G555" s="18"/>
       <c r="H555" s="11"/>
     </row>
-    <row r="556" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>1136</v>
       </c>
@@ -32053,7 +32054,7 @@
       <c r="G556" s="18"/>
       <c r="H556" s="11"/>
     </row>
-    <row r="557" spans="1:8" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>1138</v>
       </c>
@@ -32117,7 +32118,7 @@
       </c>
       <c r="H559" s="11"/>
     </row>
-    <row r="560" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>1145</v>
       </c>
@@ -32133,7 +32134,7 @@
       <c r="G560" s="18"/>
       <c r="H560" s="11"/>
     </row>
-    <row r="561" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>1147</v>
       </c>
@@ -32149,7 +32150,7 @@
       <c r="G561" s="18"/>
       <c r="H561" s="11"/>
     </row>
-    <row r="562" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>1149</v>
       </c>
@@ -32165,7 +32166,7 @@
       <c r="G562" s="18"/>
       <c r="H562" s="11"/>
     </row>
-    <row r="563" spans="1:8" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>1151</v>
       </c>
@@ -32205,7 +32206,7 @@
       </c>
       <c r="H564" s="11"/>
     </row>
-    <row r="565" spans="1:8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="19" t="s">
         <v>1157</v>
       </c>
@@ -32229,7 +32230,7 @@
       </c>
       <c r="H565" s="11"/>
     </row>
-    <row r="566" spans="1:8" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="19" t="s">
         <v>1159</v>
       </c>
@@ -32253,7 +32254,7 @@
       </c>
       <c r="H566" s="11"/>
     </row>
-    <row r="567" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="19" t="s">
         <v>1161</v>
       </c>
@@ -32277,7 +32278,7 @@
       </c>
       <c r="H567" s="11"/>
     </row>
-    <row r="568" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="22" t="s">
         <v>1163</v>
       </c>
@@ -32301,7 +32302,7 @@
       </c>
       <c r="H568" s="11"/>
     </row>
-    <row r="569" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A569" s="19" t="s">
         <v>1166</v>
       </c>
@@ -32325,7 +32326,7 @@
       </c>
       <c r="H569" s="11"/>
     </row>
-    <row r="570" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A570" s="19" t="s">
         <v>1168</v>
       </c>
@@ -32397,7 +32398,7 @@
       </c>
       <c r="H572" s="11"/>
     </row>
-    <row r="573" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="19" t="s">
         <v>1175</v>
       </c>
@@ -32517,7 +32518,7 @@
       </c>
       <c r="H577" s="11"/>
     </row>
-    <row r="578" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="22" t="s">
         <v>1191</v>
       </c>
@@ -32541,7 +32542,7 @@
       </c>
       <c r="H578" s="11"/>
     </row>
-    <row r="579" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="19" t="s">
         <v>1194</v>
       </c>
@@ -32661,7 +32662,7 @@
       </c>
       <c r="H583" s="11"/>
     </row>
-    <row r="584" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="19" t="s">
         <v>1208</v>
       </c>
@@ -32685,7 +32686,7 @@
       </c>
       <c r="H584" s="11"/>
     </row>
-    <row r="585" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="19" t="s">
         <v>1210</v>
       </c>
@@ -32733,7 +32734,7 @@
       </c>
       <c r="H586" s="11"/>
     </row>
-    <row r="587" spans="1:8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A587" s="32" t="s">
         <v>1215</v>
       </c>
@@ -32757,7 +32758,7 @@
       </c>
       <c r="H587" s="11"/>
     </row>
-    <row r="588" spans="1:8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A588" s="32" t="s">
         <v>1219</v>
       </c>
@@ -32781,7 +32782,7 @@
       </c>
       <c r="H588" s="11"/>
     </row>
-    <row r="589" spans="1:8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A589" s="32" t="s">
         <v>1222</v>
       </c>
@@ -34989,7 +34990,7 @@
       </c>
       <c r="H717" s="11"/>
     </row>
-    <row r="718" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="40" t="s">
         <v>1536</v>
       </c>
@@ -35073,7 +35074,7 @@
       </c>
       <c r="H721" s="11"/>
     </row>
-    <row r="722" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="10"/>
       <c r="C722" s="10"/>
@@ -35091,7 +35092,7 @@
       </c>
       <c r="H722" s="11"/>
     </row>
-    <row r="723" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="10"/>
       <c r="C723" s="10"/>
@@ -35136,7 +35137,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="725" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="10"/>
       <c r="C725" s="10"/>
@@ -35292,7 +35293,7 @@
       </c>
       <c r="H733" s="11"/>
     </row>
-    <row r="734" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A734" s="45" t="s">
         <v>1579</v>
       </c>
@@ -35340,7 +35341,7 @@
       </c>
       <c r="H735" s="11"/>
     </row>
-    <row r="736" spans="1:9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A736" s="45" t="s">
         <v>1585</v>
       </c>
@@ -35364,7 +35365,7 @@
       </c>
       <c r="H736" s="11"/>
     </row>
-    <row r="737" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A737" s="45" t="s">
         <v>1588</v>
       </c>
@@ -35388,7 +35389,7 @@
       </c>
       <c r="H737" s="11"/>
     </row>
-    <row r="738" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A738" s="45" t="s">
         <v>1590</v>
       </c>
@@ -35460,7 +35461,7 @@
       </c>
       <c r="H740" s="11"/>
     </row>
-    <row r="741" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A741" s="45" t="s">
         <v>1599</v>
       </c>
@@ -81596,19 +81597,19 @@
       <c r="A3621" s="1"/>
       <c r="B3621" s="10"/>
       <c r="C3621" s="10"/>
-      <c r="D3621" s="54" t="s">
+      <c r="D3621" s="49" t="s">
         <v>7316</v>
       </c>
-      <c r="E3621" s="55" t="s">
+      <c r="E3621" s="50" t="s">
         <v>7317</v>
       </c>
-      <c r="F3621" s="56" t="s">
+      <c r="F3621" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="G3621" s="57" t="s">
+      <c r="G3621" s="52" t="s">
         <v>7348</v>
       </c>
-      <c r="H3621" s="58"/>
+      <c r="H3621" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/MOP_vs_RXNO.xlsx
+++ b/MOP_vs_RXNO.xlsx
@@ -12,10 +12,10 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$J$3621</definedName>
     <definedName name="mop_vs_rxno" localSheetId="0">Tabelle1!$A$2:$F$3621</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11163" uniqueCount="7356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11344" uniqueCount="7357">
   <si>
     <t>ID</t>
   </si>
@@ -22164,6 +22164,9 @@
   </si>
   <si>
     <t>Shouldn't 'univalent carboacylation' be a subclass of acylation or better carboacylation, which is a subclass of acylation already? And in MOP acylation is not sublcass of but sibling of organylation unlike in RXNO --&gt; should be changed in MOP.</t>
+  </si>
+  <si>
+    <t>see draft</t>
   </si>
 </sst>
 </file>
@@ -22242,7 +22245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -22599,25 +22602,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -22729,7 +22719,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -23052,7 +23041,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3621"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J3621"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -23061,29 +23051,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="54" customWidth="1"/>
+    <col min="1" max="1" width="24" style="53" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="54" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="53" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="10" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="10" customWidth="1"/>
     <col min="7" max="7" width="54.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="54"/>
+    <col min="8" max="8" width="15.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="91" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>7318</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>7319</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="15" t="s">
         <v>7320</v>
       </c>
@@ -23187,6 +23178,9 @@
         <v>7355</v>
       </c>
       <c r="H6" s="11"/>
+      <c r="I6" t="s">
+        <v>7356</v>
+      </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -28452,7 +28446,7 @@
       <c r="G336" s="18"/>
       <c r="H336" s="11"/>
     </row>
-    <row r="337" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>681</v>
       </c>
@@ -28468,7 +28462,7 @@
       <c r="G337" s="18"/>
       <c r="H337" s="11"/>
     </row>
-    <row r="338" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>683</v>
       </c>
@@ -28484,7 +28478,7 @@
       <c r="G338" s="18"/>
       <c r="H338" s="11"/>
     </row>
-    <row r="339" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>686</v>
       </c>
@@ -28500,7 +28494,7 @@
       <c r="G339" s="18"/>
       <c r="H339" s="11"/>
     </row>
-    <row r="340" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>688</v>
       </c>
@@ -28516,7 +28510,7 @@
       <c r="G340" s="18"/>
       <c r="H340" s="11"/>
     </row>
-    <row r="341" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>690</v>
       </c>
@@ -28532,7 +28526,7 @@
       <c r="G341" s="18"/>
       <c r="H341" s="11"/>
     </row>
-    <row r="342" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="19" t="s">
         <v>692</v>
       </c>
@@ -28555,8 +28549,11 @@
         <v>7322</v>
       </c>
       <c r="H342" s="11"/>
-    </row>
-    <row r="343" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I342" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>696</v>
       </c>
@@ -28572,7 +28569,7 @@
       <c r="G343" s="18"/>
       <c r="H343" s="11"/>
     </row>
-    <row r="344" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>698</v>
       </c>
@@ -28588,7 +28585,7 @@
       <c r="G344" s="18"/>
       <c r="H344" s="11"/>
     </row>
-    <row r="345" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>700</v>
       </c>
@@ -28604,7 +28601,7 @@
       <c r="G345" s="18"/>
       <c r="H345" s="11"/>
     </row>
-    <row r="346" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>702</v>
       </c>
@@ -28620,7 +28617,7 @@
       <c r="G346" s="18"/>
       <c r="H346" s="11"/>
     </row>
-    <row r="347" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>704</v>
       </c>
@@ -28636,7 +28633,7 @@
       <c r="G347" s="18"/>
       <c r="H347" s="11"/>
     </row>
-    <row r="348" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>707</v>
       </c>
@@ -28652,7 +28649,7 @@
       <c r="G348" s="18"/>
       <c r="H348" s="11"/>
     </row>
-    <row r="349" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>710</v>
       </c>
@@ -28668,7 +28665,7 @@
       <c r="G349" s="18"/>
       <c r="H349" s="11"/>
     </row>
-    <row r="350" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>712</v>
       </c>
@@ -28684,7 +28681,7 @@
       <c r="G350" s="18"/>
       <c r="H350" s="11"/>
     </row>
-    <row r="351" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>715</v>
       </c>
@@ -28700,7 +28697,7 @@
       <c r="G351" s="18"/>
       <c r="H351" s="11"/>
     </row>
-    <row r="352" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>717</v>
       </c>
@@ -28716,7 +28713,7 @@
       <c r="G352" s="18"/>
       <c r="H352" s="11"/>
     </row>
-    <row r="353" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>720</v>
       </c>
@@ -28732,7 +28729,7 @@
       <c r="G353" s="18"/>
       <c r="H353" s="11"/>
     </row>
-    <row r="354" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>723</v>
       </c>
@@ -28748,7 +28745,7 @@
       <c r="G354" s="18"/>
       <c r="H354" s="11"/>
     </row>
-    <row r="355" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>726</v>
       </c>
@@ -28764,7 +28761,7 @@
       <c r="G355" s="18"/>
       <c r="H355" s="11"/>
     </row>
-    <row r="356" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>728</v>
       </c>
@@ -28780,7 +28777,7 @@
       <c r="G356" s="18"/>
       <c r="H356" s="11"/>
     </row>
-    <row r="357" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>730</v>
       </c>
@@ -28796,7 +28793,7 @@
       <c r="G357" s="18"/>
       <c r="H357" s="11"/>
     </row>
-    <row r="358" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>732</v>
       </c>
@@ -28812,7 +28809,7 @@
       <c r="G358" s="18"/>
       <c r="H358" s="11"/>
     </row>
-    <row r="359" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>734</v>
       </c>
@@ -28828,7 +28825,7 @@
       <c r="G359" s="18"/>
       <c r="H359" s="11"/>
     </row>
-    <row r="360" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>736</v>
       </c>
@@ -28844,7 +28841,7 @@
       <c r="G360" s="18"/>
       <c r="H360" s="11"/>
     </row>
-    <row r="361" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>738</v>
       </c>
@@ -28860,7 +28857,7 @@
       <c r="G361" s="18"/>
       <c r="H361" s="11"/>
     </row>
-    <row r="362" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>740</v>
       </c>
@@ -28876,7 +28873,7 @@
       <c r="G362" s="18"/>
       <c r="H362" s="11"/>
     </row>
-    <row r="363" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>742</v>
       </c>
@@ -28892,7 +28889,7 @@
       <c r="G363" s="18"/>
       <c r="H363" s="11"/>
     </row>
-    <row r="364" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>744</v>
       </c>
@@ -28908,7 +28905,7 @@
       <c r="G364" s="18"/>
       <c r="H364" s="11"/>
     </row>
-    <row r="365" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>746</v>
       </c>
@@ -28924,7 +28921,7 @@
       <c r="G365" s="18"/>
       <c r="H365" s="11"/>
     </row>
-    <row r="366" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>749</v>
       </c>
@@ -28940,7 +28937,7 @@
       <c r="G366" s="18"/>
       <c r="H366" s="11"/>
     </row>
-    <row r="367" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="19" t="s">
         <v>752</v>
       </c>
@@ -28963,8 +28960,11 @@
         <v>7322</v>
       </c>
       <c r="H367" s="11"/>
-    </row>
-    <row r="368" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I367" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>754</v>
       </c>
@@ -28980,7 +28980,7 @@
       <c r="G368" s="18"/>
       <c r="H368" s="11"/>
     </row>
-    <row r="369" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>756</v>
       </c>
@@ -28996,7 +28996,7 @@
       <c r="G369" s="18"/>
       <c r="H369" s="11"/>
     </row>
-    <row r="370" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>758</v>
       </c>
@@ -29012,7 +29012,7 @@
       <c r="G370" s="18"/>
       <c r="H370" s="11"/>
     </row>
-    <row r="371" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>761</v>
       </c>
@@ -29028,7 +29028,7 @@
       <c r="G371" s="18"/>
       <c r="H371" s="11"/>
     </row>
-    <row r="372" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="19" t="s">
         <v>763</v>
       </c>
@@ -29051,8 +29051,11 @@
         <v>7322</v>
       </c>
       <c r="H372" s="11"/>
-    </row>
-    <row r="373" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I372" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>765</v>
       </c>
@@ -29068,7 +29071,7 @@
       <c r="G373" s="18"/>
       <c r="H373" s="11"/>
     </row>
-    <row r="374" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>767</v>
       </c>
@@ -29084,7 +29087,7 @@
       <c r="G374" s="18"/>
       <c r="H374" s="11"/>
     </row>
-    <row r="375" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>769</v>
       </c>
@@ -29100,7 +29103,7 @@
       <c r="G375" s="18"/>
       <c r="H375" s="11"/>
     </row>
-    <row r="376" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>771</v>
       </c>
@@ -29116,7 +29119,7 @@
       <c r="G376" s="18"/>
       <c r="H376" s="11"/>
     </row>
-    <row r="377" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>773</v>
       </c>
@@ -29132,7 +29135,7 @@
       <c r="G377" s="18"/>
       <c r="H377" s="11"/>
     </row>
-    <row r="378" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>775</v>
       </c>
@@ -29148,7 +29151,7 @@
       <c r="G378" s="18"/>
       <c r="H378" s="11"/>
     </row>
-    <row r="379" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>777</v>
       </c>
@@ -29164,7 +29167,7 @@
       <c r="G379" s="18"/>
       <c r="H379" s="11"/>
     </row>
-    <row r="380" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>779</v>
       </c>
@@ -29180,7 +29183,7 @@
       <c r="G380" s="18"/>
       <c r="H380" s="11"/>
     </row>
-    <row r="381" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>781</v>
       </c>
@@ -29196,7 +29199,7 @@
       <c r="G381" s="18"/>
       <c r="H381" s="11"/>
     </row>
-    <row r="382" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>783</v>
       </c>
@@ -29212,7 +29215,7 @@
       <c r="G382" s="18"/>
       <c r="H382" s="11"/>
     </row>
-    <row r="383" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>785</v>
       </c>
@@ -29228,7 +29231,7 @@
       <c r="G383" s="18"/>
       <c r="H383" s="11"/>
     </row>
-    <row r="384" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>787</v>
       </c>
@@ -29500,7 +29503,7 @@
       <c r="G400" s="18"/>
       <c r="H400" s="11"/>
     </row>
-    <row r="401" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>821</v>
       </c>
@@ -29516,7 +29519,7 @@
       <c r="G401" s="18"/>
       <c r="H401" s="11"/>
     </row>
-    <row r="402" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>823</v>
       </c>
@@ -29532,7 +29535,7 @@
       <c r="G402" s="18"/>
       <c r="H402" s="11"/>
     </row>
-    <row r="403" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>825</v>
       </c>
@@ -29548,7 +29551,7 @@
       <c r="G403" s="18"/>
       <c r="H403" s="11"/>
     </row>
-    <row r="404" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>827</v>
       </c>
@@ -29564,7 +29567,7 @@
       <c r="G404" s="18"/>
       <c r="H404" s="11"/>
     </row>
-    <row r="405" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>829</v>
       </c>
@@ -29580,7 +29583,7 @@
       <c r="G405" s="18"/>
       <c r="H405" s="11"/>
     </row>
-    <row r="406" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>831</v>
       </c>
@@ -29596,7 +29599,7 @@
       <c r="G406" s="18"/>
       <c r="H406" s="11"/>
     </row>
-    <row r="407" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>833</v>
       </c>
@@ -29612,7 +29615,7 @@
       <c r="G407" s="18"/>
       <c r="H407" s="11"/>
     </row>
-    <row r="408" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>835</v>
       </c>
@@ -29628,7 +29631,7 @@
       <c r="G408" s="18"/>
       <c r="H408" s="11"/>
     </row>
-    <row r="409" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>837</v>
       </c>
@@ -29644,7 +29647,7 @@
       <c r="G409" s="18"/>
       <c r="H409" s="11"/>
     </row>
-    <row r="410" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>839</v>
       </c>
@@ -29660,7 +29663,7 @@
       <c r="G410" s="18"/>
       <c r="H410" s="11"/>
     </row>
-    <row r="411" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>841</v>
       </c>
@@ -29676,7 +29679,7 @@
       <c r="G411" s="18"/>
       <c r="H411" s="11"/>
     </row>
-    <row r="412" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>843</v>
       </c>
@@ -29692,7 +29695,7 @@
       <c r="G412" s="18"/>
       <c r="H412" s="11"/>
     </row>
-    <row r="413" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="19" t="s">
         <v>845</v>
       </c>
@@ -29715,8 +29718,11 @@
         <v>7322</v>
       </c>
       <c r="H413" s="11"/>
-    </row>
-    <row r="414" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I413" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A414" s="22" t="s">
         <v>846</v>
       </c>
@@ -29739,8 +29745,11 @@
         <v>7323</v>
       </c>
       <c r="H414" s="11"/>
-    </row>
-    <row r="415" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I414" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>849</v>
       </c>
@@ -29756,7 +29765,7 @@
       <c r="G415" s="18"/>
       <c r="H415" s="11"/>
     </row>
-    <row r="416" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>851</v>
       </c>
@@ -29772,7 +29781,7 @@
       <c r="G416" s="18"/>
       <c r="H416" s="11"/>
     </row>
-    <row r="417" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>853</v>
       </c>
@@ -29788,7 +29797,7 @@
       <c r="G417" s="18"/>
       <c r="H417" s="11"/>
     </row>
-    <row r="418" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>855</v>
       </c>
@@ -29804,7 +29813,7 @@
       <c r="G418" s="18"/>
       <c r="H418" s="11"/>
     </row>
-    <row r="419" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>857</v>
       </c>
@@ -29820,7 +29829,7 @@
       <c r="G419" s="18"/>
       <c r="H419" s="11"/>
     </row>
-    <row r="420" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>859</v>
       </c>
@@ -29836,7 +29845,7 @@
       <c r="G420" s="18"/>
       <c r="H420" s="11"/>
     </row>
-    <row r="421" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>861</v>
       </c>
@@ -29852,7 +29861,7 @@
       <c r="G421" s="18"/>
       <c r="H421" s="11"/>
     </row>
-    <row r="422" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>863</v>
       </c>
@@ -29868,7 +29877,7 @@
       <c r="G422" s="18"/>
       <c r="H422" s="11"/>
     </row>
-    <row r="423" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>865</v>
       </c>
@@ -29884,7 +29893,7 @@
       <c r="G423" s="18"/>
       <c r="H423" s="11"/>
     </row>
-    <row r="424" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>867</v>
       </c>
@@ -29900,7 +29909,7 @@
       <c r="G424" s="18"/>
       <c r="H424" s="11"/>
     </row>
-    <row r="425" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="22" t="s">
         <v>869</v>
       </c>
@@ -29923,8 +29932,11 @@
         <v>7324</v>
       </c>
       <c r="H425" s="11"/>
-    </row>
-    <row r="426" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I425" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>871</v>
       </c>
@@ -29940,7 +29952,7 @@
       <c r="G426" s="18"/>
       <c r="H426" s="11"/>
     </row>
-    <row r="427" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>873</v>
       </c>
@@ -29956,7 +29968,7 @@
       <c r="G427" s="18"/>
       <c r="H427" s="11"/>
     </row>
-    <row r="428" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>875</v>
       </c>
@@ -29972,7 +29984,7 @@
       <c r="G428" s="18"/>
       <c r="H428" s="11"/>
     </row>
-    <row r="429" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>877</v>
       </c>
@@ -29988,7 +30000,7 @@
       <c r="G429" s="18"/>
       <c r="H429" s="11"/>
     </row>
-    <row r="430" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>879</v>
       </c>
@@ -30000,7 +30012,7 @@
       <c r="G430" s="18"/>
       <c r="H430" s="11"/>
     </row>
-    <row r="431" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>880</v>
       </c>
@@ -30016,7 +30028,7 @@
       <c r="G431" s="18"/>
       <c r="H431" s="11"/>
     </row>
-    <row r="432" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>882</v>
       </c>
@@ -30288,7 +30300,7 @@
       <c r="G448" s="18"/>
       <c r="H448" s="11"/>
     </row>
-    <row r="449" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>916</v>
       </c>
@@ -30304,7 +30316,7 @@
       <c r="G449" s="18"/>
       <c r="H449" s="11"/>
     </row>
-    <row r="450" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>919</v>
       </c>
@@ -30320,7 +30332,7 @@
       <c r="G450" s="18"/>
       <c r="H450" s="11"/>
     </row>
-    <row r="451" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>921</v>
       </c>
@@ -30336,7 +30348,7 @@
       <c r="G451" s="18"/>
       <c r="H451" s="11"/>
     </row>
-    <row r="452" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>923</v>
       </c>
@@ -30352,7 +30364,7 @@
       <c r="G452" s="18"/>
       <c r="H452" s="11"/>
     </row>
-    <row r="453" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>925</v>
       </c>
@@ -30368,7 +30380,7 @@
       <c r="G453" s="18"/>
       <c r="H453" s="11"/>
     </row>
-    <row r="454" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>927</v>
       </c>
@@ -30384,7 +30396,7 @@
       <c r="G454" s="18"/>
       <c r="H454" s="11"/>
     </row>
-    <row r="455" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>929</v>
       </c>
@@ -30400,7 +30412,7 @@
       <c r="G455" s="18"/>
       <c r="H455" s="11"/>
     </row>
-    <row r="456" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>932</v>
       </c>
@@ -30416,7 +30428,7 @@
       <c r="G456" s="18"/>
       <c r="H456" s="11"/>
     </row>
-    <row r="457" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>934</v>
       </c>
@@ -30432,7 +30444,7 @@
       <c r="G457" s="18"/>
       <c r="H457" s="11"/>
     </row>
-    <row r="458" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>936</v>
       </c>
@@ -30448,7 +30460,7 @@
       <c r="G458" s="18"/>
       <c r="H458" s="11"/>
     </row>
-    <row r="459" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>938</v>
       </c>
@@ -30464,7 +30476,7 @@
       <c r="G459" s="18"/>
       <c r="H459" s="11"/>
     </row>
-    <row r="460" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>940</v>
       </c>
@@ -30480,7 +30492,7 @@
       <c r="G460" s="18"/>
       <c r="H460" s="11"/>
     </row>
-    <row r="461" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="22" t="s">
         <v>942</v>
       </c>
@@ -30503,8 +30515,11 @@
         <v>7324</v>
       </c>
       <c r="H461" s="11"/>
-    </row>
-    <row r="462" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I461" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>943</v>
       </c>
@@ -30520,7 +30535,7 @@
       <c r="G462" s="18"/>
       <c r="H462" s="11"/>
     </row>
-    <row r="463" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>946</v>
       </c>
@@ -30536,7 +30551,7 @@
       <c r="G463" s="18"/>
       <c r="H463" s="11"/>
     </row>
-    <row r="464" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>947</v>
       </c>
@@ -30808,7 +30823,7 @@
       <c r="G480" s="18"/>
       <c r="H480" s="11"/>
     </row>
-    <row r="481" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>980</v>
       </c>
@@ -30824,7 +30839,7 @@
       <c r="G481" s="18"/>
       <c r="H481" s="11"/>
     </row>
-    <row r="482" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="22" t="s">
         <v>982</v>
       </c>
@@ -30847,8 +30862,11 @@
         <v>7354</v>
       </c>
       <c r="H482" s="11"/>
-    </row>
-    <row r="483" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I482" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>985</v>
       </c>
@@ -30864,7 +30882,7 @@
       <c r="G483" s="18"/>
       <c r="H483" s="11"/>
     </row>
-    <row r="484" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>986</v>
       </c>
@@ -30880,7 +30898,7 @@
       <c r="G484" s="18"/>
       <c r="H484" s="11"/>
     </row>
-    <row r="485" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>988</v>
       </c>
@@ -30896,7 +30914,7 @@
       <c r="G485" s="18"/>
       <c r="H485" s="11"/>
     </row>
-    <row r="486" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>990</v>
       </c>
@@ -30912,7 +30930,7 @@
       <c r="G486" s="18"/>
       <c r="H486" s="11"/>
     </row>
-    <row r="487" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>992</v>
       </c>
@@ -30928,7 +30946,7 @@
       <c r="G487" s="18"/>
       <c r="H487" s="11"/>
     </row>
-    <row r="488" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>994</v>
       </c>
@@ -30944,7 +30962,7 @@
       <c r="G488" s="18"/>
       <c r="H488" s="11"/>
     </row>
-    <row r="489" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>996</v>
       </c>
@@ -30960,7 +30978,7 @@
       <c r="G489" s="18"/>
       <c r="H489" s="11"/>
     </row>
-    <row r="490" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>998</v>
       </c>
@@ -30976,7 +30994,7 @@
       <c r="G490" s="18"/>
       <c r="H490" s="11"/>
     </row>
-    <row r="491" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>1000</v>
       </c>
@@ -30992,7 +31010,7 @@
       <c r="G491" s="18"/>
       <c r="H491" s="11"/>
     </row>
-    <row r="492" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>1002</v>
       </c>
@@ -31008,7 +31026,7 @@
       <c r="G492" s="18"/>
       <c r="H492" s="11"/>
     </row>
-    <row r="493" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>1004</v>
       </c>
@@ -31024,7 +31042,7 @@
       <c r="G493" s="18"/>
       <c r="H493" s="11"/>
     </row>
-    <row r="494" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>1006</v>
       </c>
@@ -31040,7 +31058,7 @@
       <c r="G494" s="18"/>
       <c r="H494" s="11"/>
     </row>
-    <row r="495" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>1008</v>
       </c>
@@ -31056,7 +31074,7 @@
       <c r="G495" s="18"/>
       <c r="H495" s="11"/>
     </row>
-    <row r="496" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>1010</v>
       </c>
@@ -31552,7 +31570,7 @@
       <c r="G526" s="18"/>
       <c r="H526" s="11"/>
     </row>
-    <row r="527" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>1076</v>
       </c>
@@ -31582,7 +31600,7 @@
       <c r="G528" s="18"/>
       <c r="H528" s="11"/>
     </row>
-    <row r="529" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>1079</v>
       </c>
@@ -31598,7 +31616,7 @@
       <c r="G529" s="18"/>
       <c r="H529" s="11"/>
     </row>
-    <row r="530" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>1081</v>
       </c>
@@ -31614,7 +31632,7 @@
       <c r="G530" s="18"/>
       <c r="H530" s="11"/>
     </row>
-    <row r="531" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>1083</v>
       </c>
@@ -31630,7 +31648,7 @@
       <c r="G531" s="18"/>
       <c r="H531" s="11"/>
     </row>
-    <row r="532" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>1085</v>
       </c>
@@ -31646,7 +31664,7 @@
       <c r="G532" s="18"/>
       <c r="H532" s="11"/>
     </row>
-    <row r="533" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>1087</v>
       </c>
@@ -31662,7 +31680,7 @@
       <c r="G533" s="18"/>
       <c r="H533" s="11"/>
     </row>
-    <row r="534" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>1089</v>
       </c>
@@ -31678,7 +31696,7 @@
       <c r="G534" s="18"/>
       <c r="H534" s="11"/>
     </row>
-    <row r="535" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>1091</v>
       </c>
@@ -31694,7 +31712,7 @@
       <c r="G535" s="18"/>
       <c r="H535" s="11"/>
     </row>
-    <row r="536" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>1093</v>
       </c>
@@ -31710,7 +31728,7 @@
       <c r="G536" s="18"/>
       <c r="H536" s="11"/>
     </row>
-    <row r="537" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>1095</v>
       </c>
@@ -31726,7 +31744,7 @@
       <c r="G537" s="18"/>
       <c r="H537" s="11"/>
     </row>
-    <row r="538" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>1097</v>
       </c>
@@ -31742,7 +31760,7 @@
       <c r="G538" s="18"/>
       <c r="H538" s="11"/>
     </row>
-    <row r="539" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>1099</v>
       </c>
@@ -31758,7 +31776,7 @@
       <c r="G539" s="18"/>
       <c r="H539" s="11"/>
     </row>
-    <row r="540" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>1101</v>
       </c>
@@ -31774,7 +31792,7 @@
       <c r="G540" s="18"/>
       <c r="H540" s="11"/>
     </row>
-    <row r="541" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>1103</v>
       </c>
@@ -31790,7 +31808,7 @@
       <c r="G541" s="18"/>
       <c r="H541" s="11"/>
     </row>
-    <row r="542" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A542" s="22" t="s">
         <v>1105</v>
       </c>
@@ -31813,8 +31831,11 @@
         <v>7325</v>
       </c>
       <c r="H542" s="11"/>
-    </row>
-    <row r="543" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I542" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>1108</v>
       </c>
@@ -31830,7 +31851,7 @@
       <c r="G543" s="18"/>
       <c r="H543" s="11"/>
     </row>
-    <row r="544" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>1110</v>
       </c>
@@ -31846,7 +31867,7 @@
       <c r="G544" s="18"/>
       <c r="H544" s="11"/>
     </row>
-    <row r="545" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>1112</v>
       </c>
@@ -31862,7 +31883,7 @@
       <c r="G545" s="18"/>
       <c r="H545" s="11"/>
     </row>
-    <row r="546" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="19" t="s">
         <v>1114</v>
       </c>
@@ -31885,8 +31906,11 @@
         <v>7322</v>
       </c>
       <c r="H546" s="11"/>
-    </row>
-    <row r="547" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I546" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>1117</v>
       </c>
@@ -31902,7 +31926,7 @@
       <c r="G547" s="18"/>
       <c r="H547" s="11"/>
     </row>
-    <row r="548" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>1119</v>
       </c>
@@ -31918,7 +31942,7 @@
       <c r="G548" s="18"/>
       <c r="H548" s="11"/>
     </row>
-    <row r="549" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>1121</v>
       </c>
@@ -31934,7 +31958,7 @@
       <c r="G549" s="18"/>
       <c r="H549" s="11"/>
     </row>
-    <row r="550" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>1123</v>
       </c>
@@ -31950,7 +31974,7 @@
       <c r="G550" s="18"/>
       <c r="H550" s="11"/>
     </row>
-    <row r="551" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>1125</v>
       </c>
@@ -31966,7 +31990,7 @@
       <c r="G551" s="18"/>
       <c r="H551" s="11"/>
     </row>
-    <row r="552" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>1127</v>
       </c>
@@ -31982,7 +32006,7 @@
       <c r="G552" s="18"/>
       <c r="H552" s="11"/>
     </row>
-    <row r="553" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="22" t="s">
         <v>1129</v>
       </c>
@@ -32006,7 +32030,7 @@
       </c>
       <c r="H553" s="11"/>
     </row>
-    <row r="554" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>1132</v>
       </c>
@@ -32022,7 +32046,7 @@
       <c r="G554" s="18"/>
       <c r="H554" s="11"/>
     </row>
-    <row r="555" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>1134</v>
       </c>
@@ -32038,7 +32062,7 @@
       <c r="G555" s="18"/>
       <c r="H555" s="11"/>
     </row>
-    <row r="556" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>1136</v>
       </c>
@@ -32054,7 +32078,7 @@
       <c r="G556" s="18"/>
       <c r="H556" s="11"/>
     </row>
-    <row r="557" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>1138</v>
       </c>
@@ -32070,7 +32094,7 @@
       <c r="G557" s="18"/>
       <c r="H557" s="11"/>
     </row>
-    <row r="558" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A558" s="19" t="s">
         <v>1140</v>
       </c>
@@ -32093,8 +32117,11 @@
         <v>7322</v>
       </c>
       <c r="H558" s="11"/>
-    </row>
-    <row r="559" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="I558" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A559" s="22" t="s">
         <v>1142</v>
       </c>
@@ -32118,7 +32145,7 @@
       </c>
       <c r="H559" s="11"/>
     </row>
-    <row r="560" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>1145</v>
       </c>
@@ -32134,7 +32161,7 @@
       <c r="G560" s="18"/>
       <c r="H560" s="11"/>
     </row>
-    <row r="561" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>1147</v>
       </c>
@@ -32150,7 +32177,7 @@
       <c r="G561" s="18"/>
       <c r="H561" s="11"/>
     </row>
-    <row r="562" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>1149</v>
       </c>
@@ -32166,7 +32193,7 @@
       <c r="G562" s="18"/>
       <c r="H562" s="11"/>
     </row>
-    <row r="563" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>1151</v>
       </c>
@@ -32182,7 +32209,7 @@
       <c r="G563" s="18"/>
       <c r="H563" s="11"/>
     </row>
-    <row r="564" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="22" t="s">
         <v>1153</v>
       </c>
@@ -32206,7 +32233,7 @@
       </c>
       <c r="H564" s="11"/>
     </row>
-    <row r="565" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="19" t="s">
         <v>1157</v>
       </c>
@@ -32229,8 +32256,11 @@
         <v>7329</v>
       </c>
       <c r="H565" s="11"/>
-    </row>
-    <row r="566" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I565" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="19" t="s">
         <v>1159</v>
       </c>
@@ -32253,8 +32283,11 @@
         <v>7322</v>
       </c>
       <c r="H566" s="11"/>
-    </row>
-    <row r="567" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I566" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="19" t="s">
         <v>1161</v>
       </c>
@@ -32277,8 +32310,11 @@
         <v>7330</v>
       </c>
       <c r="H567" s="11"/>
-    </row>
-    <row r="568" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I567" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="22" t="s">
         <v>1163</v>
       </c>
@@ -32302,7 +32338,7 @@
       </c>
       <c r="H568" s="11"/>
     </row>
-    <row r="569" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A569" s="19" t="s">
         <v>1166</v>
       </c>
@@ -32325,8 +32361,11 @@
         <v>7342</v>
       </c>
       <c r="H569" s="11"/>
-    </row>
-    <row r="570" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I569" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A570" s="19" t="s">
         <v>1168</v>
       </c>
@@ -32349,8 +32388,11 @@
         <v>7342</v>
       </c>
       <c r="H570" s="11"/>
-    </row>
-    <row r="571" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I570" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="19" t="s">
         <v>1171</v>
       </c>
@@ -32373,8 +32415,11 @@
         <v>7330</v>
       </c>
       <c r="H571" s="11"/>
-    </row>
-    <row r="572" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I571" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="19" t="s">
         <v>1173</v>
       </c>
@@ -32397,8 +32442,11 @@
         <v>7330</v>
       </c>
       <c r="H572" s="11"/>
-    </row>
-    <row r="573" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I572" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="19" t="s">
         <v>1175</v>
       </c>
@@ -32421,8 +32469,11 @@
         <v>7330</v>
       </c>
       <c r="H573" s="11"/>
-    </row>
-    <row r="574" spans="1:8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="I573" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A574" s="22" t="s">
         <v>1177</v>
       </c>
@@ -32446,7 +32497,7 @@
       </c>
       <c r="H574" s="11"/>
     </row>
-    <row r="575" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A575" s="22" t="s">
         <v>1180</v>
       </c>
@@ -32470,7 +32521,7 @@
       </c>
       <c r="H575" s="11"/>
     </row>
-    <row r="576" spans="1:8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A576" s="22" t="s">
         <v>1183</v>
       </c>
@@ -32494,7 +32545,7 @@
       </c>
       <c r="H576" s="11"/>
     </row>
-    <row r="577" spans="1:8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A577" s="22" t="s">
         <v>1187</v>
       </c>
@@ -32518,7 +32569,7 @@
       </c>
       <c r="H577" s="11"/>
     </row>
-    <row r="578" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="22" t="s">
         <v>1191</v>
       </c>
@@ -32542,7 +32593,7 @@
       </c>
       <c r="H578" s="11"/>
     </row>
-    <row r="579" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="19" t="s">
         <v>1194</v>
       </c>
@@ -32565,8 +32616,11 @@
         <v>7335</v>
       </c>
       <c r="H579" s="11"/>
-    </row>
-    <row r="580" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I579" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A580" s="22" t="s">
         <v>1196</v>
       </c>
@@ -32590,7 +32644,7 @@
       </c>
       <c r="H580" s="11"/>
     </row>
-    <row r="581" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A581" s="22" t="s">
         <v>1199</v>
       </c>
@@ -32614,7 +32668,7 @@
       </c>
       <c r="H581" s="11"/>
     </row>
-    <row r="582" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A582" s="22" t="s">
         <v>1202</v>
       </c>
@@ -32638,7 +32692,7 @@
       </c>
       <c r="H582" s="11"/>
     </row>
-    <row r="583" spans="1:8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A583" s="22" t="s">
         <v>1205</v>
       </c>
@@ -32662,7 +32716,7 @@
       </c>
       <c r="H583" s="11"/>
     </row>
-    <row r="584" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="19" t="s">
         <v>1208</v>
       </c>
@@ -32685,8 +32739,11 @@
         <v>7335</v>
       </c>
       <c r="H584" s="11"/>
-    </row>
-    <row r="585" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I584" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="19" t="s">
         <v>1210</v>
       </c>
@@ -32709,8 +32766,11 @@
         <v>7335</v>
       </c>
       <c r="H585" s="11"/>
-    </row>
-    <row r="586" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I585" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="19" t="s">
         <v>1212</v>
       </c>
@@ -32733,8 +32793,11 @@
         <v>7335</v>
       </c>
       <c r="H586" s="11"/>
-    </row>
-    <row r="587" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="I586" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A587" s="32" t="s">
         <v>1215</v>
       </c>
@@ -32758,7 +32821,7 @@
       </c>
       <c r="H587" s="11"/>
     </row>
-    <row r="588" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A588" s="32" t="s">
         <v>1219</v>
       </c>
@@ -32782,7 +32845,7 @@
       </c>
       <c r="H588" s="11"/>
     </row>
-    <row r="589" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A589" s="32" t="s">
         <v>1222</v>
       </c>
@@ -32806,7 +32869,7 @@
       </c>
       <c r="H589" s="11"/>
     </row>
-    <row r="590" spans="1:8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A590" s="32" t="s">
         <v>1225</v>
       </c>
@@ -32830,7 +32893,7 @@
       </c>
       <c r="H590" s="11"/>
     </row>
-    <row r="591" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A591" s="32" t="s">
         <v>1228</v>
       </c>
@@ -32854,7 +32917,7 @@
       </c>
       <c r="H591" s="11"/>
     </row>
-    <row r="592" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="19" t="s">
         <v>1230</v>
       </c>
@@ -32877,8 +32940,11 @@
         <v>7335</v>
       </c>
       <c r="H592" s="11"/>
-    </row>
-    <row r="593" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I592" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>1232</v>
       </c>
@@ -32893,8 +32959,11 @@
       <c r="F593" s="9"/>
       <c r="G593" s="18"/>
       <c r="H593" s="11"/>
-    </row>
-    <row r="594" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I593" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>1234</v>
       </c>
@@ -32909,8 +32978,11 @@
       <c r="F594" s="9"/>
       <c r="G594" s="18"/>
       <c r="H594" s="11"/>
-    </row>
-    <row r="595" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I594" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>1236</v>
       </c>
@@ -32925,8 +32997,11 @@
       <c r="F595" s="9"/>
       <c r="G595" s="18"/>
       <c r="H595" s="11"/>
-    </row>
-    <row r="596" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I595" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>1238</v>
       </c>
@@ -32941,8 +33016,11 @@
       <c r="F596" s="9"/>
       <c r="G596" s="18"/>
       <c r="H596" s="11"/>
-    </row>
-    <row r="597" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I596" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>1240</v>
       </c>
@@ -32957,8 +33035,11 @@
       <c r="F597" s="9"/>
       <c r="G597" s="18"/>
       <c r="H597" s="11"/>
-    </row>
-    <row r="598" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I597" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>1242</v>
       </c>
@@ -32973,8 +33054,11 @@
       <c r="F598" s="9"/>
       <c r="G598" s="18"/>
       <c r="H598" s="11"/>
-    </row>
-    <row r="599" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="I598" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A599" s="19" t="s">
         <v>1244</v>
       </c>
@@ -32997,8 +33081,11 @@
         <v>7335</v>
       </c>
       <c r="H599" s="11"/>
-    </row>
-    <row r="600" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I599" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>1248</v>
       </c>
@@ -33013,8 +33100,11 @@
       <c r="F600" s="9"/>
       <c r="G600" s="18"/>
       <c r="H600" s="11"/>
-    </row>
-    <row r="601" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I600" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>1251</v>
       </c>
@@ -33029,8 +33119,11 @@
       <c r="F601" s="9"/>
       <c r="G601" s="18"/>
       <c r="H601" s="11"/>
-    </row>
-    <row r="602" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I601" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>1254</v>
       </c>
@@ -33045,8 +33138,11 @@
       <c r="F602" s="9"/>
       <c r="G602" s="18"/>
       <c r="H602" s="11"/>
-    </row>
-    <row r="603" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I602" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>1257</v>
       </c>
@@ -33061,8 +33157,11 @@
       <c r="F603" s="9"/>
       <c r="G603" s="18"/>
       <c r="H603" s="11"/>
-    </row>
-    <row r="604" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I603" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>1260</v>
       </c>
@@ -33077,8 +33176,11 @@
       <c r="F604" s="9"/>
       <c r="G604" s="18"/>
       <c r="H604" s="11"/>
-    </row>
-    <row r="605" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I604" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>1263</v>
       </c>
@@ -33093,8 +33195,11 @@
       <c r="F605" s="9"/>
       <c r="G605" s="18"/>
       <c r="H605" s="11"/>
-    </row>
-    <row r="606" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I605" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>1266</v>
       </c>
@@ -33109,8 +33214,11 @@
       <c r="F606" s="9"/>
       <c r="G606" s="18"/>
       <c r="H606" s="11"/>
-    </row>
-    <row r="607" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I606" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>1269</v>
       </c>
@@ -33125,8 +33233,11 @@
       <c r="F607" s="9"/>
       <c r="G607" s="18"/>
       <c r="H607" s="11"/>
-    </row>
-    <row r="608" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I607" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>1272</v>
       </c>
@@ -33141,8 +33252,11 @@
       <c r="F608" s="9"/>
       <c r="G608" s="18"/>
       <c r="H608" s="11"/>
-    </row>
-    <row r="609" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I608" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>1274</v>
       </c>
@@ -33157,8 +33271,11 @@
       <c r="F609" s="9"/>
       <c r="G609" s="18"/>
       <c r="H609" s="11"/>
-    </row>
-    <row r="610" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I609" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>1276</v>
       </c>
@@ -33173,8 +33290,11 @@
       <c r="F610" s="9"/>
       <c r="G610" s="18"/>
       <c r="H610" s="11"/>
-    </row>
-    <row r="611" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I610" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>1278</v>
       </c>
@@ -33189,8 +33309,11 @@
       <c r="F611" s="9"/>
       <c r="G611" s="18"/>
       <c r="H611" s="11"/>
-    </row>
-    <row r="612" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I611" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>1280</v>
       </c>
@@ -33205,8 +33328,11 @@
       <c r="F612" s="9"/>
       <c r="G612" s="18"/>
       <c r="H612" s="11"/>
-    </row>
-    <row r="613" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I612" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>1282</v>
       </c>
@@ -33221,8 +33347,11 @@
       <c r="F613" s="9"/>
       <c r="G613" s="18"/>
       <c r="H613" s="11"/>
-    </row>
-    <row r="614" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I613" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1284</v>
       </c>
@@ -33237,8 +33366,11 @@
       <c r="F614" s="9"/>
       <c r="G614" s="18"/>
       <c r="H614" s="11"/>
-    </row>
-    <row r="615" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I614" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1286</v>
       </c>
@@ -33253,8 +33385,11 @@
       <c r="F615" s="9"/>
       <c r="G615" s="18"/>
       <c r="H615" s="11"/>
-    </row>
-    <row r="616" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I615" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>1288</v>
       </c>
@@ -33269,8 +33404,11 @@
       <c r="F616" s="9"/>
       <c r="G616" s="18"/>
       <c r="H616" s="11"/>
-    </row>
-    <row r="617" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I616" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>1290</v>
       </c>
@@ -33285,8 +33423,11 @@
       <c r="F617" s="9"/>
       <c r="G617" s="18"/>
       <c r="H617" s="11"/>
-    </row>
-    <row r="618" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I617" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>1292</v>
       </c>
@@ -33301,8 +33442,11 @@
       <c r="F618" s="9"/>
       <c r="G618" s="18"/>
       <c r="H618" s="11"/>
-    </row>
-    <row r="619" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I618" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>1294</v>
       </c>
@@ -33317,8 +33461,11 @@
       <c r="F619" s="9"/>
       <c r="G619" s="18"/>
       <c r="H619" s="11"/>
-    </row>
-    <row r="620" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I619" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>1296</v>
       </c>
@@ -33333,8 +33480,11 @@
       <c r="F620" s="9"/>
       <c r="G620" s="18"/>
       <c r="H620" s="11"/>
-    </row>
-    <row r="621" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I620" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A621" s="36" t="s">
         <v>1298</v>
       </c>
@@ -33357,8 +33507,11 @@
         <v>7335</v>
       </c>
       <c r="H621" s="11"/>
-    </row>
-    <row r="622" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I621" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="19" t="s">
         <v>1300</v>
       </c>
@@ -33381,8 +33534,11 @@
         <v>7335</v>
       </c>
       <c r="H622" s="11"/>
-    </row>
-    <row r="623" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I622" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>1302</v>
       </c>
@@ -33397,8 +33553,11 @@
       <c r="F623" s="9"/>
       <c r="G623" s="18"/>
       <c r="H623" s="11"/>
-    </row>
-    <row r="624" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I623" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>1304</v>
       </c>
@@ -33413,8 +33572,11 @@
       <c r="F624" s="9"/>
       <c r="G624" s="18"/>
       <c r="H624" s="11"/>
-    </row>
-    <row r="625" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I624" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>1306</v>
       </c>
@@ -33429,8 +33591,11 @@
       <c r="F625" s="9"/>
       <c r="G625" s="18"/>
       <c r="H625" s="11"/>
-    </row>
-    <row r="626" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I625" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>1308</v>
       </c>
@@ -33445,8 +33610,11 @@
       <c r="F626" s="9"/>
       <c r="G626" s="18"/>
       <c r="H626" s="11"/>
-    </row>
-    <row r="627" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I626" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>1310</v>
       </c>
@@ -33461,8 +33629,11 @@
       <c r="F627" s="9"/>
       <c r="G627" s="18"/>
       <c r="H627" s="11"/>
-    </row>
-    <row r="628" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I627" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>1312</v>
       </c>
@@ -33477,8 +33648,11 @@
       <c r="F628" s="9"/>
       <c r="G628" s="18"/>
       <c r="H628" s="11"/>
-    </row>
-    <row r="629" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I628" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>1314</v>
       </c>
@@ -33493,8 +33667,11 @@
       <c r="F629" s="9"/>
       <c r="G629" s="18"/>
       <c r="H629" s="11"/>
-    </row>
-    <row r="630" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I629" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A630" s="22" t="s">
         <v>1316</v>
       </c>
@@ -33517,8 +33694,11 @@
         <v>7338</v>
       </c>
       <c r="H630" s="11"/>
-    </row>
-    <row r="631" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I630" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A631" s="22" t="s">
         <v>1318</v>
       </c>
@@ -33541,8 +33721,11 @@
         <v>7339</v>
       </c>
       <c r="H631" s="11"/>
-    </row>
-    <row r="632" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I631" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>1321</v>
       </c>
@@ -33557,8 +33740,11 @@
       <c r="F632" s="9"/>
       <c r="G632" s="18"/>
       <c r="H632" s="11"/>
-    </row>
-    <row r="633" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I632" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>1324</v>
       </c>
@@ -33573,8 +33759,11 @@
       <c r="F633" s="9"/>
       <c r="G633" s="18"/>
       <c r="H633" s="11"/>
-    </row>
-    <row r="634" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I633" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>1326</v>
       </c>
@@ -33589,8 +33778,11 @@
       <c r="F634" s="9"/>
       <c r="G634" s="18"/>
       <c r="H634" s="11"/>
-    </row>
-    <row r="635" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I634" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>1329</v>
       </c>
@@ -33605,8 +33797,11 @@
       <c r="F635" s="9"/>
       <c r="G635" s="18"/>
       <c r="H635" s="11"/>
-    </row>
-    <row r="636" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I635" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>1332</v>
       </c>
@@ -33621,8 +33816,11 @@
       <c r="F636" s="9"/>
       <c r="G636" s="18"/>
       <c r="H636" s="11"/>
-    </row>
-    <row r="637" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I636" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>1335</v>
       </c>
@@ -33637,8 +33835,11 @@
       <c r="F637" s="9"/>
       <c r="G637" s="18"/>
       <c r="H637" s="11"/>
-    </row>
-    <row r="638" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I637" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>1338</v>
       </c>
@@ -33653,8 +33854,11 @@
       <c r="F638" s="9"/>
       <c r="G638" s="18"/>
       <c r="H638" s="11"/>
-    </row>
-    <row r="639" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I638" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>1340</v>
       </c>
@@ -33669,8 +33873,11 @@
       <c r="F639" s="9"/>
       <c r="G639" s="18"/>
       <c r="H639" s="11"/>
-    </row>
-    <row r="640" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I639" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>1343</v>
       </c>
@@ -33685,8 +33892,11 @@
       <c r="F640" s="9"/>
       <c r="G640" s="18"/>
       <c r="H640" s="11"/>
-    </row>
-    <row r="641" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I640" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>1344</v>
       </c>
@@ -33701,8 +33911,11 @@
       <c r="F641" s="9"/>
       <c r="G641" s="18"/>
       <c r="H641" s="11"/>
-    </row>
-    <row r="642" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I641" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>1346</v>
       </c>
@@ -33717,8 +33930,11 @@
       <c r="F642" s="9"/>
       <c r="G642" s="18"/>
       <c r="H642" s="11"/>
-    </row>
-    <row r="643" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I642" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>1348</v>
       </c>
@@ -33733,8 +33949,11 @@
       <c r="F643" s="9"/>
       <c r="G643" s="18"/>
       <c r="H643" s="11"/>
-    </row>
-    <row r="644" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I643" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>1351</v>
       </c>
@@ -33749,8 +33968,11 @@
       <c r="F644" s="9"/>
       <c r="G644" s="18"/>
       <c r="H644" s="11"/>
-    </row>
-    <row r="645" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I644" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="19" t="s">
         <v>1353</v>
       </c>
@@ -33773,8 +33995,11 @@
         <v>7335</v>
       </c>
       <c r="H645" s="11"/>
-    </row>
-    <row r="646" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I645" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1355</v>
       </c>
@@ -33789,8 +34014,11 @@
       <c r="F646" s="9"/>
       <c r="G646" s="18"/>
       <c r="H646" s="11"/>
-    </row>
-    <row r="647" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I646" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>1358</v>
       </c>
@@ -33805,8 +34033,11 @@
       <c r="F647" s="9"/>
       <c r="G647" s="18"/>
       <c r="H647" s="11"/>
-    </row>
-    <row r="648" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I647" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>1361</v>
       </c>
@@ -33821,8 +34052,11 @@
       <c r="F648" s="9"/>
       <c r="G648" s="18"/>
       <c r="H648" s="11"/>
-    </row>
-    <row r="649" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I648" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1364</v>
       </c>
@@ -33837,8 +34071,11 @@
       <c r="F649" s="9"/>
       <c r="G649" s="18"/>
       <c r="H649" s="11"/>
-    </row>
-    <row r="650" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I649" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>1366</v>
       </c>
@@ -33853,8 +34090,11 @@
       <c r="F650" s="9"/>
       <c r="G650" s="18"/>
       <c r="H650" s="11"/>
-    </row>
-    <row r="651" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I650" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1369</v>
       </c>
@@ -33869,8 +34109,11 @@
       <c r="F651" s="9"/>
       <c r="G651" s="18"/>
       <c r="H651" s="11"/>
-    </row>
-    <row r="652" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I651" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1372</v>
       </c>
@@ -33885,8 +34128,11 @@
       <c r="F652" s="9"/>
       <c r="G652" s="18"/>
       <c r="H652" s="11"/>
-    </row>
-    <row r="653" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="I652" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A653" s="19" t="s">
         <v>1375</v>
       </c>
@@ -33909,8 +34155,11 @@
         <v>7340</v>
       </c>
       <c r="H653" s="11"/>
-    </row>
-    <row r="654" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I653" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1378</v>
       </c>
@@ -33925,8 +34174,11 @@
       <c r="F654" s="9"/>
       <c r="G654" s="18"/>
       <c r="H654" s="11"/>
-    </row>
-    <row r="655" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I654" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>1381</v>
       </c>
@@ -33941,8 +34193,11 @@
       <c r="F655" s="9"/>
       <c r="G655" s="18"/>
       <c r="H655" s="11"/>
-    </row>
-    <row r="656" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I655" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>1383</v>
       </c>
@@ -33957,8 +34212,11 @@
       <c r="F656" s="9"/>
       <c r="G656" s="18"/>
       <c r="H656" s="11"/>
-    </row>
-    <row r="657" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I656" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>1385</v>
       </c>
@@ -33973,8 +34231,11 @@
       <c r="F657" s="9"/>
       <c r="G657" s="18"/>
       <c r="H657" s="11"/>
-    </row>
-    <row r="658" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I657" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>1387</v>
       </c>
@@ -33989,8 +34250,11 @@
       <c r="F658" s="9"/>
       <c r="G658" s="18"/>
       <c r="H658" s="11"/>
-    </row>
-    <row r="659" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I658" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="19" t="s">
         <v>1389</v>
       </c>
@@ -34013,8 +34277,11 @@
         <v>7340</v>
       </c>
       <c r="H659" s="11"/>
-    </row>
-    <row r="660" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I659" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>1391</v>
       </c>
@@ -34029,8 +34296,11 @@
       <c r="F660" s="9"/>
       <c r="G660" s="18"/>
       <c r="H660" s="11"/>
-    </row>
-    <row r="661" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I660" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>1393</v>
       </c>
@@ -34045,8 +34315,11 @@
       <c r="F661" s="9"/>
       <c r="G661" s="18"/>
       <c r="H661" s="11"/>
-    </row>
-    <row r="662" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I661" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>1395</v>
       </c>
@@ -34061,8 +34334,11 @@
       <c r="F662" s="9"/>
       <c r="G662" s="18"/>
       <c r="H662" s="11"/>
-    </row>
-    <row r="663" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I662" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>1397</v>
       </c>
@@ -34077,8 +34353,11 @@
       <c r="F663" s="9"/>
       <c r="G663" s="18"/>
       <c r="H663" s="11"/>
-    </row>
-    <row r="664" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I663" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>1399</v>
       </c>
@@ -34093,8 +34372,11 @@
       <c r="F664" s="9"/>
       <c r="G664" s="18"/>
       <c r="H664" s="11"/>
-    </row>
-    <row r="665" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I664" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>1401</v>
       </c>
@@ -34109,8 +34391,11 @@
       <c r="F665" s="9"/>
       <c r="G665" s="18"/>
       <c r="H665" s="11"/>
-    </row>
-    <row r="666" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I665" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>1403</v>
       </c>
@@ -34125,8 +34410,11 @@
       <c r="F666" s="9"/>
       <c r="G666" s="18"/>
       <c r="H666" s="11"/>
-    </row>
-    <row r="667" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I666" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>1405</v>
       </c>
@@ -34141,8 +34429,11 @@
       <c r="F667" s="9"/>
       <c r="G667" s="18"/>
       <c r="H667" s="11"/>
-    </row>
-    <row r="668" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I667" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>1407</v>
       </c>
@@ -34157,8 +34448,11 @@
       <c r="F668" s="9"/>
       <c r="G668" s="18"/>
       <c r="H668" s="11"/>
-    </row>
-    <row r="669" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I668" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>1409</v>
       </c>
@@ -34173,8 +34467,11 @@
       <c r="F669" s="9"/>
       <c r="G669" s="18"/>
       <c r="H669" s="11"/>
-    </row>
-    <row r="670" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I669" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>1411</v>
       </c>
@@ -34189,8 +34486,11 @@
       <c r="F670" s="9"/>
       <c r="G670" s="18"/>
       <c r="H670" s="11"/>
-    </row>
-    <row r="671" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I670" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>1413</v>
       </c>
@@ -34205,8 +34505,11 @@
       <c r="F671" s="9"/>
       <c r="G671" s="18"/>
       <c r="H671" s="11"/>
-    </row>
-    <row r="672" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I671" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>1415</v>
       </c>
@@ -34221,8 +34524,11 @@
       <c r="F672" s="9"/>
       <c r="G672" s="18"/>
       <c r="H672" s="11"/>
-    </row>
-    <row r="673" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I672" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>1417</v>
       </c>
@@ -34237,8 +34543,11 @@
       <c r="F673" s="9"/>
       <c r="G673" s="18"/>
       <c r="H673" s="11"/>
-    </row>
-    <row r="674" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I673" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A674" s="22" t="s">
         <v>1419</v>
       </c>
@@ -34261,8 +34570,11 @@
         <v>7341</v>
       </c>
       <c r="H674" s="11"/>
-    </row>
-    <row r="675" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I674" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>1423</v>
       </c>
@@ -34277,8 +34589,11 @@
       <c r="F675" s="9"/>
       <c r="G675" s="18"/>
       <c r="H675" s="11"/>
-    </row>
-    <row r="676" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I675" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>1426</v>
       </c>
@@ -34293,8 +34608,11 @@
       <c r="F676" s="9"/>
       <c r="G676" s="18"/>
       <c r="H676" s="11"/>
-    </row>
-    <row r="677" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I676" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>1429</v>
       </c>
@@ -34309,8 +34627,11 @@
       <c r="F677" s="9"/>
       <c r="G677" s="18"/>
       <c r="H677" s="11"/>
-    </row>
-    <row r="678" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I677" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>1431</v>
       </c>
@@ -34325,8 +34646,11 @@
       <c r="F678" s="9"/>
       <c r="G678" s="18"/>
       <c r="H678" s="11"/>
-    </row>
-    <row r="679" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I678" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>1434</v>
       </c>
@@ -34341,8 +34665,11 @@
       <c r="F679" s="9"/>
       <c r="G679" s="18"/>
       <c r="H679" s="11"/>
-    </row>
-    <row r="680" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I679" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>1436</v>
       </c>
@@ -34357,8 +34684,11 @@
       <c r="F680" s="9"/>
       <c r="G680" s="18"/>
       <c r="H680" s="11"/>
-    </row>
-    <row r="681" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I680" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>1439</v>
       </c>
@@ -34373,8 +34703,11 @@
       <c r="F681" s="9"/>
       <c r="G681" s="18"/>
       <c r="H681" s="11"/>
-    </row>
-    <row r="682" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I681" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>1442</v>
       </c>
@@ -34389,8 +34722,11 @@
       <c r="F682" s="9"/>
       <c r="G682" s="18"/>
       <c r="H682" s="11"/>
-    </row>
-    <row r="683" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I682" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>1445</v>
       </c>
@@ -34405,8 +34741,11 @@
       <c r="F683" s="9"/>
       <c r="G683" s="18"/>
       <c r="H683" s="11"/>
-    </row>
-    <row r="684" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I683" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>1448</v>
       </c>
@@ -34421,8 +34760,11 @@
       <c r="F684" s="9"/>
       <c r="G684" s="18"/>
       <c r="H684" s="11"/>
-    </row>
-    <row r="685" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I684" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>1450</v>
       </c>
@@ -34437,8 +34779,11 @@
       <c r="F685" s="9"/>
       <c r="G685" s="18"/>
       <c r="H685" s="11"/>
-    </row>
-    <row r="686" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I685" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>1453</v>
       </c>
@@ -34453,8 +34798,11 @@
       <c r="F686" s="9"/>
       <c r="G686" s="18"/>
       <c r="H686" s="11"/>
-    </row>
-    <row r="687" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I686" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>1456</v>
       </c>
@@ -34469,8 +34817,11 @@
       <c r="F687" s="9"/>
       <c r="G687" s="18"/>
       <c r="H687" s="11"/>
-    </row>
-    <row r="688" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I687" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>1458</v>
       </c>
@@ -34485,8 +34836,11 @@
       <c r="F688" s="9"/>
       <c r="G688" s="18"/>
       <c r="H688" s="11"/>
-    </row>
-    <row r="689" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I688" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>1461</v>
       </c>
@@ -34501,8 +34855,11 @@
       <c r="F689" s="9"/>
       <c r="G689" s="18"/>
       <c r="H689" s="11"/>
-    </row>
-    <row r="690" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I689" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>1463</v>
       </c>
@@ -34517,8 +34874,11 @@
       <c r="F690" s="9"/>
       <c r="G690" s="18"/>
       <c r="H690" s="11"/>
-    </row>
-    <row r="691" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I690" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>1465</v>
       </c>
@@ -34533,8 +34893,11 @@
       <c r="F691" s="9"/>
       <c r="G691" s="18"/>
       <c r="H691" s="11"/>
-    </row>
-    <row r="692" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I691" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>1468</v>
       </c>
@@ -34549,8 +34912,11 @@
       <c r="F692" s="9"/>
       <c r="G692" s="18"/>
       <c r="H692" s="11"/>
-    </row>
-    <row r="693" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I692" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>1470</v>
       </c>
@@ -34565,8 +34931,11 @@
       <c r="F693" s="9"/>
       <c r="G693" s="18"/>
       <c r="H693" s="11"/>
-    </row>
-    <row r="694" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I693" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>1472</v>
       </c>
@@ -34581,8 +34950,11 @@
       <c r="F694" s="9"/>
       <c r="G694" s="18"/>
       <c r="H694" s="11"/>
-    </row>
-    <row r="695" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I694" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>1474</v>
       </c>
@@ -34597,8 +34969,11 @@
       <c r="F695" s="9"/>
       <c r="G695" s="18"/>
       <c r="H695" s="11"/>
-    </row>
-    <row r="696" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I695" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>1476</v>
       </c>
@@ -34613,8 +34988,11 @@
       <c r="F696" s="9"/>
       <c r="G696" s="18"/>
       <c r="H696" s="11"/>
-    </row>
-    <row r="697" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I696" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>1479</v>
       </c>
@@ -34629,8 +35007,11 @@
       <c r="F697" s="9"/>
       <c r="G697" s="18"/>
       <c r="H697" s="11"/>
-    </row>
-    <row r="698" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I697" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>1482</v>
       </c>
@@ -34645,8 +35026,11 @@
       <c r="F698" s="9"/>
       <c r="G698" s="18"/>
       <c r="H698" s="11"/>
-    </row>
-    <row r="699" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I698" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>1485</v>
       </c>
@@ -34661,8 +35045,11 @@
       <c r="F699" s="9"/>
       <c r="G699" s="18"/>
       <c r="H699" s="11"/>
-    </row>
-    <row r="700" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I699" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>1488</v>
       </c>
@@ -34677,8 +35064,11 @@
       <c r="F700" s="9"/>
       <c r="G700" s="18"/>
       <c r="H700" s="11"/>
-    </row>
-    <row r="701" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I700" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>1491</v>
       </c>
@@ -34693,8 +35083,11 @@
       <c r="F701" s="9"/>
       <c r="G701" s="18"/>
       <c r="H701" s="11"/>
-    </row>
-    <row r="702" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I701" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>1494</v>
       </c>
@@ -34709,8 +35102,11 @@
       <c r="F702" s="9"/>
       <c r="G702" s="18"/>
       <c r="H702" s="11"/>
-    </row>
-    <row r="703" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I702" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>1497</v>
       </c>
@@ -34725,8 +35121,11 @@
       <c r="F703" s="9"/>
       <c r="G703" s="18"/>
       <c r="H703" s="11"/>
-    </row>
-    <row r="704" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I703" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>1500</v>
       </c>
@@ -34741,8 +35140,11 @@
       <c r="F704" s="9"/>
       <c r="G704" s="18"/>
       <c r="H704" s="11"/>
-    </row>
-    <row r="705" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I704" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>1503</v>
       </c>
@@ -34757,8 +35159,11 @@
       <c r="F705" s="9"/>
       <c r="G705" s="18"/>
       <c r="H705" s="11"/>
-    </row>
-    <row r="706" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I705" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>1506</v>
       </c>
@@ -34773,8 +35178,11 @@
       <c r="F706" s="9"/>
       <c r="G706" s="18"/>
       <c r="H706" s="11"/>
-    </row>
-    <row r="707" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I706" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>1509</v>
       </c>
@@ -34789,8 +35197,11 @@
       <c r="F707" s="9"/>
       <c r="G707" s="18"/>
       <c r="H707" s="11"/>
-    </row>
-    <row r="708" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I707" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A708" s="19" t="s">
         <v>1511</v>
       </c>
@@ -34813,8 +35224,11 @@
         <v>7335</v>
       </c>
       <c r="H708" s="11"/>
-    </row>
-    <row r="709" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I708" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A709" s="19" t="s">
         <v>1513</v>
       </c>
@@ -34837,8 +35251,11 @@
         <v>7335</v>
       </c>
       <c r="H709" s="11"/>
-    </row>
-    <row r="710" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I709" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>1514</v>
       </c>
@@ -34854,7 +35271,7 @@
       <c r="G710" s="18"/>
       <c r="H710" s="11"/>
     </row>
-    <row r="711" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>1516</v>
       </c>
@@ -34870,7 +35287,7 @@
       <c r="G711" s="18"/>
       <c r="H711" s="11"/>
     </row>
-    <row r="712" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>1517</v>
       </c>
@@ -34886,7 +35303,7 @@
       <c r="G712" s="18"/>
       <c r="H712" s="11"/>
     </row>
-    <row r="713" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>1519</v>
       </c>
@@ -34902,7 +35319,7 @@
       <c r="G713" s="18"/>
       <c r="H713" s="11"/>
     </row>
-    <row r="714" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>1521</v>
       </c>
@@ -34918,7 +35335,7 @@
       <c r="G714" s="18"/>
       <c r="H714" s="11"/>
     </row>
-    <row r="715" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="40" t="s">
         <v>1524</v>
       </c>
@@ -34942,7 +35359,7 @@
       </c>
       <c r="H715" s="11"/>
     </row>
-    <row r="716" spans="1:8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A716" s="40" t="s">
         <v>1529</v>
       </c>
@@ -34966,7 +35383,7 @@
       </c>
       <c r="H716" s="11"/>
     </row>
-    <row r="717" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A717" s="40" t="s">
         <v>1532</v>
       </c>
@@ -34990,7 +35407,7 @@
       </c>
       <c r="H717" s="11"/>
     </row>
-    <row r="718" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="40" t="s">
         <v>1536</v>
       </c>
@@ -35014,7 +35431,7 @@
       </c>
       <c r="H718" s="11"/>
     </row>
-    <row r="719" spans="1:8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A719" s="40" t="s">
         <v>1539</v>
       </c>
@@ -35038,7 +35455,7 @@
       </c>
       <c r="H719" s="11"/>
     </row>
-    <row r="720" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="10"/>
       <c r="C720" s="10"/>
@@ -35054,9 +35471,11 @@
       <c r="G720" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H720" s="11"/>
-    </row>
-    <row r="721" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="H720" s="11" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="10"/>
       <c r="C721" s="10"/>
@@ -35072,9 +35491,11 @@
       <c r="G721" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H721" s="11"/>
-    </row>
-    <row r="722" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H721" s="11" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="10"/>
       <c r="C722" s="10"/>
@@ -35090,9 +35511,11 @@
       <c r="G722" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H722" s="11"/>
-    </row>
-    <row r="723" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H722" s="11" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="10"/>
       <c r="C723" s="10"/>
@@ -35108,9 +35531,11 @@
       <c r="G723" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H723" s="11"/>
-    </row>
-    <row r="724" spans="1:9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="H723" s="11" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A724" s="45" t="s">
         <v>1555</v>
       </c>
@@ -35133,11 +35558,14 @@
         <v>7351</v>
       </c>
       <c r="H724" s="11"/>
-      <c r="I724" s="44" t="s">
+      <c r="I724" t="s">
+        <v>7356</v>
+      </c>
+      <c r="J724" s="44" t="s">
         <v>7350</v>
       </c>
     </row>
-    <row r="725" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="10"/>
       <c r="C725" s="10"/>
@@ -35153,9 +35581,11 @@
       <c r="G725" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H725" s="11"/>
-    </row>
-    <row r="726" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H725" s="11" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="10"/>
       <c r="C726" s="10"/>
@@ -35171,9 +35601,11 @@
       <c r="G726" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H726" s="11"/>
-    </row>
-    <row r="727" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H726" s="11" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>1564</v>
       </c>
@@ -35189,7 +35621,7 @@
       <c r="G727" s="18"/>
       <c r="H727" s="11"/>
     </row>
-    <row r="728" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>1567</v>
       </c>
@@ -35205,7 +35637,7 @@
       <c r="G728" s="18"/>
       <c r="H728" s="11"/>
     </row>
-    <row r="729" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>1570</v>
       </c>
@@ -35221,7 +35653,7 @@
       <c r="G729" s="18"/>
       <c r="H729" s="11"/>
     </row>
-    <row r="730" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>1572</v>
       </c>
@@ -35237,7 +35669,7 @@
       <c r="G730" s="18"/>
       <c r="H730" s="11"/>
     </row>
-    <row r="731" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>1573</v>
       </c>
@@ -35253,7 +35685,7 @@
       <c r="G731" s="18"/>
       <c r="H731" s="11"/>
     </row>
-    <row r="732" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>1574</v>
       </c>
@@ -35269,7 +35701,7 @@
       <c r="G732" s="18"/>
       <c r="H732" s="11"/>
     </row>
-    <row r="733" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="45" t="s">
         <v>1576</v>
       </c>
@@ -35292,8 +35724,11 @@
         <v>7335</v>
       </c>
       <c r="H733" s="11"/>
-    </row>
-    <row r="734" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I733" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A734" s="45" t="s">
         <v>1579</v>
       </c>
@@ -35316,8 +35751,11 @@
         <v>7335</v>
       </c>
       <c r="H734" s="11"/>
-    </row>
-    <row r="735" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I734" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A735" s="45" t="s">
         <v>1582</v>
       </c>
@@ -35340,8 +35778,11 @@
         <v>7335</v>
       </c>
       <c r="H735" s="11"/>
-    </row>
-    <row r="736" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I735" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A736" s="45" t="s">
         <v>1585</v>
       </c>
@@ -35364,8 +35805,11 @@
         <v>7335</v>
       </c>
       <c r="H736" s="11"/>
-    </row>
-    <row r="737" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I736" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A737" s="45" t="s">
         <v>1588</v>
       </c>
@@ -35388,8 +35832,11 @@
         <v>7335</v>
       </c>
       <c r="H737" s="11"/>
-    </row>
-    <row r="738" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I737" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A738" s="45" t="s">
         <v>1590</v>
       </c>
@@ -35412,8 +35859,11 @@
         <v>7335</v>
       </c>
       <c r="H738" s="11"/>
-    </row>
-    <row r="739" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I738" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A739" s="45" t="s">
         <v>1592</v>
       </c>
@@ -35436,8 +35886,11 @@
         <v>7335</v>
       </c>
       <c r="H739" s="11"/>
-    </row>
-    <row r="740" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I739" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A740" s="45" t="s">
         <v>1596</v>
       </c>
@@ -35460,8 +35913,11 @@
         <v>7335</v>
       </c>
       <c r="H740" s="11"/>
-    </row>
-    <row r="741" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="I740" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A741" s="45" t="s">
         <v>1599</v>
       </c>
@@ -35484,8 +35940,11 @@
         <v>7335</v>
       </c>
       <c r="H741" s="11"/>
-    </row>
-    <row r="742" spans="1:8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="I741" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A742" s="45" t="s">
         <v>1602</v>
       </c>
@@ -35508,8 +35967,11 @@
         <v>7335</v>
       </c>
       <c r="H742" s="11"/>
-    </row>
-    <row r="743" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I742" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A743" s="45" t="s">
         <v>1606</v>
       </c>
@@ -35532,8 +35994,11 @@
         <v>7335</v>
       </c>
       <c r="H743" s="11"/>
-    </row>
-    <row r="744" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I743" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>1607</v>
       </c>
@@ -35549,7 +36014,7 @@
       <c r="G744" s="18"/>
       <c r="H744" s="11"/>
     </row>
-    <row r="745" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>1610</v>
       </c>
@@ -35565,7 +36030,7 @@
       <c r="G745" s="18"/>
       <c r="H745" s="11"/>
     </row>
-    <row r="746" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>1612</v>
       </c>
@@ -35581,7 +36046,7 @@
       <c r="G746" s="18"/>
       <c r="H746" s="11"/>
     </row>
-    <row r="747" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>1614</v>
       </c>
@@ -35597,7 +36062,7 @@
       <c r="G747" s="18"/>
       <c r="H747" s="11"/>
     </row>
-    <row r="748" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>1616</v>
       </c>
@@ -35613,7 +36078,7 @@
       <c r="G748" s="18"/>
       <c r="H748" s="11"/>
     </row>
-    <row r="749" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>1619</v>
       </c>
@@ -35629,7 +36094,7 @@
       <c r="G749" s="18"/>
       <c r="H749" s="11"/>
     </row>
-    <row r="750" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>1621</v>
       </c>
@@ -35645,7 +36110,7 @@
       <c r="G750" s="18"/>
       <c r="H750" s="11"/>
     </row>
-    <row r="751" spans="1:8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>1623</v>
       </c>
@@ -35661,7 +36126,7 @@
       <c r="G751" s="18"/>
       <c r="H751" s="11"/>
     </row>
-    <row r="752" spans="1:8" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>1626</v>
       </c>
@@ -36187,7 +36652,7 @@
       <c r="G784" s="18"/>
       <c r="H784" s="11"/>
     </row>
-    <row r="785" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>1696</v>
       </c>
@@ -36203,7 +36668,7 @@
       <c r="G785" s="18"/>
       <c r="H785" s="11"/>
     </row>
-    <row r="786" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>1698</v>
       </c>
@@ -36219,7 +36684,7 @@
       <c r="G786" s="18"/>
       <c r="H786" s="11"/>
     </row>
-    <row r="787" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>1700</v>
       </c>
@@ -36235,7 +36700,7 @@
       <c r="G787" s="18"/>
       <c r="H787" s="11"/>
     </row>
-    <row r="788" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>1702</v>
       </c>
@@ -36251,7 +36716,7 @@
       <c r="G788" s="18"/>
       <c r="H788" s="11"/>
     </row>
-    <row r="789" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>1704</v>
       </c>
@@ -36267,7 +36732,7 @@
       <c r="G789" s="18"/>
       <c r="H789" s="11"/>
     </row>
-    <row r="790" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>1707</v>
       </c>
@@ -36283,7 +36748,7 @@
       <c r="G790" s="18"/>
       <c r="H790" s="11"/>
     </row>
-    <row r="791" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>1709</v>
       </c>
@@ -36299,7 +36764,7 @@
       <c r="G791" s="18"/>
       <c r="H791" s="11"/>
     </row>
-    <row r="792" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>1711</v>
       </c>
@@ -36315,7 +36780,7 @@
       <c r="G792" s="18"/>
       <c r="H792" s="11"/>
     </row>
-    <row r="793" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A793" s="45" t="s">
         <v>1712</v>
       </c>
@@ -36338,8 +36803,11 @@
         <v>7335</v>
       </c>
       <c r="H793" s="11"/>
-    </row>
-    <row r="794" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I793" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A794" s="45" t="s">
         <v>1714</v>
       </c>
@@ -36362,8 +36830,11 @@
         <v>7335</v>
       </c>
       <c r="H794" s="11"/>
-    </row>
-    <row r="795" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I794" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A795" s="45" t="s">
         <v>1716</v>
       </c>
@@ -36386,8 +36857,11 @@
         <v>7335</v>
       </c>
       <c r="H795" s="11"/>
-    </row>
-    <row r="796" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I795" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A796" s="45" t="s">
         <v>1718</v>
       </c>
@@ -36410,8 +36884,11 @@
         <v>7335</v>
       </c>
       <c r="H796" s="11"/>
-    </row>
-    <row r="797" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I796" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A797" s="45" t="s">
         <v>1720</v>
       </c>
@@ -36434,8 +36911,11 @@
         <v>7335</v>
       </c>
       <c r="H797" s="11"/>
-    </row>
-    <row r="798" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I797" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A798" s="45" t="s">
         <v>1722</v>
       </c>
@@ -36458,8 +36938,11 @@
         <v>7335</v>
       </c>
       <c r="H798" s="11"/>
-    </row>
-    <row r="799" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I798" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>1724</v>
       </c>
@@ -36475,7 +36958,7 @@
       <c r="G799" s="18"/>
       <c r="H799" s="11"/>
     </row>
-    <row r="800" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>1726</v>
       </c>
@@ -36491,7 +36974,7 @@
       <c r="G800" s="18"/>
       <c r="H800" s="11"/>
     </row>
-    <row r="801" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>1727</v>
       </c>
@@ -36507,7 +36990,7 @@
       <c r="G801" s="18"/>
       <c r="H801" s="11"/>
     </row>
-    <row r="802" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>1728</v>
       </c>
@@ -36523,7 +37006,7 @@
       <c r="G802" s="18"/>
       <c r="H802" s="11"/>
     </row>
-    <row r="803" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>1729</v>
       </c>
@@ -36539,7 +37022,7 @@
       <c r="G803" s="18"/>
       <c r="H803" s="11"/>
     </row>
-    <row r="804" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>1730</v>
       </c>
@@ -36555,7 +37038,7 @@
       <c r="G804" s="18"/>
       <c r="H804" s="11"/>
     </row>
-    <row r="805" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A805" s="45" t="s">
         <v>1732</v>
       </c>
@@ -36578,8 +37061,11 @@
         <v>7335</v>
       </c>
       <c r="H805" s="11"/>
-    </row>
-    <row r="806" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I805" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>1733</v>
       </c>
@@ -36595,7 +37081,7 @@
       <c r="G806" s="18"/>
       <c r="H806" s="11"/>
     </row>
-    <row r="807" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>1734</v>
       </c>
@@ -36611,7 +37097,7 @@
       <c r="G807" s="18"/>
       <c r="H807" s="11"/>
     </row>
-    <row r="808" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>1735</v>
       </c>
@@ -36627,7 +37113,7 @@
       <c r="G808" s="18"/>
       <c r="H808" s="11"/>
     </row>
-    <row r="809" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>1736</v>
       </c>
@@ -36643,7 +37129,7 @@
       <c r="G809" s="18"/>
       <c r="H809" s="11"/>
     </row>
-    <row r="810" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>1737</v>
       </c>
@@ -36659,7 +37145,7 @@
       <c r="G810" s="18"/>
       <c r="H810" s="11"/>
     </row>
-    <row r="811" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>1738</v>
       </c>
@@ -36675,7 +37161,7 @@
       <c r="G811" s="18"/>
       <c r="H811" s="11"/>
     </row>
-    <row r="812" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>1739</v>
       </c>
@@ -36691,7 +37177,7 @@
       <c r="G812" s="18"/>
       <c r="H812" s="11"/>
     </row>
-    <row r="813" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>1740</v>
       </c>
@@ -36707,7 +37193,7 @@
       <c r="G813" s="18"/>
       <c r="H813" s="11"/>
     </row>
-    <row r="814" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>1741</v>
       </c>
@@ -36723,7 +37209,7 @@
       <c r="G814" s="18"/>
       <c r="H814" s="11"/>
     </row>
-    <row r="815" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>1742</v>
       </c>
@@ -36739,7 +37225,7 @@
       <c r="G815" s="18"/>
       <c r="H815" s="11"/>
     </row>
-    <row r="816" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>1743</v>
       </c>
@@ -36931,7 +37417,7 @@
       <c r="G827" s="18"/>
       <c r="H827" s="11"/>
     </row>
-    <row r="828" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="10"/>
       <c r="C828" s="10"/>
@@ -36947,9 +37433,11 @@
       <c r="G828" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H828" s="11"/>
-    </row>
-    <row r="829" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H828" s="11" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="10"/>
       <c r="C829" s="10"/>
@@ -36965,7 +37453,9 @@
       <c r="G829" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H829" s="11"/>
+      <c r="H829" s="11" t="s">
+        <v>7356</v>
+      </c>
     </row>
     <row r="830" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
@@ -42631,7 +43121,7 @@
       <c r="G1184" s="18"/>
       <c r="H1184" s="11"/>
     </row>
-    <row r="1185" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1185" s="1" t="s">
         <v>2472</v>
       </c>
@@ -42647,7 +43137,7 @@
       <c r="G1185" s="18"/>
       <c r="H1185" s="11"/>
     </row>
-    <row r="1186" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1186" s="1" t="s">
         <v>2474</v>
       </c>
@@ -42663,7 +43153,7 @@
       <c r="G1186" s="18"/>
       <c r="H1186" s="11"/>
     </row>
-    <row r="1187" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1187" s="1" t="s">
         <v>2476</v>
       </c>
@@ -42679,7 +43169,7 @@
       <c r="G1187" s="18"/>
       <c r="H1187" s="11"/>
     </row>
-    <row r="1188" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1188" s="1" t="s">
         <v>2478</v>
       </c>
@@ -42695,7 +43185,7 @@
       <c r="G1188" s="18"/>
       <c r="H1188" s="11"/>
     </row>
-    <row r="1189" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1189" s="1" t="s">
         <v>2480</v>
       </c>
@@ -42711,7 +43201,7 @@
       <c r="G1189" s="18"/>
       <c r="H1189" s="11"/>
     </row>
-    <row r="1190" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1190" s="1" t="s">
         <v>2482</v>
       </c>
@@ -42727,7 +43217,7 @@
       <c r="G1190" s="18"/>
       <c r="H1190" s="11"/>
     </row>
-    <row r="1191" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1191" s="1" t="s">
         <v>2484</v>
       </c>
@@ -42743,7 +43233,7 @@
       <c r="G1191" s="18"/>
       <c r="H1191" s="11"/>
     </row>
-    <row r="1192" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1192" s="1" t="s">
         <v>2486</v>
       </c>
@@ -42759,7 +43249,7 @@
       <c r="G1192" s="18"/>
       <c r="H1192" s="11"/>
     </row>
-    <row r="1193" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1193" s="1" t="s">
         <v>2489</v>
       </c>
@@ -42775,7 +43265,7 @@
       <c r="G1193" s="18"/>
       <c r="H1193" s="11"/>
     </row>
-    <row r="1194" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1194" s="1" t="s">
         <v>2491</v>
       </c>
@@ -42791,7 +43281,7 @@
       <c r="G1194" s="18"/>
       <c r="H1194" s="11"/>
     </row>
-    <row r="1195" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1195" s="1" t="s">
         <v>2493</v>
       </c>
@@ -42807,7 +43297,7 @@
       <c r="G1195" s="18"/>
       <c r="H1195" s="11"/>
     </row>
-    <row r="1196" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1196" s="1" t="s">
         <v>2495</v>
       </c>
@@ -42823,7 +43313,7 @@
       <c r="G1196" s="18"/>
       <c r="H1196" s="11"/>
     </row>
-    <row r="1197" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1197" s="1" t="s">
         <v>2497</v>
       </c>
@@ -42839,7 +43329,7 @@
       <c r="G1197" s="18"/>
       <c r="H1197" s="11"/>
     </row>
-    <row r="1198" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1198" s="1" t="s">
         <v>2500</v>
       </c>
@@ -42855,7 +43345,7 @@
       <c r="G1198" s="18"/>
       <c r="H1198" s="11"/>
     </row>
-    <row r="1199" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1199" s="45" t="s">
         <v>2502</v>
       </c>
@@ -42878,8 +43368,11 @@
         <v>7352</v>
       </c>
       <c r="H1199" s="11"/>
-    </row>
-    <row r="1200" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I1199" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1200" s="1" t="s">
         <v>2503</v>
       </c>
@@ -44171,7 +44664,7 @@
       <c r="G1280" s="18"/>
       <c r="H1280" s="11"/>
     </row>
-    <row r="1281" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1281" s="1" t="s">
         <v>2662</v>
       </c>
@@ -44187,7 +44680,7 @@
       <c r="G1281" s="18"/>
       <c r="H1281" s="11"/>
     </row>
-    <row r="1282" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1282" s="1" t="s">
         <v>2664</v>
       </c>
@@ -44203,7 +44696,7 @@
       <c r="G1282" s="18"/>
       <c r="H1282" s="11"/>
     </row>
-    <row r="1283" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1283" s="1" t="s">
         <v>2667</v>
       </c>
@@ -44219,7 +44712,7 @@
       <c r="G1283" s="18"/>
       <c r="H1283" s="11"/>
     </row>
-    <row r="1284" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1284" s="1" t="s">
         <v>2669</v>
       </c>
@@ -44235,7 +44728,7 @@
       <c r="G1284" s="18"/>
       <c r="H1284" s="11"/>
     </row>
-    <row r="1285" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1285" s="1" t="s">
         <v>2671</v>
       </c>
@@ -44251,7 +44744,7 @@
       <c r="G1285" s="18"/>
       <c r="H1285" s="11"/>
     </row>
-    <row r="1286" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1286" s="1" t="s">
         <v>2673</v>
       </c>
@@ -44267,7 +44760,7 @@
       <c r="G1286" s="18"/>
       <c r="H1286" s="11"/>
     </row>
-    <row r="1287" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1287" s="1" t="s">
         <v>2675</v>
       </c>
@@ -44283,7 +44776,7 @@
       <c r="G1287" s="18"/>
       <c r="H1287" s="11"/>
     </row>
-    <row r="1288" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1288" s="45" t="s">
         <v>2677</v>
       </c>
@@ -44306,8 +44799,11 @@
         <v>7335</v>
       </c>
       <c r="H1288" s="11"/>
-    </row>
-    <row r="1289" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I1288" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1289" s="1" t="s">
         <v>2678</v>
       </c>
@@ -44323,7 +44819,7 @@
       <c r="G1289" s="18"/>
       <c r="H1289" s="11"/>
     </row>
-    <row r="1290" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1290" s="1" t="s">
         <v>2681</v>
       </c>
@@ -44339,7 +44835,7 @@
       <c r="G1290" s="18"/>
       <c r="H1290" s="11"/>
     </row>
-    <row r="1291" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1291" s="1" t="s">
         <v>2682</v>
       </c>
@@ -44355,7 +44851,7 @@
       <c r="G1291" s="18"/>
       <c r="H1291" s="11"/>
     </row>
-    <row r="1292" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1292" s="1" t="s">
         <v>2684</v>
       </c>
@@ -44371,7 +44867,7 @@
       <c r="G1292" s="18"/>
       <c r="H1292" s="11"/>
     </row>
-    <row r="1293" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1293" s="1" t="s">
         <v>2686</v>
       </c>
@@ -44387,7 +44883,7 @@
       <c r="G1293" s="18"/>
       <c r="H1293" s="11"/>
     </row>
-    <row r="1294" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1294" s="1" t="s">
         <v>2688</v>
       </c>
@@ -44403,7 +44899,7 @@
       <c r="G1294" s="18"/>
       <c r="H1294" s="11"/>
     </row>
-    <row r="1295" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1295" s="1" t="s">
         <v>2690</v>
       </c>
@@ -44419,7 +44915,7 @@
       <c r="G1295" s="18"/>
       <c r="H1295" s="11"/>
     </row>
-    <row r="1296" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1296" s="1" t="s">
         <v>2692</v>
       </c>
@@ -45711,7 +46207,7 @@
       <c r="G1376" s="18"/>
       <c r="H1376" s="11"/>
     </row>
-    <row r="1377" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1377" s="1" t="s">
         <v>2850</v>
       </c>
@@ -45727,7 +46223,7 @@
       <c r="G1377" s="18"/>
       <c r="H1377" s="11"/>
     </row>
-    <row r="1378" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1378" s="1" t="s">
         <v>2852</v>
       </c>
@@ -45743,7 +46239,7 @@
       <c r="G1378" s="18"/>
       <c r="H1378" s="11"/>
     </row>
-    <row r="1379" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1379" s="45" t="s">
         <v>2854</v>
       </c>
@@ -45766,8 +46262,11 @@
         <v>7335</v>
       </c>
       <c r="H1379" s="11"/>
-    </row>
-    <row r="1380" spans="1:8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="I1379" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:9" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1380" s="1"/>
       <c r="B1380" s="10"/>
       <c r="C1380" s="10"/>
@@ -45783,9 +46282,11 @@
       <c r="G1380" s="18" t="s">
         <v>7348</v>
       </c>
-      <c r="H1380" s="11"/>
-    </row>
-    <row r="1381" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H1380" s="11" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1381" s="1" t="s">
         <v>2859</v>
       </c>
@@ -45801,7 +46302,7 @@
       <c r="G1381" s="18"/>
       <c r="H1381" s="11"/>
     </row>
-    <row r="1382" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1382" s="1" t="s">
         <v>2861</v>
       </c>
@@ -45817,7 +46318,7 @@
       <c r="G1382" s="18"/>
       <c r="H1382" s="11"/>
     </row>
-    <row r="1383" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1383" s="1" t="s">
         <v>2863</v>
       </c>
@@ -45833,7 +46334,7 @@
       <c r="G1383" s="18"/>
       <c r="H1383" s="11"/>
     </row>
-    <row r="1384" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1384" s="1" t="s">
         <v>2865</v>
       </c>
@@ -45849,7 +46350,7 @@
       <c r="G1384" s="18"/>
       <c r="H1384" s="11"/>
     </row>
-    <row r="1385" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1385" s="1" t="s">
         <v>2867</v>
       </c>
@@ -45865,7 +46366,7 @@
       <c r="G1385" s="18"/>
       <c r="H1385" s="11"/>
     </row>
-    <row r="1386" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1386" s="1" t="s">
         <v>2869</v>
       </c>
@@ -45881,7 +46382,7 @@
       <c r="G1386" s="18"/>
       <c r="H1386" s="11"/>
     </row>
-    <row r="1387" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1387" s="1" t="s">
         <v>2871</v>
       </c>
@@ -45897,7 +46398,7 @@
       <c r="G1387" s="18"/>
       <c r="H1387" s="11"/>
     </row>
-    <row r="1388" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1388" s="1" t="s">
         <v>2873</v>
       </c>
@@ -45913,7 +46414,7 @@
       <c r="G1388" s="18"/>
       <c r="H1388" s="11"/>
     </row>
-    <row r="1389" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1389" s="1" t="s">
         <v>2875</v>
       </c>
@@ -45929,7 +46430,7 @@
       <c r="G1389" s="18"/>
       <c r="H1389" s="11"/>
     </row>
-    <row r="1390" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1390" s="1" t="s">
         <v>2877</v>
       </c>
@@ -45945,7 +46446,7 @@
       <c r="G1390" s="18"/>
       <c r="H1390" s="11"/>
     </row>
-    <row r="1391" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1391" s="1" t="s">
         <v>2879</v>
       </c>
@@ -45961,7 +46462,7 @@
       <c r="G1391" s="18"/>
       <c r="H1391" s="11"/>
     </row>
-    <row r="1392" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1392" s="1" t="s">
         <v>2881</v>
       </c>
@@ -51593,7 +52094,7 @@
       <c r="G1744" s="18"/>
       <c r="H1744" s="11"/>
     </row>
-    <row r="1745" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1745" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1745" s="45" t="s">
         <v>3583</v>
       </c>
@@ -51616,8 +52117,11 @@
         <v>7335</v>
       </c>
       <c r="H1745" s="11"/>
-    </row>
-    <row r="1746" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I1745" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1746" s="1" t="s">
         <v>3585</v>
       </c>
@@ -51633,7 +52137,7 @@
       <c r="G1746" s="18"/>
       <c r="H1746" s="11"/>
     </row>
-    <row r="1747" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1747" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1747" s="1" t="s">
         <v>3587</v>
       </c>
@@ -51649,7 +52153,7 @@
       <c r="G1747" s="18"/>
       <c r="H1747" s="11"/>
     </row>
-    <row r="1748" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1748" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1748" s="1" t="s">
         <v>3589</v>
       </c>
@@ -51665,7 +52169,7 @@
       <c r="G1748" s="18"/>
       <c r="H1748" s="11"/>
     </row>
-    <row r="1749" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1749" s="1" t="s">
         <v>3591</v>
       </c>
@@ -51681,7 +52185,7 @@
       <c r="G1749" s="18"/>
       <c r="H1749" s="11"/>
     </row>
-    <row r="1750" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1750" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1750" s="45" t="s">
         <v>3593</v>
       </c>
@@ -51704,8 +52208,11 @@
         <v>7335</v>
       </c>
       <c r="H1750" s="11"/>
-    </row>
-    <row r="1751" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I1750" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1751" s="1" t="s">
         <v>3595</v>
       </c>
@@ -51721,7 +52228,7 @@
       <c r="G1751" s="18"/>
       <c r="H1751" s="11"/>
     </row>
-    <row r="1752" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1752" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1752" s="1" t="s">
         <v>3597</v>
       </c>
@@ -51737,7 +52244,7 @@
       <c r="G1752" s="18"/>
       <c r="H1752" s="11"/>
     </row>
-    <row r="1753" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1753" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1753" s="1" t="s">
         <v>3599</v>
       </c>
@@ -51753,7 +52260,7 @@
       <c r="G1753" s="18"/>
       <c r="H1753" s="11"/>
     </row>
-    <row r="1754" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1754" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1754" s="1" t="s">
         <v>3601</v>
       </c>
@@ -51769,7 +52276,7 @@
       <c r="G1754" s="18"/>
       <c r="H1754" s="11"/>
     </row>
-    <row r="1755" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1755" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1755" s="1" t="s">
         <v>3603</v>
       </c>
@@ -51785,7 +52292,7 @@
       <c r="G1755" s="18"/>
       <c r="H1755" s="11"/>
     </row>
-    <row r="1756" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1756" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1756" s="1" t="s">
         <v>3605</v>
       </c>
@@ -51801,7 +52308,7 @@
       <c r="G1756" s="18"/>
       <c r="H1756" s="11"/>
     </row>
-    <row r="1757" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1757" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1757" s="1" t="s">
         <v>3607</v>
       </c>
@@ -51817,7 +52324,7 @@
       <c r="G1757" s="18"/>
       <c r="H1757" s="11"/>
     </row>
-    <row r="1758" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1758" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1758" s="1" t="s">
         <v>3609</v>
       </c>
@@ -51833,7 +52340,7 @@
       <c r="G1758" s="18"/>
       <c r="H1758" s="11"/>
     </row>
-    <row r="1759" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1759" s="1" t="s">
         <v>3611</v>
       </c>
@@ -51849,7 +52356,7 @@
       <c r="G1759" s="18"/>
       <c r="H1759" s="11"/>
     </row>
-    <row r="1760" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1760" s="1" t="s">
         <v>3613</v>
       </c>
@@ -53405,7 +53912,7 @@
       <c r="G1856" s="18"/>
       <c r="H1856" s="11"/>
     </row>
-    <row r="1857" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1857" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1857" s="1" t="s">
         <v>3807</v>
       </c>
@@ -53421,7 +53928,7 @@
       <c r="G1857" s="18"/>
       <c r="H1857" s="11"/>
     </row>
-    <row r="1858" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1858" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1858" s="1" t="s">
         <v>3809</v>
       </c>
@@ -53437,7 +53944,7 @@
       <c r="G1858" s="18"/>
       <c r="H1858" s="11"/>
     </row>
-    <row r="1859" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1859" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1859" s="1" t="s">
         <v>3811</v>
       </c>
@@ -53453,7 +53960,7 @@
       <c r="G1859" s="18"/>
       <c r="H1859" s="11"/>
     </row>
-    <row r="1860" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1860" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1860" s="45" t="s">
         <v>3813</v>
       </c>
@@ -53476,8 +53983,11 @@
         <v>7335</v>
       </c>
       <c r="H1860" s="11"/>
-    </row>
-    <row r="1861" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I1860" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1861" s="1" t="s">
         <v>3815</v>
       </c>
@@ -53493,7 +54003,7 @@
       <c r="G1861" s="18"/>
       <c r="H1861" s="11"/>
     </row>
-    <row r="1862" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1862" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1862" s="1" t="s">
         <v>3817</v>
       </c>
@@ -53509,7 +54019,7 @@
       <c r="G1862" s="18"/>
       <c r="H1862" s="11"/>
     </row>
-    <row r="1863" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1863" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1863" s="1" t="s">
         <v>3819</v>
       </c>
@@ -53525,7 +54035,7 @@
       <c r="G1863" s="18"/>
       <c r="H1863" s="11"/>
     </row>
-    <row r="1864" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1864" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1864" s="1" t="s">
         <v>3821</v>
       </c>
@@ -53541,7 +54051,7 @@
       <c r="G1864" s="18"/>
       <c r="H1864" s="11"/>
     </row>
-    <row r="1865" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1865" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1865" s="1" t="s">
         <v>3823</v>
       </c>
@@ -53557,7 +54067,7 @@
       <c r="G1865" s="18"/>
       <c r="H1865" s="11"/>
     </row>
-    <row r="1866" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1866" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1866" s="1" t="s">
         <v>3825</v>
       </c>
@@ -53573,7 +54083,7 @@
       <c r="G1866" s="18"/>
       <c r="H1866" s="11"/>
     </row>
-    <row r="1867" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1867" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1867" s="1" t="s">
         <v>3827</v>
       </c>
@@ -53589,7 +54099,7 @@
       <c r="G1867" s="18"/>
       <c r="H1867" s="11"/>
     </row>
-    <row r="1868" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1868" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1868" s="1" t="s">
         <v>3829</v>
       </c>
@@ -53605,7 +54115,7 @@
       <c r="G1868" s="18"/>
       <c r="H1868" s="11"/>
     </row>
-    <row r="1869" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1869" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1869" s="1" t="s">
         <v>3831</v>
       </c>
@@ -53621,7 +54131,7 @@
       <c r="G1869" s="18"/>
       <c r="H1869" s="11"/>
     </row>
-    <row r="1870" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1870" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1870" s="1" t="s">
         <v>3833</v>
       </c>
@@ -53637,7 +54147,7 @@
       <c r="G1870" s="18"/>
       <c r="H1870" s="11"/>
     </row>
-    <row r="1871" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1871" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1871" s="1" t="s">
         <v>3835</v>
       </c>
@@ -53653,7 +54163,7 @@
       <c r="G1871" s="18"/>
       <c r="H1871" s="11"/>
     </row>
-    <row r="1872" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1872" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1872" s="1" t="s">
         <v>3837</v>
       </c>
@@ -54181,7 +54691,7 @@
       <c r="G1904" s="18"/>
       <c r="H1904" s="11"/>
     </row>
-    <row r="1905" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1905" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1905" s="45" t="s">
         <v>3903</v>
       </c>
@@ -54204,8 +54714,11 @@
         <v>7335</v>
       </c>
       <c r="H1905" s="11"/>
-    </row>
-    <row r="1906" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I1905" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1906" s="1" t="s">
         <v>3905</v>
       </c>
@@ -54221,7 +54734,7 @@
       <c r="G1906" s="18"/>
       <c r="H1906" s="11"/>
     </row>
-    <row r="1907" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1907" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
         <v>3907</v>
       </c>
@@ -54237,7 +54750,7 @@
       <c r="G1907" s="18"/>
       <c r="H1907" s="11"/>
     </row>
-    <row r="1908" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
         <v>3909</v>
       </c>
@@ -54253,7 +54766,7 @@
       <c r="G1908" s="18"/>
       <c r="H1908" s="11"/>
     </row>
-    <row r="1909" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
         <v>3911</v>
       </c>
@@ -54269,7 +54782,7 @@
       <c r="G1909" s="18"/>
       <c r="H1909" s="11"/>
     </row>
-    <row r="1910" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
         <v>3913</v>
       </c>
@@ -54285,7 +54798,7 @@
       <c r="G1910" s="18"/>
       <c r="H1910" s="11"/>
     </row>
-    <row r="1911" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
         <v>3915</v>
       </c>
@@ -54301,7 +54814,7 @@
       <c r="G1911" s="18"/>
       <c r="H1911" s="11"/>
     </row>
-    <row r="1912" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
         <v>3917</v>
       </c>
@@ -54317,7 +54830,7 @@
       <c r="G1912" s="18"/>
       <c r="H1912" s="11"/>
     </row>
-    <row r="1913" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
         <v>3919</v>
       </c>
@@ -54333,7 +54846,7 @@
       <c r="G1913" s="18"/>
       <c r="H1913" s="11"/>
     </row>
-    <row r="1914" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
         <v>3921</v>
       </c>
@@ -54349,7 +54862,7 @@
       <c r="G1914" s="18"/>
       <c r="H1914" s="11"/>
     </row>
-    <row r="1915" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1915" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
         <v>3923</v>
       </c>
@@ -54365,7 +54878,7 @@
       <c r="G1915" s="18"/>
       <c r="H1915" s="11"/>
     </row>
-    <row r="1916" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
         <v>3925</v>
       </c>
@@ -54381,7 +54894,7 @@
       <c r="G1916" s="18"/>
       <c r="H1916" s="11"/>
     </row>
-    <row r="1917" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
         <v>3927</v>
       </c>
@@ -54397,7 +54910,7 @@
       <c r="G1917" s="18"/>
       <c r="H1917" s="11"/>
     </row>
-    <row r="1918" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
         <v>3929</v>
       </c>
@@ -54413,7 +54926,7 @@
       <c r="G1918" s="18"/>
       <c r="H1918" s="11"/>
     </row>
-    <row r="1919" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
         <v>3931</v>
       </c>
@@ -54429,7 +54942,7 @@
       <c r="G1919" s="18"/>
       <c r="H1919" s="11"/>
     </row>
-    <row r="1920" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1920" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
         <v>3933</v>
       </c>
@@ -60057,7 +60570,7 @@
       <c r="G2272" s="18"/>
       <c r="H2272" s="11"/>
     </row>
-    <row r="2273" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2273" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2273" s="1" t="s">
         <v>4634</v>
       </c>
@@ -60073,7 +60586,7 @@
       <c r="G2273" s="18"/>
       <c r="H2273" s="11"/>
     </row>
-    <row r="2274" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2274" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2274" s="1" t="s">
         <v>4636</v>
       </c>
@@ -60089,7 +60602,7 @@
       <c r="G2274" s="18"/>
       <c r="H2274" s="11"/>
     </row>
-    <row r="2275" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2275" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2275" s="1" t="s">
         <v>4638</v>
       </c>
@@ -60105,7 +60618,7 @@
       <c r="G2275" s="18"/>
       <c r="H2275" s="11"/>
     </row>
-    <row r="2276" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2276" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2276" s="1" t="s">
         <v>4640</v>
       </c>
@@ -60121,7 +60634,7 @@
       <c r="G2276" s="18"/>
       <c r="H2276" s="11"/>
     </row>
-    <row r="2277" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2277" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2277" s="1" t="s">
         <v>4642</v>
       </c>
@@ -60137,7 +60650,7 @@
       <c r="G2277" s="18"/>
       <c r="H2277" s="11"/>
     </row>
-    <row r="2278" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2278" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2278" s="1" t="s">
         <v>4644</v>
       </c>
@@ -60153,7 +60666,7 @@
       <c r="G2278" s="18"/>
       <c r="H2278" s="11"/>
     </row>
-    <row r="2279" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2279" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2279" s="1" t="s">
         <v>4646</v>
       </c>
@@ -60169,7 +60682,7 @@
       <c r="G2279" s="18"/>
       <c r="H2279" s="11"/>
     </row>
-    <row r="2280" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2280" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2280" s="45" t="s">
         <v>4648</v>
       </c>
@@ -60192,8 +60705,11 @@
         <v>7335</v>
       </c>
       <c r="H2280" s="11"/>
-    </row>
-    <row r="2281" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I2280" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2281" s="1" t="s">
         <v>4650</v>
       </c>
@@ -60209,7 +60725,7 @@
       <c r="G2281" s="18"/>
       <c r="H2281" s="11"/>
     </row>
-    <row r="2282" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2282" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2282" s="1" t="s">
         <v>4652</v>
       </c>
@@ -60225,7 +60741,7 @@
       <c r="G2282" s="18"/>
       <c r="H2282" s="11"/>
     </row>
-    <row r="2283" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2283" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2283" s="1" t="s">
         <v>4654</v>
       </c>
@@ -60241,7 +60757,7 @@
       <c r="G2283" s="18"/>
       <c r="H2283" s="11"/>
     </row>
-    <row r="2284" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2284" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2284" s="1" t="s">
         <v>4656</v>
       </c>
@@ -60257,7 +60773,7 @@
       <c r="G2284" s="18"/>
       <c r="H2284" s="11"/>
     </row>
-    <row r="2285" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2285" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2285" s="1" t="s">
         <v>4658</v>
       </c>
@@ -60273,7 +60789,7 @@
       <c r="G2285" s="18"/>
       <c r="H2285" s="11"/>
     </row>
-    <row r="2286" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2286" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2286" s="1" t="s">
         <v>4660</v>
       </c>
@@ -60289,7 +60805,7 @@
       <c r="G2286" s="18"/>
       <c r="H2286" s="11"/>
     </row>
-    <row r="2287" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2287" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2287" s="1" t="s">
         <v>4662</v>
       </c>
@@ -60305,7 +60821,7 @@
       <c r="G2287" s="18"/>
       <c r="H2287" s="11"/>
     </row>
-    <row r="2288" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2288" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2288" s="1" t="s">
         <v>4664</v>
       </c>
@@ -62365,7 +62881,7 @@
       <c r="G2416" s="18"/>
       <c r="H2416" s="11"/>
     </row>
-    <row r="2417" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2417" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2417" s="1" t="s">
         <v>4921</v>
       </c>
@@ -62381,7 +62897,7 @@
       <c r="G2417" s="18"/>
       <c r="H2417" s="11"/>
     </row>
-    <row r="2418" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2418" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2418" s="1" t="s">
         <v>4923</v>
       </c>
@@ -62397,7 +62913,7 @@
       <c r="G2418" s="18"/>
       <c r="H2418" s="11"/>
     </row>
-    <row r="2419" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2419" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2419" s="1" t="s">
         <v>4925</v>
       </c>
@@ -62413,7 +62929,7 @@
       <c r="G2419" s="18"/>
       <c r="H2419" s="11"/>
     </row>
-    <row r="2420" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2420" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2420" s="45" t="s">
         <v>4927</v>
       </c>
@@ -62436,8 +62952,11 @@
         <v>7335</v>
       </c>
       <c r="H2420" s="11"/>
-    </row>
-    <row r="2421" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I2420" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2421" s="1" t="s">
         <v>4929</v>
       </c>
@@ -62453,7 +62972,7 @@
       <c r="G2421" s="18"/>
       <c r="H2421" s="11"/>
     </row>
-    <row r="2422" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2422" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2422" s="1" t="s">
         <v>4931</v>
       </c>
@@ -62469,7 +62988,7 @@
       <c r="G2422" s="18"/>
       <c r="H2422" s="11"/>
     </row>
-    <row r="2423" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2423" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2423" s="1" t="s">
         <v>4933</v>
       </c>
@@ -62485,7 +63004,7 @@
       <c r="G2423" s="18"/>
       <c r="H2423" s="11"/>
     </row>
-    <row r="2424" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2424" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2424" s="1" t="s">
         <v>4935</v>
       </c>
@@ -62501,7 +63020,7 @@
       <c r="G2424" s="18"/>
       <c r="H2424" s="11"/>
     </row>
-    <row r="2425" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2425" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2425" s="1" t="s">
         <v>4937</v>
       </c>
@@ -62517,7 +63036,7 @@
       <c r="G2425" s="18"/>
       <c r="H2425" s="11"/>
     </row>
-    <row r="2426" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2426" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2426" s="1" t="s">
         <v>4939</v>
       </c>
@@ -62533,7 +63052,7 @@
       <c r="G2426" s="18"/>
       <c r="H2426" s="11"/>
     </row>
-    <row r="2427" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2427" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2427" s="1" t="s">
         <v>4941</v>
       </c>
@@ -62549,7 +63068,7 @@
       <c r="G2427" s="18"/>
       <c r="H2427" s="11"/>
     </row>
-    <row r="2428" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2428" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2428" s="1" t="s">
         <v>4943</v>
       </c>
@@ -62565,7 +63084,7 @@
       <c r="G2428" s="18"/>
       <c r="H2428" s="11"/>
     </row>
-    <row r="2429" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2429" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2429" s="1" t="s">
         <v>4945</v>
       </c>
@@ -62581,7 +63100,7 @@
       <c r="G2429" s="18"/>
       <c r="H2429" s="11"/>
     </row>
-    <row r="2430" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2430" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2430" s="1" t="s">
         <v>4947</v>
       </c>
@@ -62597,7 +63116,7 @@
       <c r="G2430" s="18"/>
       <c r="H2430" s="11"/>
     </row>
-    <row r="2431" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2431" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2431" s="1" t="s">
         <v>4949</v>
       </c>
@@ -62613,7 +63132,7 @@
       <c r="G2431" s="18"/>
       <c r="H2431" s="11"/>
     </row>
-    <row r="2432" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2432" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2432" s="1" t="s">
         <v>4951</v>
       </c>
@@ -63141,7 +63660,7 @@
       <c r="G2464" s="18"/>
       <c r="H2464" s="11"/>
     </row>
-    <row r="2465" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2465" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2465" s="45" t="s">
         <v>5017</v>
       </c>
@@ -63164,8 +63683,11 @@
         <v>7335</v>
       </c>
       <c r="H2465" s="11"/>
-    </row>
-    <row r="2466" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I2465" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2466" s="1" t="s">
         <v>5019</v>
       </c>
@@ -63181,7 +63703,7 @@
       <c r="G2466" s="18"/>
       <c r="H2466" s="11"/>
     </row>
-    <row r="2467" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2467" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2467" s="1" t="s">
         <v>5021</v>
       </c>
@@ -63197,7 +63719,7 @@
       <c r="G2467" s="18"/>
       <c r="H2467" s="11"/>
     </row>
-    <row r="2468" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2468" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2468" s="1" t="s">
         <v>5023</v>
       </c>
@@ -63213,7 +63735,7 @@
       <c r="G2468" s="18"/>
       <c r="H2468" s="11"/>
     </row>
-    <row r="2469" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2469" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2469" s="1" t="s">
         <v>5025</v>
       </c>
@@ -63229,7 +63751,7 @@
       <c r="G2469" s="18"/>
       <c r="H2469" s="11"/>
     </row>
-    <row r="2470" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2470" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2470" s="1" t="s">
         <v>5027</v>
       </c>
@@ -63245,7 +63767,7 @@
       <c r="G2470" s="18"/>
       <c r="H2470" s="11"/>
     </row>
-    <row r="2471" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2471" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2471" s="1" t="s">
         <v>5029</v>
       </c>
@@ -63261,7 +63783,7 @@
       <c r="G2471" s="18"/>
       <c r="H2471" s="11"/>
     </row>
-    <row r="2472" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2472" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2472" s="1" t="s">
         <v>5031</v>
       </c>
@@ -63277,7 +63799,7 @@
       <c r="G2472" s="18"/>
       <c r="H2472" s="11"/>
     </row>
-    <row r="2473" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2473" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2473" s="1" t="s">
         <v>5033</v>
       </c>
@@ -63293,7 +63815,7 @@
       <c r="G2473" s="18"/>
       <c r="H2473" s="11"/>
     </row>
-    <row r="2474" spans="1:8" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2474" spans="1:9" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2474" s="1" t="s">
         <v>5035</v>
       </c>
@@ -63309,7 +63831,7 @@
       <c r="G2474" s="18"/>
       <c r="H2474" s="11"/>
     </row>
-    <row r="2475" spans="1:8" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2475" spans="1:9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2475" s="1" t="s">
         <v>5037</v>
       </c>
@@ -63325,7 +63847,7 @@
       <c r="G2475" s="18"/>
       <c r="H2475" s="11"/>
     </row>
-    <row r="2476" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2476" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2476" s="1" t="s">
         <v>5039</v>
       </c>
@@ -63341,7 +63863,7 @@
       <c r="G2476" s="18"/>
       <c r="H2476" s="11"/>
     </row>
-    <row r="2477" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2477" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2477" s="1" t="s">
         <v>5041</v>
       </c>
@@ -63357,7 +63879,7 @@
       <c r="G2477" s="18"/>
       <c r="H2477" s="11"/>
     </row>
-    <row r="2478" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2478" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2478" s="1" t="s">
         <v>5043</v>
       </c>
@@ -63373,7 +63895,7 @@
       <c r="G2478" s="18"/>
       <c r="H2478" s="11"/>
     </row>
-    <row r="2479" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2479" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2479" s="1" t="s">
         <v>5045</v>
       </c>
@@ -63389,7 +63911,7 @@
       <c r="G2479" s="18"/>
       <c r="H2479" s="11"/>
     </row>
-    <row r="2480" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2480" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2480" s="1" t="s">
         <v>5047</v>
       </c>
@@ -81593,7 +82115,7 @@
       <c r="G3620" s="18"/>
       <c r="H3620" s="11"/>
     </row>
-    <row r="3621" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3621" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3621" s="1"/>
       <c r="B3621" s="10"/>
       <c r="C3621" s="10"/>
@@ -81609,9 +82131,24 @@
       <c r="G3621" s="52" t="s">
         <v>7348</v>
       </c>
-      <c r="H3621" s="53"/>
+      <c r="H3621" s="11" t="s">
+        <v>7356</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J3621">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="3" showButton="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
